--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43999</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44532</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43627</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44406</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44848</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44939</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44519</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44673</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44879</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>44473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44935</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43641</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>44452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44943</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45105</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43713</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>44413</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44824</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44830</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43703</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>44377</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44461</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44470</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44830</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44830</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43362</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44365</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>44435</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44473</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>44525</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44865</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44874</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>45068</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>45089</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>45145</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>45159</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43587</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43928</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>44029</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44061</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44092</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44145</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44260</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44284</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44340</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44349</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44370</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44379</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44488</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44837</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>44865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44869</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44881</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>45107</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43339</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43339</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43341</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43341</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43355</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43355</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43355</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43355</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43382</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43388</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>43391</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>43410</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>43412</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43412</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43417</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43419</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>43423</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43425</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>43425</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43432</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43434</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43436</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43436</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43436</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43437</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43454</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43461</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43461</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43462</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43475</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43475</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43483</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43486</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43497</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43497</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43497</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43504</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43522</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43545</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43546</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43550</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43552</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43556</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43570</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43570</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43578</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43578</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43581</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43584</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43596</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43601</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43602</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43609</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43609</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43609</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>43609</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>43613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>43619</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>43624</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>43626</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>43628</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>43635</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>43644</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>43644</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>43654</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>43657</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>43657</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>43661</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43663</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43663</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43663</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43664</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>43664</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>43664</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>43668</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>43668</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43683</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>43706</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>43731</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>43737</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>43738</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>43741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43742</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>43745</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>43760</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>43776</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43777</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>43777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>43777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>43783</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43783</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>43789</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>43789</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43791</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>43792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>43794</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>43794</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>43795</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43805</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43820</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43822</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43845</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43854</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43866</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43866</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43878</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43878</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43882</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>43917</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43921</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43922</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>43922</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>43922</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>43922</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43923</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43928</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43937</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>43944</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43944</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>43955</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>43955</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>43969</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>43985</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>43990</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>43990</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>43991</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43991</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43991</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44005</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44005</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44015</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>44015</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18956,7 +18956,7 @@
         <v>44027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44063</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44078</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44096</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44096</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44106</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44106</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44109</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>44113</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>44125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>44126</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>44140</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>44145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44145</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>44146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44153</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>44165</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44179</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44198</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44200</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44200</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>44201</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>44201</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>44201</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>44201</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44201</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44201</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20999,7 +20999,7 @@
         <v>44210</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44210</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44214</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21247,7 +21247,7 @@
         <v>44215</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44222</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44224</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44229</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44230</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44230</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44238</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44238</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44260</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44279</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44284</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44286</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44287</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44292</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44308</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44309</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44309</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44309</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44309</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44309</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44309</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44314</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44314</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44326</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44327</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44344</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>44347</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44349</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44357</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44363</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>44363</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44363</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         <v>44364</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>44365</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
         <v>44365</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23431,7 +23431,7 @@
         <v>44371</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44378</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>44391</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>44392</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44393</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44393</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>44393</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>44393</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44399</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44411</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44411</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44412</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>44413</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>44413</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44421</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44421</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44435</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44435</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44452</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44456</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44459</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>44467</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>44467</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44471</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44473</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         <v>44476</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44477</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>44484</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44495</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44498</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>44501</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>44505</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>44508</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44519</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>44526</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>44529</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44533</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44536</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44538</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44539</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44543</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44546</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44547</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44552</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>44558</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44558</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>44568</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>44599</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44600</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>44607</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>44615</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>44629</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>44636</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>44643</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44651</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44651</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44656</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>44680</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44686</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44687</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>44691</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27594,7 +27594,7 @@
         <v>44697</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27651,7 +27651,7 @@
         <v>44697</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         <v>44705</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         <v>44705</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         <v>44706</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>44711</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27946,7 +27946,7 @@
         <v>44755</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>44755</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44755</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44755</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>44755</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44756</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44782</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44782</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44782</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44782</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44784</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>44788</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>44803</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>44804</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>44809</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>44816</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>44824</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28975,7 +28975,7 @@
         <v>44824</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29037,7 +29037,7 @@
         <v>44824</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>44829</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>44829</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>44837</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>44837</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>44844</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29394,7 +29394,7 @@
         <v>44844</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>44844</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29513,7 +29513,7 @@
         <v>44846</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29570,7 +29570,7 @@
         <v>44846</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29627,7 +29627,7 @@
         <v>44855</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29684,7 +29684,7 @@
         <v>44859</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44865</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29808,7 +29808,7 @@
         <v>44866</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29870,7 +29870,7 @@
         <v>44867</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29927,7 +29927,7 @@
         <v>44868</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44868</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>44869</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30113,7 +30113,7 @@
         <v>44869</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30175,7 +30175,7 @@
         <v>44869</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44873</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30299,7 +30299,7 @@
         <v>44874</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44874</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30413,7 +30413,7 @@
         <v>44875</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44894</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44904</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44904</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44904</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44910</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44910</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44911</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44911</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44915</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44916</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31179,7 +31179,7 @@
         <v>44916</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44923</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>44923</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31412,7 +31412,7 @@
         <v>44924</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31474,7 +31474,7 @@
         <v>44937</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44938</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44942</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44942</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44960</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44964</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44978</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44978</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>45002</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>45015</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>45034</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>45048</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>45057</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>45072</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>45075</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>45076</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>45077</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>45078</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32520,7 +32520,7 @@
         <v>45082</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>45084</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>45084</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>45085</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>45086</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32872,7 +32872,7 @@
         <v>45097</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>45105</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>45106</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>45107</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>45112</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>45113</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>45113</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>45113</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         <v>45114</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33772,7 +33772,7 @@
         <v>45114</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45114</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>45114</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>45118</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45119</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>45120</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45121</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45131</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45134</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45139</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45140</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45141</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45145</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45145</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45145</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43999</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44532</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43627</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44406</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44848</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44939</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44519</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44673</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44879</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>44473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44935</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43641</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>44452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44943</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45105</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43713</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>44413</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44824</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44830</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43703</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>44377</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44461</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44470</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44830</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44830</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43362</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44365</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>44435</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44473</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>44525</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44865</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44874</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>45068</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>45089</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>45145</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>45159</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43587</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43928</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>44029</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44061</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44092</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44145</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44260</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44284</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44340</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44349</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44370</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44379</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44488</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44837</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>44865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44869</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44881</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>45107</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43339</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43339</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43341</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43341</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43355</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43355</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43355</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43355</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43382</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43388</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>43391</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>43410</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>43412</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43412</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43417</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43419</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>43423</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43425</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>43425</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43432</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43434</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43436</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43436</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43436</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43437</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43454</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43461</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43461</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43462</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43475</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43475</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43483</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43486</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43497</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43497</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43497</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43504</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43522</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43545</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43546</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43550</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43552</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43556</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43570</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43570</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43578</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43578</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43581</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43584</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43596</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43601</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43602</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43609</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43609</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43609</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>43609</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>43613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>43619</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>43624</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>43626</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>43628</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>43635</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>43644</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>43644</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>43654</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>43657</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>43657</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>43661</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43663</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43663</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43663</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43664</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>43664</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>43664</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>43668</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>43668</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43683</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>43706</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>43731</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>43737</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>43738</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>43741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43742</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>43745</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>43760</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>43776</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43777</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>43777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>43777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>43783</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43783</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>43789</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>43789</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43791</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>43792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>43794</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>43794</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>43795</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43805</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43820</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43822</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43845</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43854</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43866</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43866</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43878</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43878</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43882</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>43917</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43921</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43922</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>43922</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>43922</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>43922</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43923</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43928</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43937</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>43944</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43944</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>43955</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>43955</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>43969</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>43985</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>43990</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>43990</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>43991</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43991</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43991</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44005</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44005</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44015</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>44015</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18956,7 +18956,7 @@
         <v>44027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44063</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44078</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44096</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44096</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44106</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44106</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44109</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>44113</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>44125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>44126</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>44140</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>44145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44145</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>44146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44153</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>44165</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44179</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44198</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44200</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44200</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>44201</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>44201</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>44201</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>44201</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44201</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44201</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20999,7 +20999,7 @@
         <v>44210</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44210</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44214</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21247,7 +21247,7 @@
         <v>44215</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44222</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44224</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44229</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44230</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44230</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44238</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44238</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44260</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44279</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44284</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44286</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44287</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44292</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44308</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44309</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44309</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44309</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44309</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44309</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44309</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44314</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44314</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44326</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44327</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44344</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>44347</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44349</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44357</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44363</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>44363</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44363</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         <v>44364</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>44365</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
         <v>44365</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23431,7 +23431,7 @@
         <v>44371</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44378</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>44391</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>44392</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44393</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44393</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>44393</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>44393</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44399</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44411</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44411</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44412</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>44413</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>44413</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44421</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44421</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44435</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44435</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44452</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44456</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44459</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>44467</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>44467</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44471</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44473</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         <v>44476</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44477</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>44484</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44495</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44498</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>44501</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>44505</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>44508</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44519</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>44526</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>44529</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44533</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44536</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44538</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44539</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44543</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44546</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44547</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44552</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>44558</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44558</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>44568</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>44599</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44600</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>44607</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>44615</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>44629</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>44636</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>44643</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44651</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44651</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44656</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>44680</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44686</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44687</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>44691</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27594,7 +27594,7 @@
         <v>44697</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27651,7 +27651,7 @@
         <v>44697</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         <v>44705</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         <v>44705</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         <v>44706</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>44711</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27946,7 +27946,7 @@
         <v>44755</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>44755</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44755</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44755</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>44755</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44756</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44782</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44782</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44782</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44782</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44784</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>44788</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>44803</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>44804</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>44809</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>44816</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>44824</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28975,7 +28975,7 @@
         <v>44824</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29037,7 +29037,7 @@
         <v>44824</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>44829</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>44829</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>44837</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>44837</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>44844</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29394,7 +29394,7 @@
         <v>44844</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>44844</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29513,7 +29513,7 @@
         <v>44846</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29570,7 +29570,7 @@
         <v>44846</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29627,7 +29627,7 @@
         <v>44855</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29684,7 +29684,7 @@
         <v>44859</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44865</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29808,7 +29808,7 @@
         <v>44866</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29870,7 +29870,7 @@
         <v>44867</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29927,7 +29927,7 @@
         <v>44868</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44868</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>44869</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30113,7 +30113,7 @@
         <v>44869</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30175,7 +30175,7 @@
         <v>44869</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44873</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30299,7 +30299,7 @@
         <v>44874</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44874</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30413,7 +30413,7 @@
         <v>44875</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44894</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44904</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44904</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44904</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44910</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44910</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44911</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44911</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44915</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44916</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31179,7 +31179,7 @@
         <v>44916</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44923</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>44923</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31412,7 +31412,7 @@
         <v>44924</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31474,7 +31474,7 @@
         <v>44937</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44938</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44942</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44942</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44960</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44964</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44978</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44978</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>45002</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>45015</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>45034</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>45048</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>45057</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>45072</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>45075</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>45076</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>45077</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>45078</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32520,7 +32520,7 @@
         <v>45082</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>45084</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>45084</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>45085</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>45086</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32872,7 +32872,7 @@
         <v>45097</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>45105</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>45106</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>45107</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>45112</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>45113</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>45113</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>45113</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         <v>45114</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33772,7 +33772,7 @@
         <v>45114</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45114</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>45114</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>45118</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45119</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>45120</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45121</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45131</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45134</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45139</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45140</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45141</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45145</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45145</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45145</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43999</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44532</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43627</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44406</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44848</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44939</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44519</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44673</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44879</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>44473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44935</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43641</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>44452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44943</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45105</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43713</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>44413</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44824</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44830</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43703</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>44377</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44461</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44470</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44830</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44830</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43362</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44365</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>44435</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44473</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>44525</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44865</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44874</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>45068</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>45089</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>45145</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>45159</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43587</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43928</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>44029</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44061</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44092</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44145</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44260</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44284</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44340</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44349</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44370</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44379</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44488</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44837</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>44865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44869</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44881</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>45107</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43339</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43339</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43341</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43341</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43355</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43355</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43355</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43355</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43382</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43388</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>43391</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>43410</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>43412</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43412</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43417</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43419</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>43423</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43425</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>43425</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43432</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43434</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43436</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43436</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43436</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43437</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43454</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43461</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43461</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43462</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43475</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43475</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43483</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43486</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43497</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43497</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43497</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43504</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43522</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43545</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43546</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43550</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43552</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43556</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43570</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43570</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43578</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43578</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43581</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43584</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43596</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43601</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43602</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43609</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43609</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43609</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>43609</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>43613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>43619</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>43624</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>43626</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>43628</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>43635</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>43644</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>43644</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>43654</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>43657</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>43657</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>43661</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43663</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43663</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43663</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43664</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>43664</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>43664</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>43668</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>43668</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43683</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>43706</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>43731</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>43737</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>43738</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>43741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43742</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>43745</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>43760</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>43776</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43777</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>43777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>43777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>43783</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43783</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>43789</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>43789</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43791</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>43792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>43794</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>43794</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>43795</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43805</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43820</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43822</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43845</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43854</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43866</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43866</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43878</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43878</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43882</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>43917</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43921</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43922</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>43922</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>43922</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>43922</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43923</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43928</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43937</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>43944</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43944</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>43955</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>43955</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>43969</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>43985</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>43990</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>43990</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>43991</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43991</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43991</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44005</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44005</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44015</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>44015</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18956,7 +18956,7 @@
         <v>44027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44063</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44078</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44096</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44096</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44106</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44106</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44109</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>44113</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>44125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>44126</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>44140</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>44145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44145</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>44146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44153</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>44165</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44179</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44198</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44200</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44200</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>44201</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>44201</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>44201</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>44201</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44201</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44201</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20999,7 +20999,7 @@
         <v>44210</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44210</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44214</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21247,7 +21247,7 @@
         <v>44215</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44222</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44224</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44229</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44230</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44230</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44238</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44238</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44260</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44279</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44284</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44286</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44287</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44292</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44308</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44309</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44309</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44309</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44309</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44309</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44309</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44314</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44314</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44326</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44327</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44344</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>44347</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44349</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44357</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44363</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>44363</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44363</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         <v>44364</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>44365</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
         <v>44365</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23431,7 +23431,7 @@
         <v>44371</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44378</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>44391</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>44392</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44393</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44393</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>44393</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>44393</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44399</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44411</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44411</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44412</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>44413</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>44413</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44421</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44421</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44435</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44435</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44452</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44456</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44459</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>44467</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>44467</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44471</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44473</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         <v>44476</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44477</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>44484</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44495</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44498</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>44501</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>44505</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>44508</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44519</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>44526</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>44529</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44533</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44536</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44538</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44539</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44543</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44546</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44547</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44552</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>44558</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44558</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>44568</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>44599</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44600</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>44607</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>44615</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>44629</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>44636</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>44643</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44651</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44651</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44656</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>44680</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44686</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44687</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>44691</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27594,7 +27594,7 @@
         <v>44697</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27651,7 +27651,7 @@
         <v>44697</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         <v>44705</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         <v>44705</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         <v>44706</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>44711</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27946,7 +27946,7 @@
         <v>44755</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>44755</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44755</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44755</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>44755</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44756</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44782</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44782</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44782</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44782</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44784</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>44788</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>44803</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>44804</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>44809</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>44816</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>44824</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28975,7 +28975,7 @@
         <v>44824</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29037,7 +29037,7 @@
         <v>44824</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>44829</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>44829</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>44837</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>44837</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>44844</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29394,7 +29394,7 @@
         <v>44844</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>44844</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29513,7 +29513,7 @@
         <v>44846</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29570,7 +29570,7 @@
         <v>44846</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29627,7 +29627,7 @@
         <v>44855</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29684,7 +29684,7 @@
         <v>44859</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44865</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29808,7 +29808,7 @@
         <v>44866</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29870,7 +29870,7 @@
         <v>44867</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29927,7 +29927,7 @@
         <v>44868</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44868</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>44869</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30113,7 +30113,7 @@
         <v>44869</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30175,7 +30175,7 @@
         <v>44869</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44873</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30299,7 +30299,7 @@
         <v>44874</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44874</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30413,7 +30413,7 @@
         <v>44875</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44894</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44904</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44904</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44904</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44910</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44910</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44911</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44911</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44915</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44916</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31179,7 +31179,7 @@
         <v>44916</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44923</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>44923</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31412,7 +31412,7 @@
         <v>44924</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31474,7 +31474,7 @@
         <v>44937</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44938</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44942</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44942</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44960</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44964</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44978</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44978</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>45002</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>45015</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>45034</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>45048</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>45057</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>45072</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>45075</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>45076</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>45077</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>45078</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32520,7 +32520,7 @@
         <v>45082</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>45084</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>45084</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>45085</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>45086</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32872,7 +32872,7 @@
         <v>45097</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>45105</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>45106</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>45107</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>45112</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>45113</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>45113</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>45113</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         <v>45114</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33772,7 +33772,7 @@
         <v>45114</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45114</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>45114</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>45118</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45119</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>45120</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45121</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45131</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45134</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45139</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45140</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45141</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45145</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45145</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45145</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43999</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44532</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43627</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44406</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44848</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44939</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44519</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44673</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44879</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>44472</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>44473</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         <v>44817</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>44935</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43641</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>44452</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44943</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45105</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43713</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         <v>44413</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44824</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44830</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43703</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>44377</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44461</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>44470</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44830</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44830</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43362</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43707</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>44365</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>44435</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>44473</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>44525</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>44865</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>44874</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>45068</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>45089</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>45145</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>45159</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>43437</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>43549</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43587</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43928</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         <v>43937</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>44029</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44061</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>44092</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44145</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44260</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44284</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>44340</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44349</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44370</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         <v>44379</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44488</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44516</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>44532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>44818</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44837</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>44865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>44865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44869</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44881</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>44917</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>45107</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>45118</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43339</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43339</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43341</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>43341</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         <v>43355</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43355</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43355</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43355</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43382</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43388</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>43391</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>43410</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>43412</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43412</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>43413</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>43417</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
         <v>43419</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
         <v>43419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>43423</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>43425</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43425</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>43425</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43426</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43427</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43432</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43434</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43436</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43436</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43436</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43437</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43448</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43454</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43455</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43461</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43461</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43462</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43475</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43475</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43483</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43486</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43497</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43497</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43497</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43504</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43522</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43545</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43546</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43549</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12186,7 +12186,7 @@
         <v>43550</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43552</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43556</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43570</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43570</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43578</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43578</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43581</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>43584</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>43593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>43596</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>43601</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43602</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43609</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43609</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43609</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>43609</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>43613</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>43619</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>43624</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>43626</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>43628</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>43635</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>43644</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>43644</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>43654</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>43657</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>43657</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>43661</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>43663</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43663</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>43663</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>43664</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>43664</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>43664</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>43668</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>43668</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>43682</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>43683</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>43706</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>43706</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>43714</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>43731</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>43731</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15111,7 +15111,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15168,7 +15168,7 @@
         <v>43737</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15225,7 +15225,7 @@
         <v>43738</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15282,7 +15282,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
         <v>43741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43742</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>43745</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>43760</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>43776</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43777</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>43777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>43777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>43780</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>43783</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43783</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>43789</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>43789</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43791</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>43792</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>43794</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>43794</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>43795</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>43805</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         <v>43820</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>43822</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>43845</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>43852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43854</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16933,7 +16933,7 @@
         <v>43866</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>43866</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>43878</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>43878</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>43882</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>43897</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>43917</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43921</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43922</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>43922</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>43922</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>43922</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>43923</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>43928</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43937</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>43944</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43944</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43951</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>43955</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>43955</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>43969</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>43985</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>43990</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>43990</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>43991</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43991</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43991</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44005</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>44005</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>44015</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>44015</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>44015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18956,7 +18956,7 @@
         <v>44027</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>44047</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44053</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>44063</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>44074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19303,7 +19303,7 @@
         <v>44074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>44078</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>44096</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>44096</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>44106</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>44106</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44109</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>44113</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>44125</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>44126</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19955,7 +19955,7 @@
         <v>44140</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>44145</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44145</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44146</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>44146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44153</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20322,7 +20322,7 @@
         <v>44165</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>44179</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>44198</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>44200</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44200</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>44201</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>44201</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>44201</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>44201</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44201</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>44201</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20999,7 +20999,7 @@
         <v>44210</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44210</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>44214</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21247,7 +21247,7 @@
         <v>44215</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>44222</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21366,7 +21366,7 @@
         <v>44224</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>44229</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44230</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44230</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>44238</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44238</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44260</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44279</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44281</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44284</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44286</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44287</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22080,7 +22080,7 @@
         <v>44292</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44308</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44309</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44309</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44309</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44309</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44309</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44309</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44314</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44314</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44326</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44327</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44344</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>44347</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>44349</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>44357</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         <v>44363</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>44363</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44363</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         <v>44364</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23312,7 +23312,7 @@
         <v>44365</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23369,7 +23369,7 @@
         <v>44365</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23431,7 +23431,7 @@
         <v>44371</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44378</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44378</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>44391</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         <v>44392</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44393</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44393</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         <v>44393</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23922,7 +23922,7 @@
         <v>44393</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44399</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44411</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24103,7 +24103,7 @@
         <v>44411</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44412</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>44413</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>44413</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
         <v>44419</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44421</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24589,7 +24589,7 @@
         <v>44421</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24646,7 +24646,7 @@
         <v>44435</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24708,7 +24708,7 @@
         <v>44435</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>44452</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44456</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44459</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         <v>44467</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>44467</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25199,7 +25199,7 @@
         <v>44471</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44473</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         <v>44476</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25375,7 +25375,7 @@
         <v>44477</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>44481</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>44481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>44484</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>44495</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>44498</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>44501</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>44505</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>44508</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>44519</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>44526</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>44529</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26104,7 +26104,7 @@
         <v>44533</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26161,7 +26161,7 @@
         <v>44536</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>44538</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>44539</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26342,7 +26342,7 @@
         <v>44543</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>44546</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>44547</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44552</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>44558</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26637,7 +26637,7 @@
         <v>44558</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26694,7 +26694,7 @@
         <v>44568</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>44599</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>44600</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>44607</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>44615</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>44629</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>44636</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>44643</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44651</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44651</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>44656</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>44680</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44686</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44687</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>44691</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27594,7 +27594,7 @@
         <v>44697</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27651,7 +27651,7 @@
         <v>44697</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         <v>44705</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         <v>44705</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         <v>44706</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>44711</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27946,7 +27946,7 @@
         <v>44755</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>44755</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44755</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44755</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>44755</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44756</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44782</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44782</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44782</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44782</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28551,7 +28551,7 @@
         <v>44784</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>44788</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>44803</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>44804</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>44809</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>44816</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>44824</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28975,7 +28975,7 @@
         <v>44824</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29037,7 +29037,7 @@
         <v>44824</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>44829</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>44829</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>44837</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>44837</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>44844</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29394,7 +29394,7 @@
         <v>44844</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>44844</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29513,7 +29513,7 @@
         <v>44846</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29570,7 +29570,7 @@
         <v>44846</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29627,7 +29627,7 @@
         <v>44855</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29684,7 +29684,7 @@
         <v>44859</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44865</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29808,7 +29808,7 @@
         <v>44866</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29870,7 +29870,7 @@
         <v>44867</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29927,7 +29927,7 @@
         <v>44868</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29989,7 +29989,7 @@
         <v>44868</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>44869</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30113,7 +30113,7 @@
         <v>44869</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30175,7 +30175,7 @@
         <v>44869</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>44873</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30299,7 +30299,7 @@
         <v>44874</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>44874</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30413,7 +30413,7 @@
         <v>44875</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44894</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44896</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44902</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44904</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>44904</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30770,7 +30770,7 @@
         <v>44904</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30827,7 +30827,7 @@
         <v>44910</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30884,7 +30884,7 @@
         <v>44910</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30941,7 +30941,7 @@
         <v>44911</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44911</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44915</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31122,7 +31122,7 @@
         <v>44916</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31179,7 +31179,7 @@
         <v>44916</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44917</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
         <v>44923</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31355,7 +31355,7 @@
         <v>44923</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31412,7 +31412,7 @@
         <v>44924</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31474,7 +31474,7 @@
         <v>44937</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31536,7 +31536,7 @@
         <v>44938</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31593,7 +31593,7 @@
         <v>44942</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31650,7 +31650,7 @@
         <v>44942</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31707,7 +31707,7 @@
         <v>44960</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44964</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44978</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44978</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>45002</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>45015</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>45034</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>45048</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>45057</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>45072</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>45075</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>45076</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>45077</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>45078</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32520,7 +32520,7 @@
         <v>45082</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>45084</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>45084</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>45085</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>45086</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32872,7 +32872,7 @@
         <v>45097</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32996,7 +32996,7 @@
         <v>45099</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33053,7 +33053,7 @@
         <v>45103</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33115,7 +33115,7 @@
         <v>45105</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33177,7 +33177,7 @@
         <v>45106</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33234,7 +33234,7 @@
         <v>45106</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33291,7 +33291,7 @@
         <v>45107</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33348,7 +33348,7 @@
         <v>45107</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33405,7 +33405,7 @@
         <v>45110</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33467,7 +33467,7 @@
         <v>45112</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33524,7 +33524,7 @@
         <v>45113</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         <v>45113</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>45113</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33710,7 +33710,7 @@
         <v>45114</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33772,7 +33772,7 @@
         <v>45114</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>45114</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>45114</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34233,7 +34233,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34290,7 +34290,7 @@
         <v>45118</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34347,7 +34347,7 @@
         <v>45119</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>45120</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>45121</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         <v>45124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34590,7 +34590,7 @@
         <v>45126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34647,7 +34647,7 @@
         <v>45131</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34709,7 +34709,7 @@
         <v>45134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34766,7 +34766,7 @@
         <v>45134</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34823,7 +34823,7 @@
         <v>45139</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>45140</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34942,7 +34942,7 @@
         <v>45141</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34999,7 +34999,7 @@
         <v>45145</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35061,7 +35061,7 @@
         <v>45145</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35118,7 +35118,7 @@
         <v>45145</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35180,7 +35180,7 @@
         <v>45159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35242,7 +35242,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43999</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44532</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43627</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44406</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44848</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44939</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44519</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2378,14 +2378,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 16758-2022</t>
+          <t>A 30214-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44673</v>
+        <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2399,43 +2399,141 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>18.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>7</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>7</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp
+Garnlav
+Mörk kolflarnlav
+Orange taggsvamp
+Svart taggsvamp
+Tretåig hackspett
+Vedflamlav
+Dropptaggsvamp
+Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 30214-2023.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 30214-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 30214-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 30214-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 30214-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 30214-2023.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 16758-2022</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ÄLVDALEN</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>8</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q21" t="n">
         <v>8</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Garnlav
@@ -2447,87 +2545,87 @@
 Vedskivlav</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 16758-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 16758-2022.png")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 16758-2022.docx")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 16758-2022.docx")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 16758-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 16758-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 54371-2022</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>44879</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>45179</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ÄLVDALEN</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C22" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ÄLVDALEN</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>39</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>2</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J22" t="n">
         <v>6</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>6</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>8</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Lunglav
@@ -2539,125 +2637,28 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 54371-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 54371-2022.png")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 54371-2022.docx")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 54371-2022.docx")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 54371-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 54371-2022.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 30214-2023</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45110</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>45179</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ÄLVDALEN</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>6</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>8</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Blå taggsvamp
-Garnlav
-Mörk kolflarnlav
-Svart taggsvamp
-Tretåig hackspett
-Vedflamlav
-Dropptaggsvamp
-Skarp dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 30214-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 30214-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 30214-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 30214-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 30214-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 30214-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -2671,7 +2672,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2768,7 +2769,7 @@
         <v>44853</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2864,7 +2865,7 @@
         <v>44378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2959,7 +2960,7 @@
         <v>44472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3049,7 +3050,7 @@
         <v>44473</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3139,7 +3140,7 @@
         <v>44817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3229,7 +3230,7 @@
         <v>44935</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3324,7 +3325,7 @@
         <v>43641</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3413,7 +3414,7 @@
         <v>44452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3507,7 +3508,7 @@
         <v>44943</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3596,7 +3597,7 @@
         <v>45105</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3690,7 +3691,7 @@
         <v>43713</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3778,7 +3779,7 @@
         <v>44413</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3871,7 +3872,7 @@
         <v>44482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3964,7 +3965,7 @@
         <v>44824</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4057,7 +4058,7 @@
         <v>44830</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4150,7 +4151,7 @@
         <v>45105</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4243,7 +4244,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4331,7 +4332,7 @@
         <v>43703</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4418,7 +4419,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4510,7 +4511,7 @@
         <v>44461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4602,7 +4603,7 @@
         <v>44470</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4694,7 +4695,7 @@
         <v>44516</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4786,7 +4787,7 @@
         <v>44830</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4878,7 +4879,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4970,7 +4971,7 @@
         <v>44830</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5062,7 +5063,7 @@
         <v>44865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5154,7 +5155,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5245,7 +5246,7 @@
         <v>43707</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5336,7 +5337,7 @@
         <v>44365</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5427,7 +5428,7 @@
         <v>44435</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5518,7 +5519,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5604,7 +5605,7 @@
         <v>44525</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5695,7 +5696,7 @@
         <v>44706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5786,7 +5787,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5877,7 +5878,7 @@
         <v>44874</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5963,7 +5964,7 @@
         <v>45068</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6054,7 +6055,7 @@
         <v>45089</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6145,7 +6146,7 @@
         <v>45145</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6236,7 +6237,7 @@
         <v>45159</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6327,7 +6328,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6417,7 +6418,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6507,7 +6508,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6592,7 +6593,7 @@
         <v>43587</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6677,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6767,7 +6768,7 @@
         <v>43937</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6857,7 +6858,7 @@
         <v>44029</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6947,7 +6948,7 @@
         <v>44061</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7037,7 +7038,7 @@
         <v>44092</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7127,7 +7128,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7217,7 +7218,7 @@
         <v>44260</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7307,7 +7308,7 @@
         <v>44284</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7392,7 +7393,7 @@
         <v>44340</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7482,7 +7483,7 @@
         <v>44349</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7572,7 +7573,7 @@
         <v>44370</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7662,7 +7663,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7752,7 +7753,7 @@
         <v>44488</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7842,7 +7843,7 @@
         <v>44516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7932,7 +7933,7 @@
         <v>44532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8022,7 +8023,7 @@
         <v>44818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8107,7 +8108,7 @@
         <v>44837</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8197,7 +8198,7 @@
         <v>44865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8287,7 +8288,7 @@
         <v>44865</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8377,7 +8378,7 @@
         <v>44869</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8467,7 +8468,7 @@
         <v>44881</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8557,7 +8558,7 @@
         <v>44889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8647,7 +8648,7 @@
         <v>44917</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8732,7 +8733,7 @@
         <v>45107</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8822,7 +8823,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8907,7 +8908,7 @@
         <v>43339</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8964,7 +8965,7 @@
         <v>43339</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9021,7 +9022,7 @@
         <v>43341</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9078,7 +9079,7 @@
         <v>43341</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9135,7 +9136,7 @@
         <v>43355</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9197,7 +9198,7 @@
         <v>43355</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9259,7 +9260,7 @@
         <v>43355</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9316,7 +9317,7 @@
         <v>43355</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9378,7 +9379,7 @@
         <v>43382</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9435,7 +9436,7 @@
         <v>43388</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9492,7 +9493,7 @@
         <v>43391</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9549,7 +9550,7 @@
         <v>43410</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9606,7 +9607,7 @@
         <v>43412</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9663,7 +9664,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9720,7 +9721,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9777,7 +9778,7 @@
         <v>43412</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9834,7 +9835,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9896,7 +9897,7 @@
         <v>43413</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9953,7 +9954,7 @@
         <v>43417</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10015,7 +10016,7 @@
         <v>43419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10072,7 +10073,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10134,7 +10135,7 @@
         <v>43423</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10191,7 +10192,7 @@
         <v>43425</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10248,7 +10249,7 @@
         <v>43425</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10305,7 +10306,7 @@
         <v>43425</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10362,7 +10363,7 @@
         <v>43426</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10419,7 +10420,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10481,7 +10482,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10543,7 +10544,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10605,7 +10606,7 @@
         <v>43434</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10667,7 +10668,7 @@
         <v>43436</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10729,7 +10730,7 @@
         <v>43436</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10791,7 +10792,7 @@
         <v>43436</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10853,7 +10854,7 @@
         <v>43437</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10910,7 +10911,7 @@
         <v>43444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10967,7 +10968,7 @@
         <v>43444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11024,7 +11025,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11081,7 +11082,7 @@
         <v>43454</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11138,7 +11139,7 @@
         <v>43455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11195,7 +11196,7 @@
         <v>43461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11252,7 +11253,7 @@
         <v>43461</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11309,7 +11310,7 @@
         <v>43461</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11366,7 +11367,7 @@
         <v>43462</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11423,7 +11424,7 @@
         <v>43475</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11480,7 +11481,7 @@
         <v>43475</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11537,7 +11538,7 @@
         <v>43483</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11599,7 +11600,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11656,7 +11657,7 @@
         <v>43490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11713,7 +11714,7 @@
         <v>43490</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11770,7 +11771,7 @@
         <v>43497</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11827,7 +11828,7 @@
         <v>43497</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11884,7 +11885,7 @@
         <v>43497</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11941,7 +11942,7 @@
         <v>43504</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11998,7 +11999,7 @@
         <v>43522</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12055,7 +12056,7 @@
         <v>43545</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12112,7 +12113,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12169,7 +12170,7 @@
         <v>43546</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12226,7 +12227,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12283,7 +12284,7 @@
         <v>43550</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12340,7 +12341,7 @@
         <v>43552</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12402,7 +12403,7 @@
         <v>43556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12459,7 +12460,7 @@
         <v>43556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12516,7 +12517,7 @@
         <v>43570</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12573,7 +12574,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12635,7 +12636,7 @@
         <v>43578</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12692,7 +12693,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12749,7 +12750,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12806,7 +12807,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12863,7 +12864,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12920,7 +12921,7 @@
         <v>43596</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12977,7 +12978,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13034,7 +13035,7 @@
         <v>43602</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13096,7 +13097,7 @@
         <v>43609</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13153,7 +13154,7 @@
         <v>43609</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13210,7 +13211,7 @@
         <v>43609</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13272,7 +13273,7 @@
         <v>43609</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13329,7 +13330,7 @@
         <v>43613</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13386,7 +13387,7 @@
         <v>43619</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13448,7 +13449,7 @@
         <v>43624</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13505,7 +13506,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13562,7 +13563,7 @@
         <v>43626</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13619,7 +13620,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13676,7 +13677,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13733,7 +13734,7 @@
         <v>43635</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13790,7 +13791,7 @@
         <v>43644</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13847,7 +13848,7 @@
         <v>43644</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13904,7 +13905,7 @@
         <v>43654</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13961,7 +13962,7 @@
         <v>43657</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14018,7 +14019,7 @@
         <v>43657</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14075,7 +14076,7 @@
         <v>43661</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14132,7 +14133,7 @@
         <v>43663</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14194,7 +14195,7 @@
         <v>43663</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14256,7 +14257,7 @@
         <v>43663</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14318,7 +14319,7 @@
         <v>43664</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14375,7 +14376,7 @@
         <v>43664</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14437,7 +14438,7 @@
         <v>43664</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14494,7 +14495,7 @@
         <v>43668</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14551,7 +14552,7 @@
         <v>43668</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14608,7 +14609,7 @@
         <v>43682</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14665,7 +14666,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14722,7 +14723,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14784,7 +14785,7 @@
         <v>43683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14846,7 +14847,7 @@
         <v>43683</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14908,7 +14909,7 @@
         <v>43706</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14970,7 +14971,7 @@
         <v>43706</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15027,7 +15028,7 @@
         <v>43714</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15084,7 +15085,7 @@
         <v>43731</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15146,7 +15147,7 @@
         <v>43731</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15208,7 +15209,7 @@
         <v>43735</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15265,7 +15266,7 @@
         <v>43737</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15322,7 +15323,7 @@
         <v>43738</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15379,7 +15380,7 @@
         <v>43740</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15441,7 +15442,7 @@
         <v>43741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15503,7 +15504,7 @@
         <v>43742</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15565,7 +15566,7 @@
         <v>43745</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15622,7 +15623,7 @@
         <v>43760</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15684,7 +15685,7 @@
         <v>43776</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15746,7 +15747,7 @@
         <v>43777</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15808,7 +15809,7 @@
         <v>43777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15865,7 +15866,7 @@
         <v>43777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15922,7 +15923,7 @@
         <v>43777</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15979,7 +15980,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16036,7 +16037,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16098,7 +16099,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16160,7 +16161,7 @@
         <v>43783</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16222,7 +16223,7 @@
         <v>43783</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16284,7 +16285,7 @@
         <v>43789</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16341,7 +16342,7 @@
         <v>43789</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16398,7 +16399,7 @@
         <v>43791</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16455,7 +16456,7 @@
         <v>43792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16512,7 +16513,7 @@
         <v>43794</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16569,7 +16570,7 @@
         <v>43794</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16626,7 +16627,7 @@
         <v>43795</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16688,7 +16689,7 @@
         <v>43805</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16745,7 +16746,7 @@
         <v>43820</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16802,7 +16803,7 @@
         <v>43822</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16859,7 +16860,7 @@
         <v>43845</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16916,7 +16917,7 @@
         <v>43852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16973,7 +16974,7 @@
         <v>43854</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17030,7 +17031,7 @@
         <v>43866</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17087,7 +17088,7 @@
         <v>43866</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17144,7 +17145,7 @@
         <v>43878</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17201,7 +17202,7 @@
         <v>43878</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17258,7 +17259,7 @@
         <v>43882</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17315,7 +17316,7 @@
         <v>43897</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17372,7 +17373,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17434,7 +17435,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17496,7 +17497,7 @@
         <v>43921</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17553,7 +17554,7 @@
         <v>43922</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17615,7 +17616,7 @@
         <v>43922</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17677,7 +17678,7 @@
         <v>43922</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17739,7 +17740,7 @@
         <v>43922</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17801,7 +17802,7 @@
         <v>43923</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17858,7 +17859,7 @@
         <v>43928</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17920,7 +17921,7 @@
         <v>43937</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17982,7 +17983,7 @@
         <v>43944</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18039,7 +18040,7 @@
         <v>43944</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18096,7 +18097,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18153,7 +18154,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18210,7 +18211,7 @@
         <v>43955</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18267,7 +18268,7 @@
         <v>43955</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18324,7 +18325,7 @@
         <v>43969</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18386,7 +18387,7 @@
         <v>43985</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18443,7 +18444,7 @@
         <v>43990</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18500,7 +18501,7 @@
         <v>43990</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18557,7 +18558,7 @@
         <v>43991</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18619,7 +18620,7 @@
         <v>43991</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18681,7 +18682,7 @@
         <v>43991</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18743,7 +18744,7 @@
         <v>44005</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18805,7 +18806,7 @@
         <v>44005</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18867,7 +18868,7 @@
         <v>44015</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18929,7 +18930,7 @@
         <v>44015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18991,7 +18992,7 @@
         <v>44015</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19053,7 +19054,7 @@
         <v>44027</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19110,7 +19111,7 @@
         <v>44047</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19167,7 +19168,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19224,7 +19225,7 @@
         <v>44056</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19286,7 +19287,7 @@
         <v>44063</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19343,7 +19344,7 @@
         <v>44074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19400,7 +19401,7 @@
         <v>44074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19457,7 +19458,7 @@
         <v>44078</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19514,7 +19515,7 @@
         <v>44096</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19576,7 +19577,7 @@
         <v>44096</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19638,7 +19639,7 @@
         <v>44106</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19695,7 +19696,7 @@
         <v>44106</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19752,7 +19753,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19814,7 +19815,7 @@
         <v>44109</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19876,7 +19877,7 @@
         <v>44113</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19933,7 +19934,7 @@
         <v>44125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19995,7 +19996,7 @@
         <v>44126</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20052,7 +20053,7 @@
         <v>44140</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20109,7 +20110,7 @@
         <v>44145</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20171,7 +20172,7 @@
         <v>44145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20233,7 +20234,7 @@
         <v>44146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20295,7 +20296,7 @@
         <v>44146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20357,7 +20358,7 @@
         <v>44153</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20419,7 +20420,7 @@
         <v>44165</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20481,7 +20482,7 @@
         <v>44179</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20538,7 +20539,7 @@
         <v>44198</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20600,7 +20601,7 @@
         <v>44200</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20662,7 +20663,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20724,7 +20725,7 @@
         <v>44201</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20786,7 +20787,7 @@
         <v>44201</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20848,7 +20849,7 @@
         <v>44201</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20910,7 +20911,7 @@
         <v>44201</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20972,7 +20973,7 @@
         <v>44201</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21034,7 +21035,7 @@
         <v>44201</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21096,7 +21097,7 @@
         <v>44210</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21158,7 +21159,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21220,7 +21221,7 @@
         <v>44210</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21282,7 +21283,7 @@
         <v>44214</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21344,7 +21345,7 @@
         <v>44215</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21406,7 +21407,7 @@
         <v>44222</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21463,7 +21464,7 @@
         <v>44224</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21520,7 +21521,7 @@
         <v>44229</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21582,7 +21583,7 @@
         <v>44230</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21644,7 +21645,7 @@
         <v>44230</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21706,7 +21707,7 @@
         <v>44238</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21763,7 +21764,7 @@
         <v>44238</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21820,7 +21821,7 @@
         <v>44260</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21882,7 +21883,7 @@
         <v>44279</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21939,7 +21940,7 @@
         <v>44281</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21996,7 +21997,7 @@
         <v>44284</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22053,7 +22054,7 @@
         <v>44286</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22115,7 +22116,7 @@
         <v>44287</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22177,7 +22178,7 @@
         <v>44292</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22234,7 +22235,7 @@
         <v>44308</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22296,7 +22297,7 @@
         <v>44309</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22353,7 +22354,7 @@
         <v>44309</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22410,7 +22411,7 @@
         <v>44309</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22467,7 +22468,7 @@
         <v>44309</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22524,7 +22525,7 @@
         <v>44309</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22581,7 +22582,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22638,7 +22639,7 @@
         <v>44309</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22695,7 +22696,7 @@
         <v>44314</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22752,7 +22753,7 @@
         <v>44314</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22809,7 +22810,7 @@
         <v>44326</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22871,7 +22872,7 @@
         <v>44327</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22928,7 +22929,7 @@
         <v>44344</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22985,7 +22986,7 @@
         <v>44347</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23047,7 +23048,7 @@
         <v>44349</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23109,7 +23110,7 @@
         <v>44357</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23166,7 +23167,7 @@
         <v>44363</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23228,7 +23229,7 @@
         <v>44363</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23290,7 +23291,7 @@
         <v>44363</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23352,7 +23353,7 @@
         <v>44364</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23409,7 +23410,7 @@
         <v>44365</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23466,7 +23467,7 @@
         <v>44365</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23528,7 +23529,7 @@
         <v>44371</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23590,7 +23591,7 @@
         <v>44378</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23652,7 +23653,7 @@
         <v>44378</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23714,7 +23715,7 @@
         <v>44391</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23776,7 +23777,7 @@
         <v>44392</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23833,7 +23834,7 @@
         <v>44393</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23895,7 +23896,7 @@
         <v>44393</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23957,7 +23958,7 @@
         <v>44393</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24019,7 +24020,7 @@
         <v>44393</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24081,7 +24082,7 @@
         <v>44399</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24138,7 +24139,7 @@
         <v>44411</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24200,7 +24201,7 @@
         <v>44411</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24257,7 +24258,7 @@
         <v>44412</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24319,7 +24320,7 @@
         <v>44413</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24376,7 +24377,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24438,7 +24439,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24500,7 +24501,7 @@
         <v>44413</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24562,7 +24563,7 @@
         <v>44419</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24624,7 +24625,7 @@
         <v>44421</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24686,7 +24687,7 @@
         <v>44421</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24743,7 +24744,7 @@
         <v>44435</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24805,7 +24806,7 @@
         <v>44435</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24867,7 +24868,7 @@
         <v>44452</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24929,7 +24930,7 @@
         <v>44456</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24991,7 +24992,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25053,7 +25054,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25115,7 +25116,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25172,7 +25173,7 @@
         <v>44467</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25234,7 +25235,7 @@
         <v>44467</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25296,7 +25297,7 @@
         <v>44471</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25353,7 +25354,7 @@
         <v>44473</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25415,7 +25416,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25472,7 +25473,7 @@
         <v>44477</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25534,7 +25535,7 @@
         <v>44481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25596,7 +25597,7 @@
         <v>44481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25658,7 +25659,7 @@
         <v>44484</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25715,7 +25716,7 @@
         <v>44495</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25772,7 +25773,7 @@
         <v>44498</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25834,7 +25835,7 @@
         <v>44501</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25891,7 +25892,7 @@
         <v>44505</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25953,7 +25954,7 @@
         <v>44508</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26015,7 +26016,7 @@
         <v>44519</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26077,7 +26078,7 @@
         <v>44526</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26139,7 +26140,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26201,7 +26202,7 @@
         <v>44533</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26258,7 +26259,7 @@
         <v>44536</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26320,7 +26321,7 @@
         <v>44538</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26382,7 +26383,7 @@
         <v>44539</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26439,7 +26440,7 @@
         <v>44543</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26496,7 +26497,7 @@
         <v>44546</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26553,7 +26554,7 @@
         <v>44547</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26615,7 +26616,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26677,7 +26678,7 @@
         <v>44558</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26734,7 +26735,7 @@
         <v>44558</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26791,7 +26792,7 @@
         <v>44568</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26848,7 +26849,7 @@
         <v>44599</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26910,7 +26911,7 @@
         <v>44600</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26972,7 +26973,7 @@
         <v>44607</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27029,7 +27030,7 @@
         <v>44615</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27091,7 +27092,7 @@
         <v>44629</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27148,7 +27149,7 @@
         <v>44636</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27205,7 +27206,7 @@
         <v>44643</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27267,7 +27268,7 @@
         <v>44651</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27324,7 +27325,7 @@
         <v>44651</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27386,7 +27387,7 @@
         <v>44656</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27448,7 +27449,7 @@
         <v>44680</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27510,7 +27511,7 @@
         <v>44686</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27567,7 +27568,7 @@
         <v>44687</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27629,7 +27630,7 @@
         <v>44691</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27691,7 +27692,7 @@
         <v>44697</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27748,7 +27749,7 @@
         <v>44697</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27805,7 +27806,7 @@
         <v>44705</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27862,7 +27863,7 @@
         <v>44705</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27919,7 +27920,7 @@
         <v>44706</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27981,7 +27982,7 @@
         <v>44711</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28043,7 +28044,7 @@
         <v>44755</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28100,7 +28101,7 @@
         <v>44755</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28162,7 +28163,7 @@
         <v>44755</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28219,7 +28220,7 @@
         <v>44755</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28276,7 +28277,7 @@
         <v>44755</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28338,7 +28339,7 @@
         <v>44756</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28400,7 +28401,7 @@
         <v>44782</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28462,7 +28463,7 @@
         <v>44782</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28524,7 +28525,7 @@
         <v>44782</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28586,7 +28587,7 @@
         <v>44782</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28648,7 +28649,7 @@
         <v>44784</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28710,7 +28711,7 @@
         <v>44788</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28772,7 +28773,7 @@
         <v>44803</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28829,7 +28830,7 @@
         <v>44804</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28886,7 +28887,7 @@
         <v>44809</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28948,7 +28949,7 @@
         <v>44816</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29010,7 +29011,7 @@
         <v>44824</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29072,7 +29073,7 @@
         <v>44824</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29134,7 +29135,7 @@
         <v>44824</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29196,7 +29197,7 @@
         <v>44829</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29253,7 +29254,7 @@
         <v>44829</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29310,7 +29311,7 @@
         <v>44837</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29372,7 +29373,7 @@
         <v>44837</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29434,7 +29435,7 @@
         <v>44844</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29491,7 +29492,7 @@
         <v>44844</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29548,7 +29549,7 @@
         <v>44844</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29610,7 +29611,7 @@
         <v>44846</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29667,7 +29668,7 @@
         <v>44846</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29724,7 +29725,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29781,7 +29782,7 @@
         <v>44859</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29843,7 +29844,7 @@
         <v>44865</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29905,7 +29906,7 @@
         <v>44866</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29967,7 +29968,7 @@
         <v>44867</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30024,7 +30025,7 @@
         <v>44868</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30086,7 +30087,7 @@
         <v>44868</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30148,7 +30149,7 @@
         <v>44869</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30210,7 +30211,7 @@
         <v>44869</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30272,7 +30273,7 @@
         <v>44869</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30334,7 +30335,7 @@
         <v>44873</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30396,7 +30397,7 @@
         <v>44874</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30453,7 +30454,7 @@
         <v>44874</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30510,7 +30511,7 @@
         <v>44875</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30572,7 +30573,7 @@
         <v>44894</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30629,7 +30630,7 @@
         <v>44896</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30691,7 +30692,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30753,7 +30754,7 @@
         <v>44904</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30810,7 +30811,7 @@
         <v>44904</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30867,7 +30868,7 @@
         <v>44904</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30924,7 +30925,7 @@
         <v>44910</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30981,7 +30982,7 @@
         <v>44910</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31038,7 +31039,7 @@
         <v>44911</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31100,7 +31101,7 @@
         <v>44911</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31157,7 +31158,7 @@
         <v>44915</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31219,7 +31220,7 @@
         <v>44916</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31276,7 +31277,7 @@
         <v>44916</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31333,7 +31334,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31395,7 +31396,7 @@
         <v>44923</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31452,7 +31453,7 @@
         <v>44923</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31509,7 +31510,7 @@
         <v>44924</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31571,7 +31572,7 @@
         <v>44937</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31633,7 +31634,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31690,7 +31691,7 @@
         <v>44942</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31747,7 +31748,7 @@
         <v>44942</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31804,7 +31805,7 @@
         <v>44960</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31866,7 +31867,7 @@
         <v>44964</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31923,7 +31924,7 @@
         <v>44978</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31980,7 +31981,7 @@
         <v>44978</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32037,7 +32038,7 @@
         <v>45002</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32094,7 +32095,7 @@
         <v>45015</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32151,7 +32152,7 @@
         <v>45034</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32208,7 +32209,7 @@
         <v>45048</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32265,7 +32266,7 @@
         <v>45057</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32322,7 +32323,7 @@
         <v>45072</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32384,7 +32385,7 @@
         <v>45075</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32441,7 +32442,7 @@
         <v>45076</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32498,7 +32499,7 @@
         <v>45077</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32555,7 +32556,7 @@
         <v>45078</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32617,7 +32618,7 @@
         <v>45082</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32679,7 +32680,7 @@
         <v>45084</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32736,7 +32737,7 @@
         <v>45084</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32793,7 +32794,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32850,7 +32851,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32907,7 +32908,7 @@
         <v>45086</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32969,7 +32970,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33031,7 +33032,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33093,7 +33094,7 @@
         <v>45099</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33150,7 +33151,7 @@
         <v>45103</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33212,7 +33213,7 @@
         <v>45105</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33274,7 +33275,7 @@
         <v>45106</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33331,7 +33332,7 @@
         <v>45106</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33388,7 +33389,7 @@
         <v>45107</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33445,7 +33446,7 @@
         <v>45107</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33502,7 +33503,7 @@
         <v>45112</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33559,7 +33560,7 @@
         <v>45113</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33621,7 +33622,7 @@
         <v>45113</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33683,7 +33684,7 @@
         <v>45113</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33745,7 +33746,7 @@
         <v>45114</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33807,7 +33808,7 @@
         <v>45114</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33864,7 +33865,7 @@
         <v>45114</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33921,7 +33922,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33983,7 +33984,7 @@
         <v>45114</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34040,7 +34041,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34097,7 +34098,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34154,7 +34155,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34211,7 +34212,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34268,7 +34269,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34325,7 +34326,7 @@
         <v>45118</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34382,7 +34383,7 @@
         <v>45119</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34444,7 +34445,7 @@
         <v>45120</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34506,7 +34507,7 @@
         <v>45121</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34568,7 +34569,7 @@
         <v>45124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34625,7 +34626,7 @@
         <v>45126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34682,7 +34683,7 @@
         <v>45131</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34744,7 +34745,7 @@
         <v>45134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34801,7 +34802,7 @@
         <v>45134</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34858,7 +34859,7 @@
         <v>45139</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34915,7 +34916,7 @@
         <v>45140</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34977,7 +34978,7 @@
         <v>45141</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35034,7 +35035,7 @@
         <v>45145</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35096,7 +35097,7 @@
         <v>45145</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35153,7 +35154,7 @@
         <v>45145</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35215,7 +35216,7 @@
         <v>45159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35277,7 +35278,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35334,7 +35335,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43999</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44532</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43627</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44406</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44848</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44939</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44519</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44673</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44879</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44853</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44473</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44935</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>43641</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>44452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44943</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>45105</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43713</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>44413</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44824</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44830</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45105</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43703</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>44470</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>44516</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44830</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44830</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43707</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>44365</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>44435</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>44525</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>44706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44874</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45068</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45089</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45145</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>45159</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43587</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43937</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44029</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44061</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44092</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>44260</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44284</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44340</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44349</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>44370</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44488</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44837</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44865</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44869</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>44881</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44917</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>45107</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43339</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43339</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43341</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43341</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43355</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43355</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43355</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43355</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43382</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43388</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43391</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43410</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43412</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43412</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43413</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43417</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43423</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43425</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43425</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43425</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43426</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>43434</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>43436</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43436</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43436</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>43437</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>43444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>43444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>43454</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>43455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         <v>43461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         <v>43461</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>43461</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>43462</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43475</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43475</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43483</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43490</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43497</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43497</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43497</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43504</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43522</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43545</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>43546</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>43550</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>43552</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43570</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43578</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43596</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>43602</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43609</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43609</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43609</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>43609</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>43613</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43619</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43624</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43626</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43635</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43644</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43644</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43654</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43657</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43657</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43661</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43663</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>43663</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43663</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43664</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43664</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43664</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43668</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43668</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43682</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43683</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>43706</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>43706</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43714</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>43731</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>43731</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43735</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43737</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43738</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43740</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>43742</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43745</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>43760</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>43776</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>43777</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>43777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>43777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>43777</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43783</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43783</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43789</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43789</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43791</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>43794</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43794</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>43795</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43805</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>43820</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>43822</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>43845</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>43852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>43854</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>43866</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43866</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>43878</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>43878</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>43882</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>43897</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43921</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43922</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43922</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43922</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>43922</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>43923</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>43928</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>43937</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>43944</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>43944</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>43955</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>43955</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>43969</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>43985</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43990</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>43990</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>43991</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>43991</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>43991</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44005</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44005</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44015</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>44015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44015</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44027</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44047</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44056</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44063</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44078</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44096</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>44096</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44106</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44106</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44109</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>44113</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         <v>44125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>44126</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20053,7 +20053,7 @@
         <v>44140</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>44145</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>44145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>44146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44153</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44165</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>44179</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>44198</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44200</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44201</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44201</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>44201</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44201</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44201</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44201</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44210</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44210</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44214</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44215</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44222</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44224</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>44229</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44230</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44230</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44238</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44238</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>44260</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44279</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44281</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44284</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44286</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44287</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>44292</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>44308</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>44309</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44309</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44309</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44309</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>44309</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44309</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44314</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44314</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44326</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>44327</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>44344</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44347</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44349</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>44357</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44363</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>44363</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44363</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44364</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>44365</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44365</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44371</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44378</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44378</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44391</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>44392</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44393</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>44393</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>44393</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44393</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44399</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>44411</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44411</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44412</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>44413</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         <v>44413</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44419</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44421</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44421</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44435</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44435</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44452</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44456</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44467</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>44467</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44471</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44473</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44477</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25597,7 +25597,7 @@
         <v>44481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25659,7 +25659,7 @@
         <v>44484</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>44495</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25773,7 +25773,7 @@
         <v>44498</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>44501</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44505</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44508</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44519</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44526</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44533</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44536</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44538</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26383,7 +26383,7 @@
         <v>44539</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>44543</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>44546</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44547</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26616,7 +26616,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44558</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>44558</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44568</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>44599</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>44600</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>44607</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44615</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44629</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44636</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44643</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>44651</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44651</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>44656</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>44680</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44686</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44687</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44691</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44697</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44697</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44705</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44705</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44706</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44711</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44755</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44755</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44755</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44755</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44755</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44756</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44782</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44782</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>44782</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44782</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>44784</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28711,7 +28711,7 @@
         <v>44788</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44803</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44804</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44809</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44816</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>44824</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>44824</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44824</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44829</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44829</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44837</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44837</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>44844</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44844</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>44844</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44846</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44846</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44859</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44865</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44866</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44867</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44868</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44868</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>44869</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30211,7 +30211,7 @@
         <v>44869</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44869</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44873</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>44874</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44874</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>44875</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44894</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44896</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30754,7 +30754,7 @@
         <v>44904</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
         <v>44904</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>44904</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>44910</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>44910</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>44911</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31101,7 +31101,7 @@
         <v>44911</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31158,7 +31158,7 @@
         <v>44915</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31220,7 +31220,7 @@
         <v>44916</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31277,7 +31277,7 @@
         <v>44916</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31334,7 +31334,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>44923</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31453,7 +31453,7 @@
         <v>44923</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44924</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44937</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44942</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44942</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44960</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44964</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44978</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44978</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>45002</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>45015</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>45034</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45048</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>45057</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45072</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>45075</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>45076</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>45077</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45078</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32618,7 +32618,7 @@
         <v>45082</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32680,7 +32680,7 @@
         <v>45084</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45084</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32794,7 +32794,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>45086</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>45099</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>45103</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45105</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>45106</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>45106</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33389,7 +33389,7 @@
         <v>45107</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33446,7 +33446,7 @@
         <v>45107</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33503,7 +33503,7 @@
         <v>45112</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33560,7 +33560,7 @@
         <v>45113</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33622,7 +33622,7 @@
         <v>45113</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45113</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>45114</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33808,7 +33808,7 @@
         <v>45114</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>45114</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45114</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45118</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45119</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34445,7 +34445,7 @@
         <v>45120</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>45121</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34569,7 +34569,7 @@
         <v>45124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         <v>45126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45131</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>45134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>45134</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34859,7 +34859,7 @@
         <v>45139</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34916,7 +34916,7 @@
         <v>45140</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>45141</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>45145</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35097,7 +35097,7 @@
         <v>45145</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35154,7 +35154,7 @@
         <v>45145</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35278,7 +35278,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35335,7 +35335,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43999</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44532</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43627</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44406</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44848</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44939</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44519</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44673</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44879</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44853</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44473</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44935</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>43641</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>44452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44943</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>45105</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43713</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>44413</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44824</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44830</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45105</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43703</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>44470</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>44516</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44830</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44830</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43707</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>44365</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>44435</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>44525</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>44706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44874</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45068</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45089</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45145</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>45159</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43587</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43937</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44029</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44061</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44092</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>44260</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44284</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44340</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44349</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>44370</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44488</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44837</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44865</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44869</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>44881</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44917</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>45107</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43339</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43339</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43341</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43341</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43355</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43355</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43355</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43355</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43382</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43388</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43391</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43410</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43412</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43412</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43413</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43417</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43423</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43425</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43425</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43425</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43426</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>43434</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>43436</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43436</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43436</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>43437</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>43444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>43444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>43454</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>43455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         <v>43461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         <v>43461</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>43461</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>43462</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43475</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43475</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43483</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43490</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43497</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43497</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43497</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43504</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43522</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43545</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>43546</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>43550</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>43552</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43570</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43578</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43596</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>43602</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43609</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43609</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43609</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>43609</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>43613</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43619</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43624</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43626</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43635</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43644</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43644</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43654</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43657</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43657</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43661</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43663</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>43663</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43663</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43664</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43664</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43664</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43668</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43668</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43682</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43683</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>43706</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>43706</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43714</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>43731</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>43731</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43735</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43737</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43738</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43740</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>43742</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43745</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>43760</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>43776</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>43777</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>43777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>43777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>43777</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43783</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43783</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43789</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43789</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43791</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>43794</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43794</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>43795</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43805</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>43820</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>43822</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>43845</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>43852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>43854</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>43866</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43866</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>43878</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>43878</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>43882</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>43897</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43921</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43922</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43922</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43922</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>43922</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>43923</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>43928</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>43937</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>43944</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>43944</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>43955</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>43955</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>43969</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>43985</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43990</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>43990</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>43991</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>43991</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>43991</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44005</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44005</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44015</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>44015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44015</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44027</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44047</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44056</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44063</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44078</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44096</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>44096</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44106</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44106</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44109</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>44113</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         <v>44125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>44126</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20053,7 +20053,7 @@
         <v>44140</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>44145</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>44145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>44146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44153</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44165</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>44179</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>44198</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44200</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44201</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44201</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>44201</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44201</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44201</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44201</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44210</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44210</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44214</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44215</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44222</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44224</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>44229</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44230</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44230</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44238</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44238</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>44260</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44279</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44281</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44284</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44286</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44287</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>44292</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>44308</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>44309</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44309</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44309</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44309</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>44309</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44309</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44314</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44314</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44326</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>44327</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>44344</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44347</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44349</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>44357</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44363</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>44363</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44363</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44364</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>44365</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44365</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44371</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44378</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44378</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44391</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>44392</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44393</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>44393</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>44393</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44393</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44399</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>44411</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44411</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44412</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>44413</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         <v>44413</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44419</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44421</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44421</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44435</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44435</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44452</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44456</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44467</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>44467</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44471</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44473</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44477</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25597,7 +25597,7 @@
         <v>44481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25659,7 +25659,7 @@
         <v>44484</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>44495</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25773,7 +25773,7 @@
         <v>44498</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>44501</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44505</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44508</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44519</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44526</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44533</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44536</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44538</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26383,7 +26383,7 @@
         <v>44539</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>44543</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>44546</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44547</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26616,7 +26616,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44558</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>44558</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44568</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>44599</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>44600</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>44607</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44615</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44629</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44636</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44643</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>44651</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44651</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>44656</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>44680</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44686</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44687</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44691</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44697</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44697</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44705</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44705</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44706</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44711</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44755</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44755</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44755</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44755</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44755</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44756</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44782</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44782</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>44782</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44782</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>44784</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28711,7 +28711,7 @@
         <v>44788</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44803</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44804</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44809</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44816</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>44824</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>44824</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44824</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44829</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44829</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44837</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44837</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>44844</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44844</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>44844</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44846</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44846</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44859</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44865</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44866</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44867</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44868</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44868</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>44869</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30211,7 +30211,7 @@
         <v>44869</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44869</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44873</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>44874</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44874</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>44875</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44894</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44896</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30754,7 +30754,7 @@
         <v>44904</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
         <v>44904</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>44904</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>44910</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>44910</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>44911</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31101,7 +31101,7 @@
         <v>44911</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31158,7 +31158,7 @@
         <v>44915</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31220,7 +31220,7 @@
         <v>44916</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31277,7 +31277,7 @@
         <v>44916</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31334,7 +31334,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>44923</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31453,7 +31453,7 @@
         <v>44923</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44924</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44937</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44942</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44942</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44960</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44964</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44978</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44978</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>45002</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>45015</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>45034</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45048</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>45057</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45072</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>45075</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>45076</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>45077</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45078</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32618,7 +32618,7 @@
         <v>45082</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32680,7 +32680,7 @@
         <v>45084</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45084</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32794,7 +32794,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>45086</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>45099</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>45103</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45105</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>45106</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>45106</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33389,7 +33389,7 @@
         <v>45107</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33446,7 +33446,7 @@
         <v>45107</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33503,7 +33503,7 @@
         <v>45112</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33560,7 +33560,7 @@
         <v>45113</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33622,7 +33622,7 @@
         <v>45113</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45113</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>45114</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33808,7 +33808,7 @@
         <v>45114</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>45114</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45114</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45118</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45119</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34445,7 +34445,7 @@
         <v>45120</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>45121</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34569,7 +34569,7 @@
         <v>45124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         <v>45126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45131</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>45134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>45134</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34859,7 +34859,7 @@
         <v>45139</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34916,7 +34916,7 @@
         <v>45140</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>45141</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>45145</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35097,7 +35097,7 @@
         <v>45145</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35154,7 +35154,7 @@
         <v>45145</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35278,7 +35278,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35335,7 +35335,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y538"/>
+  <dimension ref="A1:Y539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43999</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44532</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43627</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44406</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44848</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44939</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44519</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>45110</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44673</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44879</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>44853</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>44378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44473</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44935</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>43641</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3414,7 +3414,7 @@
         <v>44452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>44943</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>45105</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         <v>43713</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>44413</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>44824</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44830</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45105</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43703</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>44470</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         <v>44516</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44830</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44830</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>44865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>43707</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>44365</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>44435</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>44525</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>44706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44874</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>45068</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45089</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45145</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>45159</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43587</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>43928</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43937</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>44029</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44061</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44092</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>44260</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>44284</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44340</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44349</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>44370</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44488</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44837</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>44865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44865</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>44869</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>44881</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>44917</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>45107</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43339</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43339</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43341</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43341</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43355</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         <v>43355</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43355</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43355</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43382</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43388</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43391</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43410</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43412</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>43412</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43413</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
         <v>43417</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43423</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43425</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43425</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43425</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43426</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>43434</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         <v>43436</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>43436</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>43436</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>43437</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>43444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>43444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>43454</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>43455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         <v>43461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         <v>43461</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>43461</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>43462</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43475</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>43475</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>43483</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43490</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43497</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43497</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43497</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43504</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43522</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43545</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>43546</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>43550</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>43552</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>43556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>43556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>43570</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>43578</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>43596</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>43602</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>43609</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>43609</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>43609</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>43609</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>43613</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>43619</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43624</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43626</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43635</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43644</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43644</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43654</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43657</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43657</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43661</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43663</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>43663</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>43663</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43664</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43664</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>43664</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>43668</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>43668</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>43682</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>43683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43683</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>43706</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>43706</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>43714</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>43731</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>43731</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43735</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43737</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43738</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43740</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>43742</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>43745</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15623,7 +15623,7 @@
         <v>43760</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>43776</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>43777</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>43777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>43777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>43777</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16099,7 +16099,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>43783</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>43783</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>43789</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>43789</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>43791</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>43792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>43794</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43794</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>43795</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43805</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>43820</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>43822</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>43845</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>43852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>43854</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>43866</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>43866</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>43878</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>43878</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>43882</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>43897</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43921</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43922</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43922</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43922</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>43922</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>43923</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>43928</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>43937</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>43944</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>43944</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>43955</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>43955</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>43969</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>43985</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>43990</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>43990</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>43991</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>43991</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>43991</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44005</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44005</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>44015</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>44015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>44015</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44027</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44047</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44056</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44063</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44078</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44096</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>44096</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44106</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44106</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19753,7 +19753,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44109</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         <v>44113</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         <v>44125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19996,7 +19996,7 @@
         <v>44126</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20053,7 +20053,7 @@
         <v>44140</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>44145</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>44145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         <v>44146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44153</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44165</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>44179</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>44198</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44200</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44201</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>44201</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>44201</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>44201</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>44201</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44201</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44210</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44210</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
         <v>44214</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44215</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>44222</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>44224</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>44229</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44230</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>44230</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>44238</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44238</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>44260</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44279</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44281</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44284</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44286</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44287</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>44292</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>44308</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>44309</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44309</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44309</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44309</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>44309</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44309</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44314</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44314</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44326</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>44327</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>44344</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>44347</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23048,7 +23048,7 @@
         <v>44349</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>44357</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44363</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>44363</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44363</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>44364</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>44365</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23467,7 +23467,7 @@
         <v>44365</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>44371</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>44378</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44378</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44391</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23777,7 +23777,7 @@
         <v>44392</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44393</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>44393</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23958,7 +23958,7 @@
         <v>44393</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44393</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>44399</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>44411</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44411</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44412</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>44413</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         <v>44413</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44419</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44421</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44421</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44435</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>44435</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44452</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44456</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25116,7 +25116,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>44467</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>44467</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44471</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44473</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44477</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25597,7 +25597,7 @@
         <v>44481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25659,7 +25659,7 @@
         <v>44484</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>44495</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25773,7 +25773,7 @@
         <v>44498</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         <v>44501</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>44505</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44508</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44519</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44526</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26202,7 +26202,7 @@
         <v>44533</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26259,7 +26259,7 @@
         <v>44536</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>44538</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26383,7 +26383,7 @@
         <v>44539</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>44543</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>44546</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44547</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26616,7 +26616,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44558</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>44558</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44568</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>44599</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>44600</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         <v>44607</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44615</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44629</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44636</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44643</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>44651</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44651</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27387,7 +27387,7 @@
         <v>44656</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27449,7 +27449,7 @@
         <v>44680</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44686</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44687</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44691</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>44697</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>44697</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>44705</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>44705</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44706</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44711</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44755</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44755</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44755</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44755</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44755</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>44756</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>44782</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>44782</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>44782</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44782</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>44784</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28711,7 +28711,7 @@
         <v>44788</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44803</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44804</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>44809</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44816</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29011,7 +29011,7 @@
         <v>44824</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29073,7 +29073,7 @@
         <v>44824</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44824</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29197,7 +29197,7 @@
         <v>44829</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44829</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>44837</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44837</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>44844</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44844</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>44844</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>44846</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44846</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44859</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44865</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44866</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44867</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44868</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>44868</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30149,7 +30149,7 @@
         <v>44869</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30211,7 +30211,7 @@
         <v>44869</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>44869</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44873</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>44874</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44874</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>44875</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44894</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44896</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30754,7 +30754,7 @@
         <v>44904</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
         <v>44904</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>44904</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>44910</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>44910</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>44911</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31101,7 +31101,7 @@
         <v>44911</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31158,7 +31158,7 @@
         <v>44915</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31220,7 +31220,7 @@
         <v>44916</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31277,7 +31277,7 @@
         <v>44916</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31334,7 +31334,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>44923</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31453,7 +31453,7 @@
         <v>44923</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44924</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44937</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44942</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44942</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44960</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44964</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44978</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44978</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>45002</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>45015</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>45034</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45048</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>45057</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45072</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>45075</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>45076</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>45077</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45078</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32618,7 +32618,7 @@
         <v>45082</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32680,7 +32680,7 @@
         <v>45084</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45084</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32794,7 +32794,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>45086</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>45099</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>45103</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>45105</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>45106</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>45106</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33389,7 +33389,7 @@
         <v>45107</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33446,7 +33446,7 @@
         <v>45107</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33503,7 +33503,7 @@
         <v>45112</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33560,7 +33560,7 @@
         <v>45113</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33622,7 +33622,7 @@
         <v>45113</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45113</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>45114</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33808,7 +33808,7 @@
         <v>45114</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33865,7 +33865,7 @@
         <v>45114</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33922,7 +33922,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45114</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45118</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45119</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34445,7 +34445,7 @@
         <v>45120</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         <v>45121</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34569,7 +34569,7 @@
         <v>45124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         <v>45126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45131</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34745,7 +34745,7 @@
         <v>45134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34802,7 +34802,7 @@
         <v>45134</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34859,7 +34859,7 @@
         <v>45139</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34916,7 +34916,7 @@
         <v>45140</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>45141</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>45145</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35097,7 +35097,7 @@
         <v>45145</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35154,7 +35154,7 @@
         <v>45145</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35278,7 +35278,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
       </c>
       <c r="R537" s="2" t="inlineStr"/>
     </row>
-    <row r="538">
+    <row r="538" ht="15" customHeight="1">
       <c r="A538" t="inlineStr">
         <is>
           <t>A 37759-2023</t>
@@ -35335,7 +35335,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35386,6 +35386,68 @@
         <v>0</v>
       </c>
       <c r="R538" s="2" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>A 42874-2023</t>
+        </is>
+      </c>
+      <c r="B539" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C539" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>ÄLVDALEN</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G539" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0</v>
+      </c>
+      <c r="J539" t="n">
+        <v>0</v>
+      </c>
+      <c r="K539" t="n">
+        <v>0</v>
+      </c>
+      <c r="L539" t="n">
+        <v>0</v>
+      </c>
+      <c r="M539" t="n">
+        <v>0</v>
+      </c>
+      <c r="N539" t="n">
+        <v>0</v>
+      </c>
+      <c r="O539" t="n">
+        <v>0</v>
+      </c>
+      <c r="P539" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q539" t="n">
+        <v>0</v>
+      </c>
+      <c r="R539" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y539"/>
+  <dimension ref="A1:Y540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -655,27 +655,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 41854-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 41854-2022.xlsx", "A 41854-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 41854-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 41854-2022.png", "A 41854-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 41854-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 41854-2022.docx", "A 41854-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 41854-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 41854-2022.docx", "A 41854-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 41854-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 41854-2022.docx", "A 41854-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 41854-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 41854-2022.docx", "A 41854-2022")</f>
         <v/>
       </c>
     </row>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,27 +767,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 28623-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 28623-2020.xlsx", "A 28623-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 28623-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 28623-2020.png", "A 28623-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 28623-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 28623-2020.docx", "A 28623-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 28623-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 28623-2020.docx", "A 28623-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 28623-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 28623-2020.docx", "A 28623-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 28623-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 28623-2020.docx", "A 28623-2020")</f>
         <v/>
       </c>
     </row>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,27 +873,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 30241-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 30241-2023.png", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
     </row>
@@ -907,7 +907,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -973,27 +973,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 7234-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 7234-2019.xlsx", "A 7234-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 7234-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 7234-2019.png", "A 7234-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 7234-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 7234-2019.docx", "A 7234-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 7234-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 7234-2019.docx", "A 7234-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 7234-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 7234-2019.docx", "A 7234-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 7234-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 7234-2019.docx", "A 7234-2019")</f>
         <v/>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,27 +1073,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 19109-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 19109-2023.xlsx", "A 19109-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 19109-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 19109-2023.png", "A 19109-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 19109-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 19109-2023.docx", "A 19109-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 19109-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 19109-2023.docx", "A 19109-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 19109-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 19109-2023.docx", "A 19109-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 19109-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 19109-2023.docx", "A 19109-2023")</f>
         <v/>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1176,27 +1176,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 31037-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 31037-2023.xlsx", "A 31037-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 31037-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 31037-2023.png", "A 31037-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 31037-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 31037-2023.docx", "A 31037-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 31037-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 31037-2023.docx", "A 31037-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 31037-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 31037-2023.docx", "A 31037-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 31037-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 31037-2023.docx", "A 31037-2023")</f>
         <v/>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>43999</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,27 +1278,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 28620-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 28620-2020.xlsx", "A 28620-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 28620-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 28620-2020.png", "A 28620-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 28620-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 28620-2020.docx", "A 28620-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 28620-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 28620-2020.docx", "A 28620-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 28620-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 28620-2020.docx", "A 28620-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 28620-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 28620-2020.docx", "A 28620-2020")</f>
         <v/>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
         <v>44532</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1375,27 +1375,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 69728-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 69728-2021.xlsx", "A 69728-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 69728-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 69728-2021.png", "A 69728-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 69728-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 69728-2021.docx", "A 69728-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 69728-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 69728-2021.docx", "A 69728-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 69728-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 69728-2021.docx", "A 69728-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 69728-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 69728-2021.docx", "A 69728-2021")</f>
         <v/>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1472,27 +1472,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 33548-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 33548-2023.png", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,27 +1573,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 30234-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 30234-2023.png", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
         <v>43627</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1672,27 +1672,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 28765-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 28765-2019.xlsx", "A 28765-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 28765-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 28765-2019.png", "A 28765-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 28765-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 28765-2019.docx", "A 28765-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 28765-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 28765-2019.docx", "A 28765-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 28765-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 28765-2019.docx", "A 28765-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 28765-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 28765-2019.docx", "A 28765-2019")</f>
         <v/>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
         <v>44113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1766,27 +1766,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 51524-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 51524-2020.xlsx", "A 51524-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 51524-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 51524-2020.png", "A 51524-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 51524-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 51524-2020.docx", "A 51524-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 51524-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 51524-2020.docx", "A 51524-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 51524-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 51524-2020.docx", "A 51524-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 51524-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 51524-2020.docx", "A 51524-2020")</f>
         <v/>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
         <v>44406</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1860,27 +1860,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 38364-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 38364-2021.xlsx", "A 38364-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 38364-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 38364-2021.png", "A 38364-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 38364-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 38364-2021.docx", "A 38364-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 38364-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 38364-2021.docx", "A 38364-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 38364-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 38364-2021.docx", "A 38364-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 38364-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 38364-2021.docx", "A 38364-2021")</f>
         <v/>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
         <v>44848</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1959,27 +1959,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 46458-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 46458-2022.xlsx", "A 46458-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 46458-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 46458-2022.png", "A 46458-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 46458-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 46458-2022.docx", "A 46458-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 46458-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 46458-2022.docx", "A 46458-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 46458-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 46458-2022.docx", "A 46458-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 46458-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 46458-2022.docx", "A 46458-2022")</f>
         <v/>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
         <v>44939</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2053,91 +2053,190 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 1892-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 1892-2023.xlsx", "A 1892-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 1892-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 1892-2023.png", "A 1892-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 1892-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 1892-2023.docx", "A 1892-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 1892-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 1892-2023.docx", "A 1892-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 1892-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 1892-2023.docx", "A 1892-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 1892-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 1892-2023.docx", "A 1892-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
+          <t>A 30214-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45110</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÄLVDALEN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>10</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp
+Blågrå svartspik
+Garnlav
+Mörk kolflarnlav
+Orange taggsvamp
+Svart taggsvamp
+Tretåig hackspett
+Vedflamlav
+Dropptaggsvamp
+Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 30214-2023.xlsx", "A 30214-2023")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 30214-2023.png", "A 30214-2023")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 30214-2023.docx", "A 30214-2023")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 30214-2023.docx", "A 30214-2023")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 30214-2023.docx", "A 30214-2023")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 30214-2023.docx", "A 30214-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>A 66637-2021</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44519</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ÄLVDALEN</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ÄLVDALEN</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>4.7</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>3</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J18" t="n">
         <v>6</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>6</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>9</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Dvärgbägarlav
 Kolflarnlav
@@ -2150,92 +2249,92 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 66637-2021.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 66637-2021.png")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 66637-2021.docx")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 66637-2021.docx")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 66637-2021.docx")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 66637-2021.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 66637-2021.xlsx", "A 66637-2021")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 66637-2021.png", "A 66637-2021")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 66637-2021.docx", "A 66637-2021")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 66637-2021.docx", "A 66637-2021")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 66637-2021.docx", "A 66637-2021")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 66637-2021.docx", "A 66637-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 41913-2022</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>44830</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ÄLVDALEN</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="C19" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ÄLVDALEN</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G19" t="n">
         <v>5.6</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J19" t="n">
         <v>6</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K19" t="n">
         <v>2</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>8</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P19" t="n">
         <v>2</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q19" t="n">
         <v>9</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Tajgataggsvamp
@@ -2248,92 +2347,92 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 41913-2022.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 41913-2022.png")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 41913-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 41913-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 41913-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 41913-2022.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 41913-2022.xlsx", "A 41913-2022")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 41913-2022.png", "A 41913-2022")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 41913-2022.docx", "A 41913-2022")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 41913-2022.docx", "A 41913-2022")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 41913-2022.docx", "A 41913-2022")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 41913-2022.docx", "A 41913-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 28872-2023</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>45104</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ÄLVDALEN</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ÄLVDALEN</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>34.3</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J20" t="n">
         <v>5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K20" t="n">
         <v>1</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>7</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P20" t="n">
         <v>2</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q20" t="n">
         <v>9</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Mosippa
 Knärot
@@ -2346,130 +2445,32 @@
 Korallblylav</t>
         </is>
       </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 28872-2023.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 28872-2023.png")</f>
-        <v/>
-      </c>
-      <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/knärot/A 28872-2023.png")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 28872-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 28872-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 28872-2023.docx")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 28872-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 30214-2023</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45110</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>45184</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ÄLVDALEN</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>7</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Blå taggsvamp
-Garnlav
-Mörk kolflarnlav
-Orange taggsvamp
-Svart taggsvamp
-Tretåig hackspett
-Vedflamlav
-Dropptaggsvamp
-Skarp dropptaggsvamp</t>
-        </is>
-      </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 30214-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 28872-2023.xlsx", "A 28872-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 30214-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 28872-2023.png", "A 28872-2023")</f>
+        <v/>
+      </c>
+      <c r="U20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/knärot/A 28872-2023.png", "A 28872-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 30214-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 28872-2023.docx", "A 28872-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 30214-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 28872-2023.docx", "A 28872-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 30214-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 28872-2023.docx", "A 28872-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 30214-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 28872-2023.docx", "A 28872-2023")</f>
         <v/>
       </c>
     </row>
@@ -2483,7 +2484,7 @@
         <v>44673</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2546,27 +2547,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 16758-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 16758-2022.xlsx", "A 16758-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 16758-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 16758-2022.png", "A 16758-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 16758-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 16758-2022.docx", "A 16758-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 16758-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 16758-2022.docx", "A 16758-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 16758-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 16758-2022.docx", "A 16758-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 16758-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 16758-2022.docx", "A 16758-2022")</f>
         <v/>
       </c>
     </row>
@@ -2580,7 +2581,7 @@
         <v>44879</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2638,27 +2639,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 54371-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 54371-2022.xlsx", "A 54371-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 54371-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 54371-2022.png", "A 54371-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 54371-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 54371-2022.docx", "A 54371-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 54371-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 54371-2022.docx", "A 54371-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 54371-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 54371-2022.docx", "A 54371-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 54371-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 54371-2022.docx", "A 54371-2022")</f>
         <v/>
       </c>
     </row>
@@ -2672,7 +2673,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2735,27 +2736,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 32114-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 32114-2023.xlsx", "A 32114-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 32114-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 32114-2023.png", "A 32114-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 32114-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 32114-2023.docx", "A 32114-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 32114-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 32114-2023.docx", "A 32114-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 32114-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 32114-2023.docx", "A 32114-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 32114-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 32114-2023.docx", "A 32114-2023")</f>
         <v/>
       </c>
     </row>
@@ -2769,7 +2770,7 @@
         <v>44853</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2831,27 +2832,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 47504-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 47504-2022.xlsx", "A 47504-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 47504-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 47504-2022.png", "A 47504-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 47504-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 47504-2022.docx", "A 47504-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 47504-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 47504-2022.docx", "A 47504-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 47504-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 47504-2022.docx", "A 47504-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 47504-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 47504-2022.docx", "A 47504-2022")</f>
         <v/>
       </c>
     </row>
@@ -2865,7 +2866,7 @@
         <v>44378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2926,27 +2927,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 33608-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 33608-2021.xlsx", "A 33608-2021")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 33608-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 33608-2021.png", "A 33608-2021")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 33608-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 33608-2021.docx", "A 33608-2021")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 33608-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 33608-2021.docx", "A 33608-2021")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 33608-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 33608-2021.docx", "A 33608-2021")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 33608-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 33608-2021.docx", "A 33608-2021")</f>
         <v/>
       </c>
     </row>
@@ -2960,7 +2961,7 @@
         <v>44472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3016,27 +3017,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 54314-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 54314-2021.xlsx", "A 54314-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 54314-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 54314-2021.png", "A 54314-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 54314-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 54314-2021.docx", "A 54314-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 54314-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 54314-2021.docx", "A 54314-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 54314-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 54314-2021.docx", "A 54314-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 54314-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 54314-2021.docx", "A 54314-2021")</f>
         <v/>
       </c>
     </row>
@@ -3050,7 +3051,7 @@
         <v>44473</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3106,27 +3107,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 54671-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 54671-2021.xlsx", "A 54671-2021")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 54671-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 54671-2021.png", "A 54671-2021")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 54671-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 54671-2021.docx", "A 54671-2021")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 54671-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 54671-2021.docx", "A 54671-2021")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 54671-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 54671-2021.docx", "A 54671-2021")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 54671-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 54671-2021.docx", "A 54671-2021")</f>
         <v/>
       </c>
     </row>
@@ -3140,7 +3141,7 @@
         <v>44817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3196,27 +3197,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 39278-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 39278-2022.xlsx", "A 39278-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 39278-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 39278-2022.png", "A 39278-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 39278-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 39278-2022.docx", "A 39278-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 39278-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 39278-2022.docx", "A 39278-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 39278-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 39278-2022.docx", "A 39278-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 39278-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 39278-2022.docx", "A 39278-2022")</f>
         <v/>
       </c>
     </row>
@@ -3230,7 +3231,7 @@
         <v>44935</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3291,27 +3292,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 970-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 970-2023.xlsx", "A 970-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 970-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 970-2023.png", "A 970-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 970-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 970-2023.docx", "A 970-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 970-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 970-2023.docx", "A 970-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 970-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 970-2023.docx", "A 970-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 970-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 970-2023.docx", "A 970-2023")</f>
         <v/>
       </c>
     </row>
@@ -3325,7 +3326,7 @@
         <v>43641</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3380,27 +3381,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 31542-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 31542-2019.xlsx", "A 31542-2019")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 31542-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 31542-2019.png", "A 31542-2019")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 31542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 31542-2019.docx", "A 31542-2019")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 31542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 31542-2019.docx", "A 31542-2019")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 31542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 31542-2019.docx", "A 31542-2019")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 31542-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 31542-2019.docx", "A 31542-2019")</f>
         <v/>
       </c>
     </row>
@@ -3414,7 +3415,7 @@
         <v>44452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3474,27 +3475,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 48884-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 48884-2021.xlsx", "A 48884-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 48884-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 48884-2021.png", "A 48884-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 48884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 48884-2021.docx", "A 48884-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 48884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 48884-2021.docx", "A 48884-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 48884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 48884-2021.docx", "A 48884-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 48884-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 48884-2021.docx", "A 48884-2021")</f>
         <v/>
       </c>
     </row>
@@ -3508,7 +3509,7 @@
         <v>44943</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3563,27 +3564,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 2511-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 2511-2023.xlsx", "A 2511-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 2511-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 2511-2023.png", "A 2511-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 2511-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 2511-2023.docx", "A 2511-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 2511-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 2511-2023.docx", "A 2511-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 2511-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 2511-2023.docx", "A 2511-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 2511-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 2511-2023.docx", "A 2511-2023")</f>
         <v/>
       </c>
     </row>
@@ -3597,7 +3598,7 @@
         <v>45105</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3657,27 +3658,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 29234-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 29234-2023.xlsx", "A 29234-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 29234-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 29234-2023.png", "A 29234-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 29234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 29234-2023.docx", "A 29234-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 29234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 29234-2023.docx", "A 29234-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 29234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 29234-2023.docx", "A 29234-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 29234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 29234-2023.docx", "A 29234-2023")</f>
         <v/>
       </c>
     </row>
@@ -3691,7 +3692,7 @@
         <v>43713</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3745,27 +3746,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 46264-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 46264-2019.xlsx", "A 46264-2019")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 46264-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 46264-2019.png", "A 46264-2019")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 46264-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 46264-2019.docx", "A 46264-2019")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 46264-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 46264-2019.docx", "A 46264-2019")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 46264-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 46264-2019.docx", "A 46264-2019")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 46264-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 46264-2019.docx", "A 46264-2019")</f>
         <v/>
       </c>
     </row>
@@ -3779,7 +3780,7 @@
         <v>44413</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3838,27 +3839,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 39303-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 39303-2021.xlsx", "A 39303-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 39303-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 39303-2021.png", "A 39303-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 39303-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 39303-2021.docx", "A 39303-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 39303-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 39303-2021.docx", "A 39303-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 39303-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 39303-2021.docx", "A 39303-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 39303-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 39303-2021.docx", "A 39303-2021")</f>
         <v/>
       </c>
     </row>
@@ -3872,7 +3873,7 @@
         <v>44482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3931,27 +3932,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 57096-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 57096-2021.xlsx", "A 57096-2021")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 57096-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 57096-2021.png", "A 57096-2021")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 57096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 57096-2021.docx", "A 57096-2021")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 57096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 57096-2021.docx", "A 57096-2021")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 57096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 57096-2021.docx", "A 57096-2021")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 57096-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 57096-2021.docx", "A 57096-2021")</f>
         <v/>
       </c>
     </row>
@@ -3965,7 +3966,7 @@
         <v>44824</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4024,27 +4025,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 40710-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 40710-2022.xlsx", "A 40710-2022")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 40710-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 40710-2022.png", "A 40710-2022")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 40710-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 40710-2022.docx", "A 40710-2022")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 40710-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 40710-2022.docx", "A 40710-2022")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 40710-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 40710-2022.docx", "A 40710-2022")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 40710-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 40710-2022.docx", "A 40710-2022")</f>
         <v/>
       </c>
     </row>
@@ -4058,7 +4059,7 @@
         <v>44830</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4117,27 +4118,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 41966-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 41966-2022.xlsx", "A 41966-2022")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 41966-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 41966-2022.png", "A 41966-2022")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 41966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 41966-2022.docx", "A 41966-2022")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 41966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 41966-2022.docx", "A 41966-2022")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 41966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 41966-2022.docx", "A 41966-2022")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 41966-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 41966-2022.docx", "A 41966-2022")</f>
         <v/>
       </c>
     </row>
@@ -4151,7 +4152,7 @@
         <v>45105</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4210,27 +4211,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 29252-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 29252-2023.xlsx", "A 29252-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 29252-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 29252-2023.png", "A 29252-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 29252-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 29252-2023.docx", "A 29252-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 29252-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 29252-2023.docx", "A 29252-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 29252-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 29252-2023.docx", "A 29252-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 29252-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 29252-2023.docx", "A 29252-2023")</f>
         <v/>
       </c>
     </row>
@@ -4244,7 +4245,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4298,27 +4299,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 33550-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 33550-2023.png", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
     </row>
@@ -4332,7 +4333,7 @@
         <v>43703</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4385,27 +4386,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 42208-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 42208-2019.xlsx", "A 42208-2019")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 42208-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 42208-2019.png", "A 42208-2019")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 42208-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 42208-2019.docx", "A 42208-2019")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 42208-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 42208-2019.docx", "A 42208-2019")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 42208-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 42208-2019.docx", "A 42208-2019")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 42208-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 42208-2019.docx", "A 42208-2019")</f>
         <v/>
       </c>
     </row>
@@ -4419,7 +4420,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4477,27 +4478,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 33582-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 33582-2021.xlsx", "A 33582-2021")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 33582-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 33582-2021.png", "A 33582-2021")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 33582-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 33582-2021.docx", "A 33582-2021")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 33582-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 33582-2021.docx", "A 33582-2021")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 33582-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 33582-2021.docx", "A 33582-2021")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 33582-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 33582-2021.docx", "A 33582-2021")</f>
         <v/>
       </c>
     </row>
@@ -4511,7 +4512,7 @@
         <v>44461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4569,27 +4570,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 51732-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 51732-2021.xlsx", "A 51732-2021")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 51732-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 51732-2021.png", "A 51732-2021")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 51732-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 51732-2021.docx", "A 51732-2021")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 51732-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 51732-2021.docx", "A 51732-2021")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 51732-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 51732-2021.docx", "A 51732-2021")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 51732-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 51732-2021.docx", "A 51732-2021")</f>
         <v/>
       </c>
     </row>
@@ -4603,7 +4604,7 @@
         <v>44470</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4661,27 +4662,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 54257-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 54257-2021.xlsx", "A 54257-2021")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 54257-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 54257-2021.png", "A 54257-2021")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 54257-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 54257-2021.docx", "A 54257-2021")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 54257-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 54257-2021.docx", "A 54257-2021")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 54257-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 54257-2021.docx", "A 54257-2021")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 54257-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 54257-2021.docx", "A 54257-2021")</f>
         <v/>
       </c>
     </row>
@@ -4695,7 +4696,7 @@
         <v>44516</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4753,27 +4754,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 65467-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 65467-2021.xlsx", "A 65467-2021")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 65467-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 65467-2021.png", "A 65467-2021")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 65467-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 65467-2021.docx", "A 65467-2021")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 65467-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 65467-2021.docx", "A 65467-2021")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 65467-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 65467-2021.docx", "A 65467-2021")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 65467-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 65467-2021.docx", "A 65467-2021")</f>
         <v/>
       </c>
     </row>
@@ -4787,7 +4788,7 @@
         <v>44830</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4845,27 +4846,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 41909-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 41909-2022.xlsx", "A 41909-2022")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 41909-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 41909-2022.png", "A 41909-2022")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 41909-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 41909-2022.docx", "A 41909-2022")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 41909-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 41909-2022.docx", "A 41909-2022")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 41909-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 41909-2022.docx", "A 41909-2022")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 41909-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 41909-2022.docx", "A 41909-2022")</f>
         <v/>
       </c>
     </row>
@@ -4879,7 +4880,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4937,27 +4938,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 41919-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 41919-2022.xlsx", "A 41919-2022")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 41919-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 41919-2022.png", "A 41919-2022")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 41919-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 41919-2022.docx", "A 41919-2022")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 41919-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 41919-2022.docx", "A 41919-2022")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 41919-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 41919-2022.docx", "A 41919-2022")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 41919-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 41919-2022.docx", "A 41919-2022")</f>
         <v/>
       </c>
     </row>
@@ -4971,7 +4972,7 @@
         <v>44830</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5029,27 +5030,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 41921-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 41921-2022.xlsx", "A 41921-2022")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 41921-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 41921-2022.png", "A 41921-2022")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 41921-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 41921-2022.docx", "A 41921-2022")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 41921-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 41921-2022.docx", "A 41921-2022")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 41921-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 41921-2022.docx", "A 41921-2022")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 41921-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 41921-2022.docx", "A 41921-2022")</f>
         <v/>
       </c>
     </row>
@@ -5063,7 +5064,7 @@
         <v>44865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5121,27 +5122,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 50207-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 50207-2022.xlsx", "A 50207-2022")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 50207-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 50207-2022.png", "A 50207-2022")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 50207-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 50207-2022.docx", "A 50207-2022")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 50207-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 50207-2022.docx", "A 50207-2022")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 50207-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 50207-2022.docx", "A 50207-2022")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 50207-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 50207-2022.docx", "A 50207-2022")</f>
         <v/>
       </c>
     </row>
@@ -5155,7 +5156,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5212,27 +5213,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 45007-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 45007-2018.xlsx", "A 45007-2018")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 45007-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 45007-2018.png", "A 45007-2018")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 45007-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 45007-2018.docx", "A 45007-2018")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 45007-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 45007-2018.docx", "A 45007-2018")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 45007-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 45007-2018.docx", "A 45007-2018")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 45007-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 45007-2018.docx", "A 45007-2018")</f>
         <v/>
       </c>
     </row>
@@ -5246,7 +5247,7 @@
         <v>43707</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5303,27 +5304,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 45015-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 45015-2019.xlsx", "A 45015-2019")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 45015-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 45015-2019.png", "A 45015-2019")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 45015-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 45015-2019.docx", "A 45015-2019")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 45015-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 45015-2019.docx", "A 45015-2019")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 45015-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 45015-2019.docx", "A 45015-2019")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 45015-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 45015-2019.docx", "A 45015-2019")</f>
         <v/>
       </c>
     </row>
@@ -5337,7 +5338,7 @@
         <v>44365</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5394,27 +5395,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 30615-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 30615-2021.xlsx", "A 30615-2021")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 30615-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 30615-2021.png", "A 30615-2021")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 30615-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 30615-2021.docx", "A 30615-2021")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 30615-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 30615-2021.docx", "A 30615-2021")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 30615-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 30615-2021.docx", "A 30615-2021")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 30615-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 30615-2021.docx", "A 30615-2021")</f>
         <v/>
       </c>
     </row>
@@ -5428,7 +5429,7 @@
         <v>44435</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5485,27 +5486,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 44407-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 44407-2021.xlsx", "A 44407-2021")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 44407-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 44407-2021.png", "A 44407-2021")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 44407-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 44407-2021.docx", "A 44407-2021")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 44407-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 44407-2021.docx", "A 44407-2021")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 44407-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 44407-2021.docx", "A 44407-2021")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 44407-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 44407-2021.docx", "A 44407-2021")</f>
         <v/>
       </c>
     </row>
@@ -5519,7 +5520,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5571,27 +5572,27 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 54632-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 54632-2021.xlsx", "A 54632-2021")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 54632-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 54632-2021.png", "A 54632-2021")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 54632-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 54632-2021.docx", "A 54632-2021")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 54632-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 54632-2021.docx", "A 54632-2021")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 54632-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 54632-2021.docx", "A 54632-2021")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 54632-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 54632-2021.docx", "A 54632-2021")</f>
         <v/>
       </c>
     </row>
@@ -5605,7 +5606,7 @@
         <v>44525</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5662,27 +5663,27 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 67709-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 67709-2021.xlsx", "A 67709-2021")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 67709-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 67709-2021.png", "A 67709-2021")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 67709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 67709-2021.docx", "A 67709-2021")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 67709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 67709-2021.docx", "A 67709-2021")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 67709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 67709-2021.docx", "A 67709-2021")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 67709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 67709-2021.docx", "A 67709-2021")</f>
         <v/>
       </c>
     </row>
@@ -5696,7 +5697,7 @@
         <v>44706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5753,27 +5754,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 21629-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 21629-2022.xlsx", "A 21629-2022")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 21629-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 21629-2022.png", "A 21629-2022")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 21629-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 21629-2022.docx", "A 21629-2022")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 21629-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 21629-2022.docx", "A 21629-2022")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 21629-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 21629-2022.docx", "A 21629-2022")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 21629-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 21629-2022.docx", "A 21629-2022")</f>
         <v/>
       </c>
     </row>
@@ -5787,7 +5788,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5844,27 +5845,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 50242-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 50242-2022.xlsx", "A 50242-2022")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 50242-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 50242-2022.png", "A 50242-2022")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 50242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 50242-2022.docx", "A 50242-2022")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 50242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 50242-2022.docx", "A 50242-2022")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 50242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 50242-2022.docx", "A 50242-2022")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 50242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 50242-2022.docx", "A 50242-2022")</f>
         <v/>
       </c>
     </row>
@@ -5878,7 +5879,7 @@
         <v>44874</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5930,27 +5931,27 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 52490-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 52490-2022.xlsx", "A 52490-2022")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 52490-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 52490-2022.png", "A 52490-2022")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 52490-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 52490-2022.docx", "A 52490-2022")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 52490-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 52490-2022.docx", "A 52490-2022")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 52490-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 52490-2022.docx", "A 52490-2022")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 52490-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 52490-2022.docx", "A 52490-2022")</f>
         <v/>
       </c>
     </row>
@@ -5964,7 +5965,7 @@
         <v>45068</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6021,27 +6022,27 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 21857-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 21857-2023.xlsx", "A 21857-2023")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 21857-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 21857-2023.png", "A 21857-2023")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 21857-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 21857-2023.docx", "A 21857-2023")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 21857-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 21857-2023.docx", "A 21857-2023")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 21857-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 21857-2023.docx", "A 21857-2023")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 21857-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 21857-2023.docx", "A 21857-2023")</f>
         <v/>
       </c>
     </row>
@@ -6055,7 +6056,7 @@
         <v>45089</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6112,27 +6113,27 @@
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 25378-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 25378-2023.xlsx", "A 25378-2023")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 25378-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 25378-2023.png", "A 25378-2023")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 25378-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 25378-2023.docx", "A 25378-2023")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 25378-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 25378-2023.docx", "A 25378-2023")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 25378-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 25378-2023.docx", "A 25378-2023")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 25378-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 25378-2023.docx", "A 25378-2023")</f>
         <v/>
       </c>
     </row>
@@ -6146,7 +6147,7 @@
         <v>45145</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6203,27 +6204,27 @@
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 35141-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 35141-2023.xlsx", "A 35141-2023")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 35141-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 35141-2023.png", "A 35141-2023")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 35141-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 35141-2023.docx", "A 35141-2023")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 35141-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 35141-2023.docx", "A 35141-2023")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 35141-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 35141-2023.docx", "A 35141-2023")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 35141-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 35141-2023.docx", "A 35141-2023")</f>
         <v/>
       </c>
     </row>
@@ -6237,7 +6238,7 @@
         <v>45159</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6294,27 +6295,27 @@
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 37664-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 37664-2023.xlsx", "A 37664-2023")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 37664-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 37664-2023.png", "A 37664-2023")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 37664-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 37664-2023.docx", "A 37664-2023")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 37664-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 37664-2023.docx", "A 37664-2023")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 37664-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 37664-2023.docx", "A 37664-2023")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 37664-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 37664-2023.docx", "A 37664-2023")</f>
         <v/>
       </c>
     </row>
@@ -6328,7 +6329,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6384,27 +6385,27 @@
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 58237-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 58237-2018.xlsx", "A 58237-2018")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 58237-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 58237-2018.png", "A 58237-2018")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 58237-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 58237-2018.docx", "A 58237-2018")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 58237-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 58237-2018.docx", "A 58237-2018")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 58237-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 58237-2018.docx", "A 58237-2018")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 58237-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 58237-2018.docx", "A 58237-2018")</f>
         <v/>
       </c>
     </row>
@@ -6418,7 +6419,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6474,27 +6475,27 @@
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 66537-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 66537-2018.xlsx", "A 66537-2018")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 66537-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 66537-2018.png", "A 66537-2018")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 66537-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 66537-2018.docx", "A 66537-2018")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 66537-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 66537-2018.docx", "A 66537-2018")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 66537-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 66537-2018.docx", "A 66537-2018")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 66537-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 66537-2018.docx", "A 66537-2018")</f>
         <v/>
       </c>
     </row>
@@ -6508,7 +6509,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6559,27 +6560,27 @@
         </is>
       </c>
       <c r="S65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 16738-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 16738-2019.xlsx", "A 16738-2019")</f>
         <v/>
       </c>
       <c r="T65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 16738-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 16738-2019.png", "A 16738-2019")</f>
         <v/>
       </c>
       <c r="V65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 16738-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 16738-2019.docx", "A 16738-2019")</f>
         <v/>
       </c>
       <c r="W65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 16738-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 16738-2019.docx", "A 16738-2019")</f>
         <v/>
       </c>
       <c r="X65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 16738-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 16738-2019.docx", "A 16738-2019")</f>
         <v/>
       </c>
       <c r="Y65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 16738-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 16738-2019.docx", "A 16738-2019")</f>
         <v/>
       </c>
     </row>
@@ -6593,7 +6594,7 @@
         <v>43587</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6644,27 +6645,27 @@
         </is>
       </c>
       <c r="S66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 22522-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 22522-2019.xlsx", "A 22522-2019")</f>
         <v/>
       </c>
       <c r="T66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 22522-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 22522-2019.png", "A 22522-2019")</f>
         <v/>
       </c>
       <c r="V66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 22522-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 22522-2019.docx", "A 22522-2019")</f>
         <v/>
       </c>
       <c r="W66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 22522-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 22522-2019.docx", "A 22522-2019")</f>
         <v/>
       </c>
       <c r="X66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 22522-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 22522-2019.docx", "A 22522-2019")</f>
         <v/>
       </c>
       <c r="Y66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 22522-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 22522-2019.docx", "A 22522-2019")</f>
         <v/>
       </c>
     </row>
@@ -6678,7 +6679,7 @@
         <v>43928</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6734,27 +6735,27 @@
         </is>
       </c>
       <c r="S67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 18227-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 18227-2020.xlsx", "A 18227-2020")</f>
         <v/>
       </c>
       <c r="T67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 18227-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 18227-2020.png", "A 18227-2020")</f>
         <v/>
       </c>
       <c r="V67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 18227-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 18227-2020.docx", "A 18227-2020")</f>
         <v/>
       </c>
       <c r="W67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 18227-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 18227-2020.docx", "A 18227-2020")</f>
         <v/>
       </c>
       <c r="X67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 18227-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 18227-2020.docx", "A 18227-2020")</f>
         <v/>
       </c>
       <c r="Y67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 18227-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 18227-2020.docx", "A 18227-2020")</f>
         <v/>
       </c>
     </row>
@@ -6768,7 +6769,7 @@
         <v>43937</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6824,27 +6825,27 @@
         </is>
       </c>
       <c r="S68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 19669-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 19669-2020.xlsx", "A 19669-2020")</f>
         <v/>
       </c>
       <c r="T68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 19669-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 19669-2020.png", "A 19669-2020")</f>
         <v/>
       </c>
       <c r="V68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 19669-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 19669-2020.docx", "A 19669-2020")</f>
         <v/>
       </c>
       <c r="W68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 19669-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 19669-2020.docx", "A 19669-2020")</f>
         <v/>
       </c>
       <c r="X68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 19669-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 19669-2020.docx", "A 19669-2020")</f>
         <v/>
       </c>
       <c r="Y68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 19669-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 19669-2020.docx", "A 19669-2020")</f>
         <v/>
       </c>
     </row>
@@ -6858,7 +6859,7 @@
         <v>44029</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6914,27 +6915,27 @@
         </is>
       </c>
       <c r="S69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 34201-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 34201-2020.xlsx", "A 34201-2020")</f>
         <v/>
       </c>
       <c r="T69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 34201-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 34201-2020.png", "A 34201-2020")</f>
         <v/>
       </c>
       <c r="V69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 34201-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 34201-2020.docx", "A 34201-2020")</f>
         <v/>
       </c>
       <c r="W69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 34201-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 34201-2020.docx", "A 34201-2020")</f>
         <v/>
       </c>
       <c r="X69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 34201-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 34201-2020.docx", "A 34201-2020")</f>
         <v/>
       </c>
       <c r="Y69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 34201-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 34201-2020.docx", "A 34201-2020")</f>
         <v/>
       </c>
     </row>
@@ -6948,7 +6949,7 @@
         <v>44061</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7004,27 +7005,27 @@
         </is>
       </c>
       <c r="S70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 38505-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 38505-2020.xlsx", "A 38505-2020")</f>
         <v/>
       </c>
       <c r="T70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 38505-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 38505-2020.png", "A 38505-2020")</f>
         <v/>
       </c>
       <c r="V70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 38505-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 38505-2020.docx", "A 38505-2020")</f>
         <v/>
       </c>
       <c r="W70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 38505-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 38505-2020.docx", "A 38505-2020")</f>
         <v/>
       </c>
       <c r="X70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 38505-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 38505-2020.docx", "A 38505-2020")</f>
         <v/>
       </c>
       <c r="Y70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 38505-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 38505-2020.docx", "A 38505-2020")</f>
         <v/>
       </c>
     </row>
@@ -7038,7 +7039,7 @@
         <v>44092</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7094,27 +7095,27 @@
         </is>
       </c>
       <c r="S71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 46279-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 46279-2020.xlsx", "A 46279-2020")</f>
         <v/>
       </c>
       <c r="T71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 46279-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 46279-2020.png", "A 46279-2020")</f>
         <v/>
       </c>
       <c r="V71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 46279-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 46279-2020.docx", "A 46279-2020")</f>
         <v/>
       </c>
       <c r="W71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 46279-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 46279-2020.docx", "A 46279-2020")</f>
         <v/>
       </c>
       <c r="X71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 46279-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 46279-2020.docx", "A 46279-2020")</f>
         <v/>
       </c>
       <c r="Y71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 46279-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 46279-2020.docx", "A 46279-2020")</f>
         <v/>
       </c>
     </row>
@@ -7128,7 +7129,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7184,27 +7185,27 @@
         </is>
       </c>
       <c r="S72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 58570-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 58570-2020.xlsx", "A 58570-2020")</f>
         <v/>
       </c>
       <c r="T72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 58570-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 58570-2020.png", "A 58570-2020")</f>
         <v/>
       </c>
       <c r="V72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 58570-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 58570-2020.docx", "A 58570-2020")</f>
         <v/>
       </c>
       <c r="W72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 58570-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 58570-2020.docx", "A 58570-2020")</f>
         <v/>
       </c>
       <c r="X72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 58570-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 58570-2020.docx", "A 58570-2020")</f>
         <v/>
       </c>
       <c r="Y72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 58570-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 58570-2020.docx", "A 58570-2020")</f>
         <v/>
       </c>
     </row>
@@ -7218,7 +7219,7 @@
         <v>44260</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7274,27 +7275,27 @@
         </is>
       </c>
       <c r="S73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 11061-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 11061-2021.xlsx", "A 11061-2021")</f>
         <v/>
       </c>
       <c r="T73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 11061-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 11061-2021.png", "A 11061-2021")</f>
         <v/>
       </c>
       <c r="V73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 11061-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 11061-2021.docx", "A 11061-2021")</f>
         <v/>
       </c>
       <c r="W73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 11061-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 11061-2021.docx", "A 11061-2021")</f>
         <v/>
       </c>
       <c r="X73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 11061-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 11061-2021.docx", "A 11061-2021")</f>
         <v/>
       </c>
       <c r="Y73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 11061-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 11061-2021.docx", "A 11061-2021")</f>
         <v/>
       </c>
     </row>
@@ -7308,7 +7309,7 @@
         <v>44284</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7359,27 +7360,27 @@
         </is>
       </c>
       <c r="S74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 16638-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 16638-2021.xlsx", "A 16638-2021")</f>
         <v/>
       </c>
       <c r="T74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 16638-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 16638-2021.png", "A 16638-2021")</f>
         <v/>
       </c>
       <c r="V74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 16638-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 16638-2021.docx", "A 16638-2021")</f>
         <v/>
       </c>
       <c r="W74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 16638-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 16638-2021.docx", "A 16638-2021")</f>
         <v/>
       </c>
       <c r="X74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 16638-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 16638-2021.docx", "A 16638-2021")</f>
         <v/>
       </c>
       <c r="Y74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 16638-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 16638-2021.docx", "A 16638-2021")</f>
         <v/>
       </c>
     </row>
@@ -7393,7 +7394,7 @@
         <v>44340</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7449,27 +7450,27 @@
         </is>
       </c>
       <c r="S75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 24847-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 24847-2021.xlsx", "A 24847-2021")</f>
         <v/>
       </c>
       <c r="T75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 24847-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 24847-2021.png", "A 24847-2021")</f>
         <v/>
       </c>
       <c r="V75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 24847-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 24847-2021.docx", "A 24847-2021")</f>
         <v/>
       </c>
       <c r="W75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 24847-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 24847-2021.docx", "A 24847-2021")</f>
         <v/>
       </c>
       <c r="X75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 24847-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 24847-2021.docx", "A 24847-2021")</f>
         <v/>
       </c>
       <c r="Y75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 24847-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 24847-2021.docx", "A 24847-2021")</f>
         <v/>
       </c>
     </row>
@@ -7483,7 +7484,7 @@
         <v>44349</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7539,27 +7540,27 @@
         </is>
       </c>
       <c r="S76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 26736-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 26736-2021.xlsx", "A 26736-2021")</f>
         <v/>
       </c>
       <c r="T76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 26736-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 26736-2021.png", "A 26736-2021")</f>
         <v/>
       </c>
       <c r="V76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 26736-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 26736-2021.docx", "A 26736-2021")</f>
         <v/>
       </c>
       <c r="W76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 26736-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 26736-2021.docx", "A 26736-2021")</f>
         <v/>
       </c>
       <c r="X76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 26736-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 26736-2021.docx", "A 26736-2021")</f>
         <v/>
       </c>
       <c r="Y76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 26736-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 26736-2021.docx", "A 26736-2021")</f>
         <v/>
       </c>
     </row>
@@ -7573,7 +7574,7 @@
         <v>44370</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7629,27 +7630,27 @@
         </is>
       </c>
       <c r="S77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 31761-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 31761-2021.xlsx", "A 31761-2021")</f>
         <v/>
       </c>
       <c r="T77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 31761-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 31761-2021.png", "A 31761-2021")</f>
         <v/>
       </c>
       <c r="V77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 31761-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 31761-2021.docx", "A 31761-2021")</f>
         <v/>
       </c>
       <c r="W77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 31761-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 31761-2021.docx", "A 31761-2021")</f>
         <v/>
       </c>
       <c r="X77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 31761-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 31761-2021.docx", "A 31761-2021")</f>
         <v/>
       </c>
       <c r="Y77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 31761-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 31761-2021.docx", "A 31761-2021")</f>
         <v/>
       </c>
     </row>
@@ -7663,7 +7664,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7719,27 +7720,27 @@
         </is>
       </c>
       <c r="S78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 34099-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 34099-2021.xlsx", "A 34099-2021")</f>
         <v/>
       </c>
       <c r="T78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 34099-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 34099-2021.png", "A 34099-2021")</f>
         <v/>
       </c>
       <c r="V78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 34099-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 34099-2021.docx", "A 34099-2021")</f>
         <v/>
       </c>
       <c r="W78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 34099-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 34099-2021.docx", "A 34099-2021")</f>
         <v/>
       </c>
       <c r="X78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 34099-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 34099-2021.docx", "A 34099-2021")</f>
         <v/>
       </c>
       <c r="Y78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 34099-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 34099-2021.docx", "A 34099-2021")</f>
         <v/>
       </c>
     </row>
@@ -7753,7 +7754,7 @@
         <v>44488</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7809,27 +7810,27 @@
         </is>
       </c>
       <c r="S79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 58508-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 58508-2021.xlsx", "A 58508-2021")</f>
         <v/>
       </c>
       <c r="T79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 58508-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 58508-2021.png", "A 58508-2021")</f>
         <v/>
       </c>
       <c r="V79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 58508-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 58508-2021.docx", "A 58508-2021")</f>
         <v/>
       </c>
       <c r="W79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 58508-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 58508-2021.docx", "A 58508-2021")</f>
         <v/>
       </c>
       <c r="X79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 58508-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 58508-2021.docx", "A 58508-2021")</f>
         <v/>
       </c>
       <c r="Y79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 58508-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 58508-2021.docx", "A 58508-2021")</f>
         <v/>
       </c>
     </row>
@@ -7843,7 +7844,7 @@
         <v>44516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7899,27 +7900,27 @@
         </is>
       </c>
       <c r="S80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 65500-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 65500-2021.xlsx", "A 65500-2021")</f>
         <v/>
       </c>
       <c r="T80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 65500-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 65500-2021.png", "A 65500-2021")</f>
         <v/>
       </c>
       <c r="V80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 65500-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 65500-2021.docx", "A 65500-2021")</f>
         <v/>
       </c>
       <c r="W80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 65500-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 65500-2021.docx", "A 65500-2021")</f>
         <v/>
       </c>
       <c r="X80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 65500-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 65500-2021.docx", "A 65500-2021")</f>
         <v/>
       </c>
       <c r="Y80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 65500-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 65500-2021.docx", "A 65500-2021")</f>
         <v/>
       </c>
     </row>
@@ -7933,7 +7934,7 @@
         <v>44532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7989,27 +7990,27 @@
         </is>
       </c>
       <c r="S81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 69726-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 69726-2021.xlsx", "A 69726-2021")</f>
         <v/>
       </c>
       <c r="T81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 69726-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 69726-2021.png", "A 69726-2021")</f>
         <v/>
       </c>
       <c r="V81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 69726-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 69726-2021.docx", "A 69726-2021")</f>
         <v/>
       </c>
       <c r="W81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 69726-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 69726-2021.docx", "A 69726-2021")</f>
         <v/>
       </c>
       <c r="X81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 69726-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 69726-2021.docx", "A 69726-2021")</f>
         <v/>
       </c>
       <c r="Y81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 69726-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 69726-2021.docx", "A 69726-2021")</f>
         <v/>
       </c>
     </row>
@@ -8023,7 +8024,7 @@
         <v>44818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8074,27 +8075,27 @@
         </is>
       </c>
       <c r="S82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 39419-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 39419-2022.xlsx", "A 39419-2022")</f>
         <v/>
       </c>
       <c r="T82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 39419-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 39419-2022.png", "A 39419-2022")</f>
         <v/>
       </c>
       <c r="V82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 39419-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 39419-2022.docx", "A 39419-2022")</f>
         <v/>
       </c>
       <c r="W82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 39419-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 39419-2022.docx", "A 39419-2022")</f>
         <v/>
       </c>
       <c r="X82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 39419-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 39419-2022.docx", "A 39419-2022")</f>
         <v/>
       </c>
       <c r="Y82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 39419-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 39419-2022.docx", "A 39419-2022")</f>
         <v/>
       </c>
     </row>
@@ -8108,7 +8109,7 @@
         <v>44837</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8164,27 +8165,27 @@
         </is>
       </c>
       <c r="S83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 43651-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 43651-2022.xlsx", "A 43651-2022")</f>
         <v/>
       </c>
       <c r="T83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 43651-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 43651-2022.png", "A 43651-2022")</f>
         <v/>
       </c>
       <c r="V83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 43651-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 43651-2022.docx", "A 43651-2022")</f>
         <v/>
       </c>
       <c r="W83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 43651-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 43651-2022.docx", "A 43651-2022")</f>
         <v/>
       </c>
       <c r="X83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 43651-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 43651-2022.docx", "A 43651-2022")</f>
         <v/>
       </c>
       <c r="Y83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 43651-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 43651-2022.docx", "A 43651-2022")</f>
         <v/>
       </c>
     </row>
@@ -8198,7 +8199,7 @@
         <v>44865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8254,27 +8255,27 @@
         </is>
       </c>
       <c r="S84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 50251-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 50251-2022.xlsx", "A 50251-2022")</f>
         <v/>
       </c>
       <c r="T84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 50251-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 50251-2022.png", "A 50251-2022")</f>
         <v/>
       </c>
       <c r="V84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 50251-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 50251-2022.docx", "A 50251-2022")</f>
         <v/>
       </c>
       <c r="W84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 50251-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 50251-2022.docx", "A 50251-2022")</f>
         <v/>
       </c>
       <c r="X84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 50251-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 50251-2022.docx", "A 50251-2022")</f>
         <v/>
       </c>
       <c r="Y84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 50251-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 50251-2022.docx", "A 50251-2022")</f>
         <v/>
       </c>
     </row>
@@ -8288,7 +8289,7 @@
         <v>44865</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8344,27 +8345,27 @@
         </is>
       </c>
       <c r="S85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 50252-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 50252-2022.xlsx", "A 50252-2022")</f>
         <v/>
       </c>
       <c r="T85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 50252-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 50252-2022.png", "A 50252-2022")</f>
         <v/>
       </c>
       <c r="V85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 50252-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 50252-2022.docx", "A 50252-2022")</f>
         <v/>
       </c>
       <c r="W85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 50252-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 50252-2022.docx", "A 50252-2022")</f>
         <v/>
       </c>
       <c r="X85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 50252-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 50252-2022.docx", "A 50252-2022")</f>
         <v/>
       </c>
       <c r="Y85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 50252-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 50252-2022.docx", "A 50252-2022")</f>
         <v/>
       </c>
     </row>
@@ -8378,7 +8379,7 @@
         <v>44869</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8434,27 +8435,27 @@
         </is>
       </c>
       <c r="S86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 51477-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 51477-2022.xlsx", "A 51477-2022")</f>
         <v/>
       </c>
       <c r="T86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 51477-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 51477-2022.png", "A 51477-2022")</f>
         <v/>
       </c>
       <c r="V86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 51477-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 51477-2022.docx", "A 51477-2022")</f>
         <v/>
       </c>
       <c r="W86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 51477-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 51477-2022.docx", "A 51477-2022")</f>
         <v/>
       </c>
       <c r="X86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 51477-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 51477-2022.docx", "A 51477-2022")</f>
         <v/>
       </c>
       <c r="Y86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 51477-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 51477-2022.docx", "A 51477-2022")</f>
         <v/>
       </c>
     </row>
@@ -8468,7 +8469,7 @@
         <v>44881</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8524,27 +8525,27 @@
         </is>
       </c>
       <c r="S87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 55062-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 55062-2022.xlsx", "A 55062-2022")</f>
         <v/>
       </c>
       <c r="T87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 55062-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 55062-2022.png", "A 55062-2022")</f>
         <v/>
       </c>
       <c r="V87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 55062-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 55062-2022.docx", "A 55062-2022")</f>
         <v/>
       </c>
       <c r="W87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 55062-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 55062-2022.docx", "A 55062-2022")</f>
         <v/>
       </c>
       <c r="X87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 55062-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 55062-2022.docx", "A 55062-2022")</f>
         <v/>
       </c>
       <c r="Y87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 55062-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 55062-2022.docx", "A 55062-2022")</f>
         <v/>
       </c>
     </row>
@@ -8558,7 +8559,7 @@
         <v>44889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8614,27 +8615,27 @@
         </is>
       </c>
       <c r="S88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 56078-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 56078-2022.xlsx", "A 56078-2022")</f>
         <v/>
       </c>
       <c r="T88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 56078-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 56078-2022.png", "A 56078-2022")</f>
         <v/>
       </c>
       <c r="V88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 56078-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 56078-2022.docx", "A 56078-2022")</f>
         <v/>
       </c>
       <c r="W88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 56078-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 56078-2022.docx", "A 56078-2022")</f>
         <v/>
       </c>
       <c r="X88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 56078-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 56078-2022.docx", "A 56078-2022")</f>
         <v/>
       </c>
       <c r="Y88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 56078-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 56078-2022.docx", "A 56078-2022")</f>
         <v/>
       </c>
     </row>
@@ -8648,7 +8649,7 @@
         <v>44917</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8699,27 +8700,27 @@
         </is>
       </c>
       <c r="S89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 62665-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 62665-2022.xlsx", "A 62665-2022")</f>
         <v/>
       </c>
       <c r="T89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 62665-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 62665-2022.png", "A 62665-2022")</f>
         <v/>
       </c>
       <c r="V89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 62665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 62665-2022.docx", "A 62665-2022")</f>
         <v/>
       </c>
       <c r="W89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 62665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 62665-2022.docx", "A 62665-2022")</f>
         <v/>
       </c>
       <c r="X89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 62665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 62665-2022.docx", "A 62665-2022")</f>
         <v/>
       </c>
       <c r="Y89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 62665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 62665-2022.docx", "A 62665-2022")</f>
         <v/>
       </c>
     </row>
@@ -8733,7 +8734,7 @@
         <v>45107</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8789,27 +8790,27 @@
         </is>
       </c>
       <c r="S90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 29745-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 29745-2023.xlsx", "A 29745-2023")</f>
         <v/>
       </c>
       <c r="T90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 29745-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 29745-2023.png", "A 29745-2023")</f>
         <v/>
       </c>
       <c r="V90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 29745-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 29745-2023.docx", "A 29745-2023")</f>
         <v/>
       </c>
       <c r="W90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 29745-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 29745-2023.docx", "A 29745-2023")</f>
         <v/>
       </c>
       <c r="X90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 29745-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 29745-2023.docx", "A 29745-2023")</f>
         <v/>
       </c>
       <c r="Y90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 29745-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 29745-2023.docx", "A 29745-2023")</f>
         <v/>
       </c>
     </row>
@@ -8823,7 +8824,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8874,27 +8875,27 @@
         </is>
       </c>
       <c r="S91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 33553-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 33553-2023.xlsx", "A 33553-2023")</f>
         <v/>
       </c>
       <c r="T91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 33553-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 33553-2023.png", "A 33553-2023")</f>
         <v/>
       </c>
       <c r="V91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 33553-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 33553-2023.docx", "A 33553-2023")</f>
         <v/>
       </c>
       <c r="W91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 33553-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 33553-2023.docx", "A 33553-2023")</f>
         <v/>
       </c>
       <c r="X91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 33553-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 33553-2023.docx", "A 33553-2023")</f>
         <v/>
       </c>
       <c r="Y91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 33553-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 33553-2023.docx", "A 33553-2023")</f>
         <v/>
       </c>
     </row>
@@ -8908,7 +8909,7 @@
         <v>43339</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8965,7 +8966,7 @@
         <v>43339</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9022,7 +9023,7 @@
         <v>43341</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9079,7 +9080,7 @@
         <v>43341</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9136,7 +9137,7 @@
         <v>43355</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9198,7 +9199,7 @@
         <v>43355</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9260,7 +9261,7 @@
         <v>43355</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9317,7 +9318,7 @@
         <v>43355</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9379,7 +9380,7 @@
         <v>43382</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9436,7 +9437,7 @@
         <v>43388</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9493,7 +9494,7 @@
         <v>43391</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9550,7 +9551,7 @@
         <v>43410</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9607,7 +9608,7 @@
         <v>43412</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9664,7 +9665,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9721,7 +9722,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9778,7 +9779,7 @@
         <v>43412</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9835,7 +9836,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9897,7 +9898,7 @@
         <v>43413</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9954,7 +9955,7 @@
         <v>43417</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10016,7 +10017,7 @@
         <v>43419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10073,7 +10074,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10135,7 +10136,7 @@
         <v>43423</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10192,7 +10193,7 @@
         <v>43425</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10249,7 +10250,7 @@
         <v>43425</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10306,7 +10307,7 @@
         <v>43425</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10363,7 +10364,7 @@
         <v>43426</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10420,7 +10421,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10482,7 +10483,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10544,7 +10545,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10606,7 +10607,7 @@
         <v>43434</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10668,7 +10669,7 @@
         <v>43436</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10730,7 +10731,7 @@
         <v>43436</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10792,7 +10793,7 @@
         <v>43436</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10854,7 +10855,7 @@
         <v>43437</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10911,7 +10912,7 @@
         <v>43444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10968,7 +10969,7 @@
         <v>43444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11025,7 +11026,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11082,7 +11083,7 @@
         <v>43454</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11139,7 +11140,7 @@
         <v>43455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11196,7 +11197,7 @@
         <v>43461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11253,7 +11254,7 @@
         <v>43461</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11310,7 +11311,7 @@
         <v>43461</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11367,7 +11368,7 @@
         <v>43462</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11424,7 +11425,7 @@
         <v>43475</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11481,7 +11482,7 @@
         <v>43475</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11538,7 +11539,7 @@
         <v>43483</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11600,7 +11601,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11657,7 +11658,7 @@
         <v>43490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11714,7 +11715,7 @@
         <v>43490</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11771,7 +11772,7 @@
         <v>43497</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11828,7 +11829,7 @@
         <v>43497</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11885,7 +11886,7 @@
         <v>43497</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11942,7 +11943,7 @@
         <v>43504</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11999,7 +12000,7 @@
         <v>43522</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12056,7 +12057,7 @@
         <v>43545</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12113,7 +12114,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12170,7 +12171,7 @@
         <v>43546</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12227,7 +12228,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12284,7 +12285,7 @@
         <v>43550</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12341,7 +12342,7 @@
         <v>43552</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12403,7 +12404,7 @@
         <v>43556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12460,7 +12461,7 @@
         <v>43556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12517,7 +12518,7 @@
         <v>43570</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12574,7 +12575,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12636,7 +12637,7 @@
         <v>43578</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12693,7 +12694,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12750,7 +12751,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12807,7 +12808,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12864,7 +12865,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12921,7 +12922,7 @@
         <v>43596</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12978,7 +12979,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13035,7 +13036,7 @@
         <v>43602</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13097,7 +13098,7 @@
         <v>43609</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13154,7 +13155,7 @@
         <v>43609</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13211,7 +13212,7 @@
         <v>43609</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13273,7 +13274,7 @@
         <v>43609</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13330,7 +13331,7 @@
         <v>43613</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13387,7 +13388,7 @@
         <v>43619</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13449,7 +13450,7 @@
         <v>43624</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13506,7 +13507,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13563,7 +13564,7 @@
         <v>43626</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13620,7 +13621,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13677,7 +13678,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13734,7 +13735,7 @@
         <v>43635</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13791,7 +13792,7 @@
         <v>43644</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13848,7 +13849,7 @@
         <v>43644</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13905,7 +13906,7 @@
         <v>43654</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13962,7 +13963,7 @@
         <v>43657</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14019,7 +14020,7 @@
         <v>43657</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14076,7 +14077,7 @@
         <v>43661</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14133,7 +14134,7 @@
         <v>43663</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14195,7 +14196,7 @@
         <v>43663</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14257,7 +14258,7 @@
         <v>43663</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14319,7 +14320,7 @@
         <v>43664</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14376,7 +14377,7 @@
         <v>43664</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14438,7 +14439,7 @@
         <v>43664</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14495,7 +14496,7 @@
         <v>43668</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14552,7 +14553,7 @@
         <v>43668</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14609,7 +14610,7 @@
         <v>43682</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14666,7 +14667,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14723,7 +14724,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14785,7 +14786,7 @@
         <v>43683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14847,7 +14848,7 @@
         <v>43683</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14909,7 +14910,7 @@
         <v>43706</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14971,7 +14972,7 @@
         <v>43706</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15028,7 +15029,7 @@
         <v>43714</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15085,7 +15086,7 @@
         <v>43731</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15147,7 +15148,7 @@
         <v>43731</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15209,7 +15210,7 @@
         <v>43735</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15266,7 +15267,7 @@
         <v>43737</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15323,7 +15324,7 @@
         <v>43738</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15380,7 +15381,7 @@
         <v>43740</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15442,7 +15443,7 @@
         <v>43741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15504,7 +15505,7 @@
         <v>43742</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15566,7 +15567,7 @@
         <v>43745</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15623,7 +15624,7 @@
         <v>43760</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15685,7 +15686,7 @@
         <v>43776</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15747,7 +15748,7 @@
         <v>43777</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15809,7 +15810,7 @@
         <v>43777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15866,7 +15867,7 @@
         <v>43777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15923,7 +15924,7 @@
         <v>43777</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15980,7 +15981,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16037,7 +16038,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16099,7 +16100,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16161,7 +16162,7 @@
         <v>43783</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16223,7 +16224,7 @@
         <v>43783</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16285,7 +16286,7 @@
         <v>43789</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16342,7 +16343,7 @@
         <v>43789</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16399,7 +16400,7 @@
         <v>43791</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16456,7 +16457,7 @@
         <v>43792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16513,7 +16514,7 @@
         <v>43794</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16570,7 +16571,7 @@
         <v>43794</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16627,7 +16628,7 @@
         <v>43795</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16689,7 +16690,7 @@
         <v>43805</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16746,7 +16747,7 @@
         <v>43820</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16803,7 +16804,7 @@
         <v>43822</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16860,7 +16861,7 @@
         <v>43845</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16917,7 +16918,7 @@
         <v>43852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16974,7 +16975,7 @@
         <v>43854</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17031,7 +17032,7 @@
         <v>43866</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17088,7 +17089,7 @@
         <v>43866</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17145,7 +17146,7 @@
         <v>43878</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17202,7 +17203,7 @@
         <v>43878</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17259,7 +17260,7 @@
         <v>43882</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17316,7 +17317,7 @@
         <v>43897</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17373,7 +17374,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17435,7 +17436,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17497,7 +17498,7 @@
         <v>43921</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17554,7 +17555,7 @@
         <v>43922</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17616,7 +17617,7 @@
         <v>43922</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17678,7 +17679,7 @@
         <v>43922</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17740,7 +17741,7 @@
         <v>43922</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17802,7 +17803,7 @@
         <v>43923</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17859,7 +17860,7 @@
         <v>43928</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17921,7 +17922,7 @@
         <v>43937</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17983,7 +17984,7 @@
         <v>43944</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18040,7 +18041,7 @@
         <v>43944</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18097,7 +18098,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18154,7 +18155,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18211,7 +18212,7 @@
         <v>43955</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18268,7 +18269,7 @@
         <v>43955</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18325,7 +18326,7 @@
         <v>43969</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18387,7 +18388,7 @@
         <v>43985</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18444,7 +18445,7 @@
         <v>43990</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18501,7 +18502,7 @@
         <v>43990</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18558,7 +18559,7 @@
         <v>43991</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18620,7 +18621,7 @@
         <v>43991</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18682,7 +18683,7 @@
         <v>43991</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18744,7 +18745,7 @@
         <v>44005</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18806,7 +18807,7 @@
         <v>44005</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18868,7 +18869,7 @@
         <v>44015</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18930,7 +18931,7 @@
         <v>44015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18992,7 +18993,7 @@
         <v>44015</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19054,7 +19055,7 @@
         <v>44027</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19111,7 +19112,7 @@
         <v>44047</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19168,7 +19169,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19225,7 +19226,7 @@
         <v>44056</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19287,7 +19288,7 @@
         <v>44063</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19344,7 +19345,7 @@
         <v>44074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19401,7 +19402,7 @@
         <v>44074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19458,7 +19459,7 @@
         <v>44078</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19515,7 +19516,7 @@
         <v>44096</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19577,7 +19578,7 @@
         <v>44096</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19639,7 +19640,7 @@
         <v>44106</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19696,7 +19697,7 @@
         <v>44106</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19753,7 +19754,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19815,7 +19816,7 @@
         <v>44109</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19877,7 +19878,7 @@
         <v>44113</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19934,7 +19935,7 @@
         <v>44125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19996,7 +19997,7 @@
         <v>44126</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20053,7 +20054,7 @@
         <v>44140</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20110,7 +20111,7 @@
         <v>44145</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20172,7 +20173,7 @@
         <v>44145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20234,7 +20235,7 @@
         <v>44146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20296,7 +20297,7 @@
         <v>44146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20358,7 +20359,7 @@
         <v>44153</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20420,7 +20421,7 @@
         <v>44165</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20482,7 +20483,7 @@
         <v>44179</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20539,7 +20540,7 @@
         <v>44198</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20601,7 +20602,7 @@
         <v>44200</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20663,7 +20664,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20725,7 +20726,7 @@
         <v>44201</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20787,7 +20788,7 @@
         <v>44201</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20849,7 +20850,7 @@
         <v>44201</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20911,7 +20912,7 @@
         <v>44201</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20973,7 +20974,7 @@
         <v>44201</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21035,7 +21036,7 @@
         <v>44201</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21097,7 +21098,7 @@
         <v>44210</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21159,7 +21160,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21221,7 +21222,7 @@
         <v>44210</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21283,7 +21284,7 @@
         <v>44214</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21345,7 +21346,7 @@
         <v>44215</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21407,7 +21408,7 @@
         <v>44222</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21464,7 +21465,7 @@
         <v>44224</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21521,7 +21522,7 @@
         <v>44229</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21583,7 +21584,7 @@
         <v>44230</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21645,7 +21646,7 @@
         <v>44230</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21707,7 +21708,7 @@
         <v>44238</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21764,7 +21765,7 @@
         <v>44238</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21821,7 +21822,7 @@
         <v>44260</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21883,7 +21884,7 @@
         <v>44279</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21940,7 +21941,7 @@
         <v>44281</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21997,7 +21998,7 @@
         <v>44284</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22054,7 +22055,7 @@
         <v>44286</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22116,7 +22117,7 @@
         <v>44287</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22178,7 +22179,7 @@
         <v>44292</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22235,7 +22236,7 @@
         <v>44308</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22297,7 +22298,7 @@
         <v>44309</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22354,7 +22355,7 @@
         <v>44309</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22411,7 +22412,7 @@
         <v>44309</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22468,7 +22469,7 @@
         <v>44309</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22525,7 +22526,7 @@
         <v>44309</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22582,7 +22583,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22639,7 +22640,7 @@
         <v>44309</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22696,7 +22697,7 @@
         <v>44314</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22753,7 +22754,7 @@
         <v>44314</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22810,7 +22811,7 @@
         <v>44326</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22872,7 +22873,7 @@
         <v>44327</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22929,7 +22930,7 @@
         <v>44344</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22986,7 +22987,7 @@
         <v>44347</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23048,7 +23049,7 @@
         <v>44349</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23110,7 +23111,7 @@
         <v>44357</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23167,7 +23168,7 @@
         <v>44363</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23229,7 +23230,7 @@
         <v>44363</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23291,7 +23292,7 @@
         <v>44363</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23353,7 +23354,7 @@
         <v>44364</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23410,7 +23411,7 @@
         <v>44365</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23467,7 +23468,7 @@
         <v>44365</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23529,7 +23530,7 @@
         <v>44371</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23591,7 +23592,7 @@
         <v>44378</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23653,7 +23654,7 @@
         <v>44378</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23715,7 +23716,7 @@
         <v>44391</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23777,7 +23778,7 @@
         <v>44392</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23834,7 +23835,7 @@
         <v>44393</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23896,7 +23897,7 @@
         <v>44393</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23958,7 +23959,7 @@
         <v>44393</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24020,7 +24021,7 @@
         <v>44393</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24082,7 +24083,7 @@
         <v>44399</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24139,7 +24140,7 @@
         <v>44411</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24201,7 +24202,7 @@
         <v>44411</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24258,7 +24259,7 @@
         <v>44412</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24320,7 +24321,7 @@
         <v>44413</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24377,7 +24378,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24439,7 +24440,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24501,7 +24502,7 @@
         <v>44413</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24563,7 +24564,7 @@
         <v>44419</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24625,7 +24626,7 @@
         <v>44421</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24687,7 +24688,7 @@
         <v>44421</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24744,7 +24745,7 @@
         <v>44435</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24806,7 +24807,7 @@
         <v>44435</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24868,7 +24869,7 @@
         <v>44452</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24930,7 +24931,7 @@
         <v>44456</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24992,7 +24993,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25054,7 +25055,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25116,7 +25117,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25173,7 +25174,7 @@
         <v>44467</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25235,7 +25236,7 @@
         <v>44467</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25297,7 +25298,7 @@
         <v>44471</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25354,7 +25355,7 @@
         <v>44473</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25416,7 +25417,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25473,7 +25474,7 @@
         <v>44477</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25535,7 +25536,7 @@
         <v>44481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25597,7 +25598,7 @@
         <v>44481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25659,7 +25660,7 @@
         <v>44484</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25716,7 +25717,7 @@
         <v>44495</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25773,7 +25774,7 @@
         <v>44498</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25835,7 +25836,7 @@
         <v>44501</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25892,7 +25893,7 @@
         <v>44505</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25954,7 +25955,7 @@
         <v>44508</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26016,7 +26017,7 @@
         <v>44519</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26078,7 +26079,7 @@
         <v>44526</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26140,7 +26141,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26202,7 +26203,7 @@
         <v>44533</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26259,7 +26260,7 @@
         <v>44536</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26321,7 +26322,7 @@
         <v>44538</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26383,7 +26384,7 @@
         <v>44539</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26440,7 +26441,7 @@
         <v>44543</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26497,7 +26498,7 @@
         <v>44546</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26554,7 +26555,7 @@
         <v>44547</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26616,7 +26617,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26678,7 +26679,7 @@
         <v>44558</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26735,7 +26736,7 @@
         <v>44558</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26792,7 +26793,7 @@
         <v>44568</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26849,7 +26850,7 @@
         <v>44599</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26911,7 +26912,7 @@
         <v>44600</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26973,7 +26974,7 @@
         <v>44607</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27030,7 +27031,7 @@
         <v>44615</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27092,7 +27093,7 @@
         <v>44629</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27149,7 +27150,7 @@
         <v>44636</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27206,7 +27207,7 @@
         <v>44643</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27268,7 +27269,7 @@
         <v>44651</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27325,7 +27326,7 @@
         <v>44651</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27387,7 +27388,7 @@
         <v>44656</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27449,7 +27450,7 @@
         <v>44680</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27511,7 +27512,7 @@
         <v>44686</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27568,7 +27569,7 @@
         <v>44687</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27630,7 +27631,7 @@
         <v>44691</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27692,7 +27693,7 @@
         <v>44697</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27749,7 +27750,7 @@
         <v>44697</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27806,7 +27807,7 @@
         <v>44705</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27863,7 +27864,7 @@
         <v>44705</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27920,7 +27921,7 @@
         <v>44706</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27982,7 +27983,7 @@
         <v>44711</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28044,7 +28045,7 @@
         <v>44755</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28101,7 +28102,7 @@
         <v>44755</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28163,7 +28164,7 @@
         <v>44755</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28220,7 +28221,7 @@
         <v>44755</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28277,7 +28278,7 @@
         <v>44755</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28339,7 +28340,7 @@
         <v>44756</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28401,7 +28402,7 @@
         <v>44782</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28463,7 +28464,7 @@
         <v>44782</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28525,7 +28526,7 @@
         <v>44782</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28587,7 +28588,7 @@
         <v>44782</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28649,7 +28650,7 @@
         <v>44784</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28711,7 +28712,7 @@
         <v>44788</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28773,7 +28774,7 @@
         <v>44803</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28830,7 +28831,7 @@
         <v>44804</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28887,7 +28888,7 @@
         <v>44809</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28949,7 +28950,7 @@
         <v>44816</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29011,7 +29012,7 @@
         <v>44824</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29073,7 +29074,7 @@
         <v>44824</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29135,7 +29136,7 @@
         <v>44824</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29197,7 +29198,7 @@
         <v>44829</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29254,7 +29255,7 @@
         <v>44829</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29311,7 +29312,7 @@
         <v>44837</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29373,7 +29374,7 @@
         <v>44837</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29435,7 +29436,7 @@
         <v>44844</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29492,7 +29493,7 @@
         <v>44844</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29549,7 +29550,7 @@
         <v>44844</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29611,7 +29612,7 @@
         <v>44846</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29668,7 +29669,7 @@
         <v>44846</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29725,7 +29726,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29782,7 +29783,7 @@
         <v>44859</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29844,7 +29845,7 @@
         <v>44865</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29906,7 +29907,7 @@
         <v>44866</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29968,7 +29969,7 @@
         <v>44867</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30025,7 +30026,7 @@
         <v>44868</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30087,7 +30088,7 @@
         <v>44868</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30149,7 +30150,7 @@
         <v>44869</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30211,7 +30212,7 @@
         <v>44869</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30273,7 +30274,7 @@
         <v>44869</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30335,7 +30336,7 @@
         <v>44873</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30397,7 +30398,7 @@
         <v>44874</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30454,7 +30455,7 @@
         <v>44874</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30511,7 +30512,7 @@
         <v>44875</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30573,7 +30574,7 @@
         <v>44894</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30630,7 +30631,7 @@
         <v>44896</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30692,7 +30693,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30754,7 +30755,7 @@
         <v>44904</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30811,7 +30812,7 @@
         <v>44904</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30868,7 +30869,7 @@
         <v>44904</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30925,7 +30926,7 @@
         <v>44910</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30982,7 +30983,7 @@
         <v>44910</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31039,7 +31040,7 @@
         <v>44911</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31101,7 +31102,7 @@
         <v>44911</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31158,7 +31159,7 @@
         <v>44915</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31220,7 +31221,7 @@
         <v>44916</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31277,7 +31278,7 @@
         <v>44916</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31334,7 +31335,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31396,7 +31397,7 @@
         <v>44923</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31453,7 +31454,7 @@
         <v>44923</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31510,7 +31511,7 @@
         <v>44924</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31572,7 +31573,7 @@
         <v>44937</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31634,7 +31635,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31691,7 +31692,7 @@
         <v>44942</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31748,7 +31749,7 @@
         <v>44942</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31805,7 +31806,7 @@
         <v>44960</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31867,7 +31868,7 @@
         <v>44964</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31924,7 +31925,7 @@
         <v>44978</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31981,7 +31982,7 @@
         <v>44978</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32038,7 +32039,7 @@
         <v>45002</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32095,7 +32096,7 @@
         <v>45015</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32152,7 +32153,7 @@
         <v>45034</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32209,7 +32210,7 @@
         <v>45048</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32266,7 +32267,7 @@
         <v>45057</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32323,7 +32324,7 @@
         <v>45072</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32385,7 +32386,7 @@
         <v>45075</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32442,7 +32443,7 @@
         <v>45076</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32499,7 +32500,7 @@
         <v>45077</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32556,7 +32557,7 @@
         <v>45078</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32618,7 +32619,7 @@
         <v>45082</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32680,7 +32681,7 @@
         <v>45084</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32737,7 +32738,7 @@
         <v>45084</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32794,7 +32795,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32851,7 +32852,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32908,7 +32909,7 @@
         <v>45086</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32970,7 +32971,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33032,7 +33033,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33094,7 +33095,7 @@
         <v>45099</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33151,7 +33152,7 @@
         <v>45103</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33213,7 +33214,7 @@
         <v>45105</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33275,7 +33276,7 @@
         <v>45106</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33332,7 +33333,7 @@
         <v>45106</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33389,7 +33390,7 @@
         <v>45107</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33446,7 +33447,7 @@
         <v>45107</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33503,7 +33504,7 @@
         <v>45112</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33560,7 +33561,7 @@
         <v>45113</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33622,7 +33623,7 @@
         <v>45113</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33684,7 +33685,7 @@
         <v>45113</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33746,7 +33747,7 @@
         <v>45114</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33808,7 +33809,7 @@
         <v>45114</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33865,7 +33866,7 @@
         <v>45114</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33922,7 +33923,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33984,7 +33985,7 @@
         <v>45114</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34041,7 +34042,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34098,7 +34099,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34155,7 +34156,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34212,7 +34213,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34269,7 +34270,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34326,7 +34327,7 @@
         <v>45118</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34383,7 +34384,7 @@
         <v>45119</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34445,7 +34446,7 @@
         <v>45120</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34507,7 +34508,7 @@
         <v>45121</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34569,7 +34570,7 @@
         <v>45124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34626,7 +34627,7 @@
         <v>45126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34683,7 +34684,7 @@
         <v>45131</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34745,7 +34746,7 @@
         <v>45134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34802,7 +34803,7 @@
         <v>45134</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34859,7 +34860,7 @@
         <v>45139</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34916,7 +34917,7 @@
         <v>45140</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34978,7 +34979,7 @@
         <v>45141</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35035,7 +35036,7 @@
         <v>45145</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35097,7 +35098,7 @@
         <v>45145</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35154,7 +35155,7 @@
         <v>45145</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35216,7 +35217,7 @@
         <v>45159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35278,7 +35279,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35335,7 +35336,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35387,7 +35388,7 @@
       </c>
       <c r="R538" s="2" t="inlineStr"/>
     </row>
-    <row r="539">
+    <row r="539" ht="15" customHeight="1">
       <c r="A539" t="inlineStr">
         <is>
           <t>A 42874-2023</t>
@@ -35397,7 +35398,7 @@
         <v>45182</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35448,6 +35449,63 @@
         <v>0</v>
       </c>
       <c r="R539" s="2" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>A 43473-2023</t>
+        </is>
+      </c>
+      <c r="B540" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C540" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>ÄLVDALEN</t>
+        </is>
+      </c>
+      <c r="G540" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0</v>
+      </c>
+      <c r="J540" t="n">
+        <v>0</v>
+      </c>
+      <c r="K540" t="n">
+        <v>0</v>
+      </c>
+      <c r="L540" t="n">
+        <v>0</v>
+      </c>
+      <c r="M540" t="n">
+        <v>0</v>
+      </c>
+      <c r="N540" t="n">
+        <v>0</v>
+      </c>
+      <c r="O540" t="n">
+        <v>0</v>
+      </c>
+      <c r="P540" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q540" t="n">
+        <v>0</v>
+      </c>
+      <c r="R540" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>43999</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44532</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>45118</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43627</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>44113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         <v>44406</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44848</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44939</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>44519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>45104</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>44673</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44879</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44853</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>44378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44473</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>44817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44935</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43641</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>44943</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45105</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>43713</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44413</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>44482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>44824</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>44830</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>45105</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43703</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>44377</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44461</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>44470</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44516</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>44830</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>44830</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         <v>43362</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43707</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44365</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>44435</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44525</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>44706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>44874</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>45068</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>45089</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45145</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>45159</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43406</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>43437</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>43587</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43928</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         <v>43937</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44029</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44061</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>44092</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44145</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         <v>44260</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>44284</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>44340</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44349</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44370</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44488</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44516</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>44532</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>44818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44837</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44865</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>44869</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>44881</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>44889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44917</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45107</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>45118</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43339</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43339</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43341</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43341</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43355</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>43355</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43355</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43355</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>43382</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
         <v>43388</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         <v>43391</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43410</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43412</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43412</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43412</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43412</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43413</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43413</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>43417</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10017,7 +10017,7 @@
         <v>43419</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>43419</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>43423</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>43425</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>43425</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>43425</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43426</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43432</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43434</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43436</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>43436</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43436</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43437</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>43444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43448</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>43454</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11140,7 +11140,7 @@
         <v>43455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>43461</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>43461</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>43461</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>43462</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>43475</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>43475</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>43483</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         <v>43486</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>43490</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         <v>43490</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43497</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43497</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43497</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43504</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>43522</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43545</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>43546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>43546</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>43549</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>43550</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>43552</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43570</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43578</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43596</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43602</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43609</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         <v>43609</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43609</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43609</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43613</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43619</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>43624</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>43626</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43626</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43635</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43644</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43644</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>43654</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>43657</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>43657</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>43661</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>43663</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43663</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>43663</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>43664</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>43664</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43664</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43668</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43668</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43682</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43683</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43683</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>43683</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>43683</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>43706</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>43706</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>43714</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>43731</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>43731</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43735</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>43737</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>43738</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>43740</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>43741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>43742</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>43745</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>43760</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>43776</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43777</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43777</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43777</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>43777</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>43780</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>43783</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>43783</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43783</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16224,7 +16224,7 @@
         <v>43783</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>43789</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>43789</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>43791</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>43792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>43794</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>43794</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43795</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43805</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>43820</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>43822</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>43845</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>43852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>43854</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>43866</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>43866</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>43878</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>43878</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>43882</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
         <v>43897</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>43914</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>43917</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17498,7 +17498,7 @@
         <v>43921</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>43922</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>43922</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>43922</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>43922</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>43923</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>43928</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>43937</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>43944</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>43944</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>43951</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>43951</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>43955</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>43955</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43969</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>43985</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>43990</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>43990</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>43991</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>43991</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43991</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44005</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>44005</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44015</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44015</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>44015</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44027</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44047</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44053</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44056</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>44063</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>44074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>44074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>44078</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>44096</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44096</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>44106</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>44106</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>44109</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         <v>44109</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>44113</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19935,7 +19935,7 @@
         <v>44125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>44126</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>44140</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44145</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44145</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44146</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>44146</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44153</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44165</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>44179</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>44198</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44200</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>44200</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>44201</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>44201</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>44201</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>44201</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>44201</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>44201</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44210</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44210</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44210</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>44214</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44215</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44222</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>44224</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>44229</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21584,7 +21584,7 @@
         <v>44230</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>44230</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44238</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44238</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44260</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44279</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44281</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44284</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44286</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44287</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>44292</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>44308</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44309</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44309</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44309</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44309</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44309</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44309</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44314</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44314</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22811,7 +22811,7 @@
         <v>44326</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
         <v>44327</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>44344</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44347</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44349</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44357</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44363</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44363</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23292,7 +23292,7 @@
         <v>44363</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23354,7 +23354,7 @@
         <v>44364</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23411,7 +23411,7 @@
         <v>44365</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44365</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23530,7 +23530,7 @@
         <v>44371</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>44378</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44378</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44391</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>44392</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44393</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>44393</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23959,7 +23959,7 @@
         <v>44393</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>44393</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24083,7 +24083,7 @@
         <v>44399</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>44411</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44411</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44412</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44413</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>44413</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         <v>44413</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44413</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44419</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>44421</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>44421</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>44435</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24807,7 +24807,7 @@
         <v>44435</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44452</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>44456</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24993,7 +24993,7 @@
         <v>44459</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>44459</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44459</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44467</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44467</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44471</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44473</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25417,7 +25417,7 @@
         <v>44476</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25474,7 +25474,7 @@
         <v>44477</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>44481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         <v>44484</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>44495</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>44498</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
         <v>44501</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         <v>44505</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         <v>44508</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>44519</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26079,7 +26079,7 @@
         <v>44526</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26203,7 +26203,7 @@
         <v>44533</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         <v>44536</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26322,7 +26322,7 @@
         <v>44538</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>44539</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44543</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44546</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>44547</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26617,7 +26617,7 @@
         <v>44552</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44558</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44558</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44568</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>44599</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>44600</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>44607</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27031,7 +27031,7 @@
         <v>44615</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27093,7 +27093,7 @@
         <v>44629</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44636</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44643</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>44651</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27326,7 +27326,7 @@
         <v>44651</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27388,7 +27388,7 @@
         <v>44656</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>44680</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44686</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44687</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>44691</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>44697</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>44697</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27807,7 +27807,7 @@
         <v>44705</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27864,7 +27864,7 @@
         <v>44705</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27921,7 +27921,7 @@
         <v>44706</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>44711</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44755</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>44755</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>44755</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>44755</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44755</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>44756</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>44782</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>44782</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28526,7 +28526,7 @@
         <v>44782</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>44782</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44784</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44788</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44803</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44804</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44809</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44816</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44824</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>44824</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44824</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44829</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>44829</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>44837</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29374,7 +29374,7 @@
         <v>44837</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29436,7 +29436,7 @@
         <v>44844</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         <v>44844</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29550,7 +29550,7 @@
         <v>44844</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29612,7 +29612,7 @@
         <v>44846</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>44846</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>44855</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>44859</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>44865</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29907,7 +29907,7 @@
         <v>44866</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29969,7 +29969,7 @@
         <v>44867</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30026,7 +30026,7 @@
         <v>44868</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44868</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30150,7 +30150,7 @@
         <v>44869</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30212,7 +30212,7 @@
         <v>44869</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30274,7 +30274,7 @@
         <v>44869</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>44873</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30398,7 +30398,7 @@
         <v>44874</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>44874</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>44875</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30574,7 +30574,7 @@
         <v>44894</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30631,7 +30631,7 @@
         <v>44896</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30693,7 +30693,7 @@
         <v>44902</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30755,7 +30755,7 @@
         <v>44904</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30812,7 +30812,7 @@
         <v>44904</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30869,7 +30869,7 @@
         <v>44904</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30926,7 +30926,7 @@
         <v>44910</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30983,7 +30983,7 @@
         <v>44910</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31040,7 +31040,7 @@
         <v>44911</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31102,7 +31102,7 @@
         <v>44911</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31159,7 +31159,7 @@
         <v>44915</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44916</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44916</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44917</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31397,7 +31397,7 @@
         <v>44923</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31454,7 +31454,7 @@
         <v>44923</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31511,7 +31511,7 @@
         <v>44924</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31573,7 +31573,7 @@
         <v>44937</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>44938</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44942</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31749,7 +31749,7 @@
         <v>44942</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31806,7 +31806,7 @@
         <v>44960</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31868,7 +31868,7 @@
         <v>44964</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31925,7 +31925,7 @@
         <v>44978</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31982,7 +31982,7 @@
         <v>44978</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32039,7 +32039,7 @@
         <v>45002</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32096,7 +32096,7 @@
         <v>45015</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32153,7 +32153,7 @@
         <v>45034</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32210,7 +32210,7 @@
         <v>45048</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>45057</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>45072</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         <v>45075</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>45076</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32500,7 +32500,7 @@
         <v>45077</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>45078</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32619,7 +32619,7 @@
         <v>45082</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32681,7 +32681,7 @@
         <v>45084</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32738,7 +32738,7 @@
         <v>45084</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32795,7 +32795,7 @@
         <v>45085</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
         <v>45085</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32909,7 +32909,7 @@
         <v>45086</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>45097</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33033,7 +33033,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>45099</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>45103</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33214,7 +33214,7 @@
         <v>45105</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>45106</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33333,7 +33333,7 @@
         <v>45106</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33390,7 +33390,7 @@
         <v>45107</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33447,7 +33447,7 @@
         <v>45107</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         <v>45112</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33561,7 +33561,7 @@
         <v>45113</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>45113</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33685,7 +33685,7 @@
         <v>45113</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33747,7 +33747,7 @@
         <v>45114</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33809,7 +33809,7 @@
         <v>45114</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33866,7 +33866,7 @@
         <v>45114</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>45114</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>45114</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34042,7 +34042,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34099,7 +34099,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34156,7 +34156,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34213,7 +34213,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34270,7 +34270,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34327,7 +34327,7 @@
         <v>45118</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34384,7 +34384,7 @@
         <v>45119</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34446,7 +34446,7 @@
         <v>45120</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34508,7 +34508,7 @@
         <v>45121</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34570,7 +34570,7 @@
         <v>45124</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34627,7 +34627,7 @@
         <v>45126</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34684,7 +34684,7 @@
         <v>45131</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34746,7 +34746,7 @@
         <v>45134</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
         <v>45134</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34860,7 +34860,7 @@
         <v>45139</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34917,7 +34917,7 @@
         <v>45140</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34979,7 +34979,7 @@
         <v>45141</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         <v>45145</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35098,7 +35098,7 @@
         <v>45145</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         <v>45145</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>45159</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35279,7 +35279,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35336,7 +35336,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35398,7 +35398,7 @@
         <v>45182</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35460,7 +35460,7 @@
         <v>45184</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>44532</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43627</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>44113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>44406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>44848</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         <v>44939</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45104</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>44673</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44879</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>44853</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>44472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44473</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>44935</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43641</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>44943</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45105</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>45119</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43713</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3976,7 +3976,7 @@
         <v>44482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>44830</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>45182</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43703</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>44377</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>44461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44470</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         <v>44516</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>44830</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>44830</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         <v>44830</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         <v>43707</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>44365</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44435</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>44473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>44525</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>44706</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         <v>44865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>44874</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>45068</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>45089</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>45145</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45145</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45159</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>43406</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43437</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43587</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43928</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43937</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>44029</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>44092</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         <v>44145</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44260</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44284</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>44340</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>44349</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44370</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>44379</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>44488</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44516</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
         <v>44532</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44818</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44837</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>44865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>44865</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>44869</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44881</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>44889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>44917</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>45107</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>45145</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>43339</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43339</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>43341</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>43355</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43355</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>43382</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>43388</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>43391</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>43410</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>43412</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>43412</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10191,7 +10191,7 @@
         <v>43412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>43412</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>43413</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43413</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43417</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>43419</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>43419</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43425</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43425</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43426</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43427</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>43427</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>43432</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43436</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>43436</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>43437</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>43448</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43461</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43461</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>43461</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>43462</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>43483</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>43490</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>43490</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>43497</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>43497</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43497</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43504</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>43522</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>43545</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43546</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>43546</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>43549</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>43550</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>43552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12873,7 +12873,7 @@
         <v>43556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43556</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>43570</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43570</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43578</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43578</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43581</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>43584</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>43596</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>43601</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>43602</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>43609</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>43609</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>43609</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43609</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43613</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43619</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43626</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43626</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43626</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43628</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43635</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>43644</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43654</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43657</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43657</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43663</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43663</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>43664</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>43664</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>43664</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>43668</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43683</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43683</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>43683</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>43683</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>43706</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>43706</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>43714</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43731</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>43737</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>43740</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>43742</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>43760</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>43780</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>43783</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>43783</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>43783</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>43783</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43789</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43789</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43791</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43792</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43794</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43794</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43795</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>43805</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>43820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>43822</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>43845</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>43852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>43854</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>43866</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>43878</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>43878</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>43882</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>43897</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>43917</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>43922</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>43923</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>43928</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>43937</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>43944</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18510,7 +18510,7 @@
         <v>43944</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18567,7 +18567,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>43951</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>43955</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>43955</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18795,7 +18795,7 @@
         <v>43969</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>43985</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>43990</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>43990</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>43991</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>43991</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         <v>43991</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>44005</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44005</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44015</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>44015</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44015</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44047</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44053</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>44056</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>44074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>44074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>44078</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>44096</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>44106</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>44113</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>44125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>44126</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44140</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>44145</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>44145</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>44146</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>44146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>44153</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44165</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>44179</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44198</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
         <v>44200</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21133,7 +21133,7 @@
         <v>44200</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>44201</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44201</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44201</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44201</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21443,7 +21443,7 @@
         <v>44201</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44201</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44210</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21629,7 +21629,7 @@
         <v>44210</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         <v>44210</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21753,7 +21753,7 @@
         <v>44214</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44215</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         <v>44222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         <v>44224</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21991,7 +21991,7 @@
         <v>44229</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44230</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44230</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44238</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44238</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44260</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>44279</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44281</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44284</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44286</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44287</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44292</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44308</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22824,7 +22824,7 @@
         <v>44309</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22881,7 +22881,7 @@
         <v>44309</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>44309</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44309</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23052,7 +23052,7 @@
         <v>44309</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23223,7 +23223,7 @@
         <v>44314</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23280,7 +23280,7 @@
         <v>44326</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44327</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44344</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44347</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44349</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23580,7 +23580,7 @@
         <v>44357</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23637,7 +23637,7 @@
         <v>44363</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44363</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23761,7 +23761,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>44364</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44365</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44365</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44371</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44378</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44378</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44392</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>44393</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24366,7 +24366,7 @@
         <v>44393</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>44393</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44393</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44399</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44411</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24671,7 +24671,7 @@
         <v>44411</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44413</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44413</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>44413</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44421</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44435</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44435</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44452</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>44456</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>44459</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         <v>44459</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25643,7 +25643,7 @@
         <v>44467</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44467</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44471</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44473</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>44476</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>44477</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>44481</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26067,7 +26067,7 @@
         <v>44481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26129,7 +26129,7 @@
         <v>44484</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>44495</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>44498</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>44501</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44505</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44508</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44526</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44529</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44533</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>44536</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>44538</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
         <v>44539</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26910,7 +26910,7 @@
         <v>44543</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>44546</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27024,7 +27024,7 @@
         <v>44547</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>44552</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44558</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44558</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44568</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>44599</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44600</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>44607</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>44615</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27562,7 +27562,7 @@
         <v>44629</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27619,7 +27619,7 @@
         <v>44636</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27676,7 +27676,7 @@
         <v>44643</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>44651</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>44651</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44656</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>44680</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         <v>44686</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28038,7 +28038,7 @@
         <v>44687</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>44691</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>44697</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>44697</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>44705</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>44705</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>44706</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44711</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>44755</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>44755</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28633,7 +28633,7 @@
         <v>44755</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28690,7 +28690,7 @@
         <v>44755</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         <v>44755</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>44756</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>44782</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>44782</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28995,7 +28995,7 @@
         <v>44782</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>44782</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29119,7 +29119,7 @@
         <v>44784</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>44788</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>44803</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
         <v>44804</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29357,7 +29357,7 @@
         <v>44809</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>44816</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>44824</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29543,7 +29543,7 @@
         <v>44824</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29605,7 +29605,7 @@
         <v>44824</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>44829</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29724,7 +29724,7 @@
         <v>44829</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         <v>44837</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29843,7 +29843,7 @@
         <v>44837</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44844</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44844</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30019,7 +30019,7 @@
         <v>44844</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44846</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44846</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44855</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44859</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>44865</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>44866</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44867</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44868</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44868</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         <v>44869</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>44869</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30743,7 +30743,7 @@
         <v>44869</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30805,7 +30805,7 @@
         <v>44873</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>44875</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44896</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         <v>44902</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31224,7 +31224,7 @@
         <v>44904</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31281,7 +31281,7 @@
         <v>44904</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31338,7 +31338,7 @@
         <v>44904</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31395,7 +31395,7 @@
         <v>44910</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31452,7 +31452,7 @@
         <v>44910</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         <v>44911</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31571,7 +31571,7 @@
         <v>44911</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31628,7 +31628,7 @@
         <v>44915</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31690,7 +31690,7 @@
         <v>44916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31747,7 +31747,7 @@
         <v>44916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31804,7 +31804,7 @@
         <v>44917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31866,7 +31866,7 @@
         <v>44923</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31923,7 +31923,7 @@
         <v>44923</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31980,7 +31980,7 @@
         <v>44924</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32042,7 +32042,7 @@
         <v>44937</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32104,7 +32104,7 @@
         <v>44938</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32161,7 +32161,7 @@
         <v>44942</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32218,7 +32218,7 @@
         <v>44942</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32337,7 +32337,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32394,7 +32394,7 @@
         <v>44978</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32451,7 +32451,7 @@
         <v>44978</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32508,7 +32508,7 @@
         <v>45002</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32565,7 +32565,7 @@
         <v>45015</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32622,7 +32622,7 @@
         <v>45034</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32679,7 +32679,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32736,7 +32736,7 @@
         <v>45057</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32793,7 +32793,7 @@
         <v>45072</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32855,7 +32855,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32912,7 +32912,7 @@
         <v>45076</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32969,7 +32969,7 @@
         <v>45077</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         <v>45078</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33088,7 +33088,7 @@
         <v>45082</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33150,7 +33150,7 @@
         <v>45084</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33207,7 +33207,7 @@
         <v>45084</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33264,7 +33264,7 @@
         <v>45085</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33321,7 +33321,7 @@
         <v>45085</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33378,7 +33378,7 @@
         <v>45086</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>45097</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>45097</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33621,7 +33621,7 @@
         <v>45103</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33683,7 +33683,7 @@
         <v>45105</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>45106</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>45106</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>45107</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33916,7 +33916,7 @@
         <v>45107</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33973,7 +33973,7 @@
         <v>45112</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34030,7 +34030,7 @@
         <v>45113</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>45113</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34216,7 +34216,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34278,7 +34278,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34335,7 +34335,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34454,7 +34454,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34511,7 +34511,7 @@
         <v>45114</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>45114</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34625,7 +34625,7 @@
         <v>45114</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34682,7 +34682,7 @@
         <v>45114</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34739,7 +34739,7 @@
         <v>45114</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         <v>45118</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34853,7 +34853,7 @@
         <v>45121</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34915,7 +34915,7 @@
         <v>45124</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34972,7 +34972,7 @@
         <v>45126</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35029,7 +35029,7 @@
         <v>45131</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35091,7 +35091,7 @@
         <v>45134</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>45134</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>45139</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>45140</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45141</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45145</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35557,7 +35557,7 @@
         <v>45159</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>45184</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -843,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -860,7 +860,6 @@
 Blanksvart spiklav
 Blå taggsvamp
 Garnlav
-Motaggsvamp
 Skrovellav
 Skrovlig taggsvamp
 Svartvit taggsvamp
@@ -911,7 +910,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1011,7 +1010,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1111,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1213,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1317,7 +1316,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1419,7 +1418,7 @@
         <v>44532</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1516,7 +1515,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,7 +1612,7 @@
         <v>45119</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1713,7 +1712,7 @@
         <v>43627</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1812,7 +1811,7 @@
         <v>44113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1906,7 +1905,7 @@
         <v>44406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2000,7 +1999,7 @@
         <v>44848</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2099,7 +2098,7 @@
         <v>44939</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2193,7 +2192,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2292,7 +2291,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2390,7 +2389,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2488,7 +2487,7 @@
         <v>45104</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2590,7 +2589,7 @@
         <v>44673</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2687,7 +2686,7 @@
         <v>44879</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2779,7 +2778,7 @@
         <v>44853</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2875,7 +2874,7 @@
         <v>44378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2970,7 +2969,7 @@
         <v>44472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3060,7 +3059,7 @@
         <v>44473</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3150,7 +3149,7 @@
         <v>44817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3240,7 +3239,7 @@
         <v>44935</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3335,7 +3334,7 @@
         <v>43641</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3424,7 +3423,7 @@
         <v>44452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3518,7 +3517,7 @@
         <v>44943</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3607,7 +3606,7 @@
         <v>45105</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3701,7 +3700,7 @@
         <v>45119</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3795,7 +3794,7 @@
         <v>43713</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3883,7 +3882,7 @@
         <v>44413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3976,7 +3975,7 @@
         <v>44482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4069,7 +4068,7 @@
         <v>44824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4162,7 +4161,7 @@
         <v>44830</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4255,7 +4254,7 @@
         <v>45105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4348,7 +4347,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4436,7 +4435,7 @@
         <v>45182</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4529,7 +4528,7 @@
         <v>43703</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4616,7 +4615,7 @@
         <v>44377</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4708,7 +4707,7 @@
         <v>44461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4800,7 +4799,7 @@
         <v>44470</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4892,7 +4891,7 @@
         <v>44516</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4984,7 +4983,7 @@
         <v>44830</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5076,7 +5075,7 @@
         <v>44830</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5168,7 +5167,7 @@
         <v>44830</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5260,7 +5259,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5352,7 +5351,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5444,7 +5443,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5535,7 +5534,7 @@
         <v>43707</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5626,7 +5625,7 @@
         <v>44365</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5717,7 +5716,7 @@
         <v>44435</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5808,7 +5807,7 @@
         <v>44473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5894,7 +5893,7 @@
         <v>44525</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5985,7 +5984,7 @@
         <v>44706</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6076,7 +6075,7 @@
         <v>44865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6167,7 +6166,7 @@
         <v>44874</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6253,7 +6252,7 @@
         <v>45068</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6344,7 +6343,7 @@
         <v>45089</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6435,7 +6434,7 @@
         <v>45145</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6526,7 +6525,7 @@
         <v>45145</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6617,7 +6616,7 @@
         <v>45159</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6708,7 +6707,7 @@
         <v>43406</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6798,7 +6797,7 @@
         <v>43437</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6888,7 +6887,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6973,7 +6972,7 @@
         <v>43587</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7058,7 +7057,7 @@
         <v>43928</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7148,7 +7147,7 @@
         <v>43937</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7238,7 +7237,7 @@
         <v>44029</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7328,7 +7327,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7418,7 +7417,7 @@
         <v>44092</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7508,7 +7507,7 @@
         <v>44145</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7598,7 +7597,7 @@
         <v>44260</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7688,7 +7687,7 @@
         <v>44284</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7773,7 +7772,7 @@
         <v>44340</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7863,7 +7862,7 @@
         <v>44349</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7953,7 +7952,7 @@
         <v>44370</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8043,7 +8042,7 @@
         <v>44379</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8133,7 +8132,7 @@
         <v>44488</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8223,7 +8222,7 @@
         <v>44516</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8313,7 +8312,7 @@
         <v>44532</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8403,7 +8402,7 @@
         <v>44818</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8488,7 +8487,7 @@
         <v>44837</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8578,7 +8577,7 @@
         <v>44865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8668,7 +8667,7 @@
         <v>44865</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8758,7 +8757,7 @@
         <v>44869</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8848,7 +8847,7 @@
         <v>44881</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8938,7 +8937,7 @@
         <v>44889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9028,7 +9027,7 @@
         <v>44917</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9113,7 +9112,7 @@
         <v>45107</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9203,7 +9202,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9288,7 +9287,7 @@
         <v>45145</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9378,7 +9377,7 @@
         <v>43339</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9435,7 +9434,7 @@
         <v>43339</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9492,7 +9491,7 @@
         <v>43341</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9549,7 +9548,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9606,7 +9605,7 @@
         <v>43355</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9668,7 +9667,7 @@
         <v>43355</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9730,7 +9729,7 @@
         <v>43355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9787,7 +9786,7 @@
         <v>43355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9849,7 +9848,7 @@
         <v>43382</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9906,7 +9905,7 @@
         <v>43388</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9963,7 +9962,7 @@
         <v>43391</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10020,7 +10019,7 @@
         <v>43410</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10077,7 +10076,7 @@
         <v>43412</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10134,7 +10133,7 @@
         <v>43412</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10191,7 +10190,7 @@
         <v>43412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10248,7 +10247,7 @@
         <v>43412</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10305,7 +10304,7 @@
         <v>43413</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10367,7 +10366,7 @@
         <v>43413</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10424,7 +10423,7 @@
         <v>43417</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10486,7 +10485,7 @@
         <v>43419</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10543,7 +10542,7 @@
         <v>43419</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10605,7 +10604,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10662,7 +10661,7 @@
         <v>43425</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10719,7 +10718,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10776,7 +10775,7 @@
         <v>43425</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10833,7 +10832,7 @@
         <v>43426</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10890,7 +10889,7 @@
         <v>43427</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10952,7 +10951,7 @@
         <v>43427</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11014,7 +11013,7 @@
         <v>43432</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11076,7 +11075,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11138,7 +11137,7 @@
         <v>43436</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11200,7 +11199,7 @@
         <v>43436</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11262,7 +11261,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11324,7 +11323,7 @@
         <v>43437</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11381,7 +11380,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11438,7 +11437,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11495,7 +11494,7 @@
         <v>43448</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11552,7 +11551,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11609,7 +11608,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11666,7 +11665,7 @@
         <v>43461</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11723,7 +11722,7 @@
         <v>43461</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11780,7 +11779,7 @@
         <v>43461</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11837,7 +11836,7 @@
         <v>43462</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11894,7 +11893,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11951,7 +11950,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12008,7 +12007,7 @@
         <v>43483</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12070,7 +12069,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12127,7 +12126,7 @@
         <v>43490</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12184,7 +12183,7 @@
         <v>43490</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12241,7 +12240,7 @@
         <v>43497</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12298,7 +12297,7 @@
         <v>43497</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12355,7 +12354,7 @@
         <v>43497</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12412,7 +12411,7 @@
         <v>43504</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12469,7 +12468,7 @@
         <v>43522</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12526,7 +12525,7 @@
         <v>43545</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12583,7 +12582,7 @@
         <v>43546</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12640,7 +12639,7 @@
         <v>43546</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12697,7 +12696,7 @@
         <v>43549</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12754,7 +12753,7 @@
         <v>43550</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12811,7 +12810,7 @@
         <v>43552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12873,7 +12872,7 @@
         <v>43556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12930,7 +12929,7 @@
         <v>43556</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12987,7 +12986,7 @@
         <v>43570</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13044,7 +13043,7 @@
         <v>43570</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13106,7 +13105,7 @@
         <v>43578</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13163,7 +13162,7 @@
         <v>43578</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13220,7 +13219,7 @@
         <v>43581</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13277,7 +13276,7 @@
         <v>43584</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13334,7 +13333,7 @@
         <v>43593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13391,7 +13390,7 @@
         <v>43596</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13448,7 +13447,7 @@
         <v>43601</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13505,7 +13504,7 @@
         <v>43602</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13567,7 +13566,7 @@
         <v>43609</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13624,7 +13623,7 @@
         <v>43609</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13681,7 +13680,7 @@
         <v>43609</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13743,7 +13742,7 @@
         <v>43609</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13800,7 +13799,7 @@
         <v>43613</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13857,7 +13856,7 @@
         <v>43619</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13919,7 +13918,7 @@
         <v>43624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13976,7 +13975,7 @@
         <v>43626</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14033,7 +14032,7 @@
         <v>43626</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14090,7 +14089,7 @@
         <v>43626</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14147,7 +14146,7 @@
         <v>43628</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14204,7 +14203,7 @@
         <v>43635</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14261,7 +14260,7 @@
         <v>43644</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14318,7 +14317,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14375,7 +14374,7 @@
         <v>43654</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14432,7 +14431,7 @@
         <v>43657</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14489,7 +14488,7 @@
         <v>43657</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14546,7 +14545,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14603,7 +14602,7 @@
         <v>43663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14665,7 +14664,7 @@
         <v>43663</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14727,7 +14726,7 @@
         <v>43663</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14789,7 +14788,7 @@
         <v>43664</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14846,7 +14845,7 @@
         <v>43664</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14908,7 +14907,7 @@
         <v>43664</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14965,7 +14964,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15022,7 +15021,7 @@
         <v>43668</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15079,7 +15078,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15136,7 +15135,7 @@
         <v>43683</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15193,7 +15192,7 @@
         <v>43683</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15255,7 +15254,7 @@
         <v>43683</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15317,7 +15316,7 @@
         <v>43683</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15379,7 +15378,7 @@
         <v>43706</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15441,7 +15440,7 @@
         <v>43706</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15498,7 +15497,7 @@
         <v>43714</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15555,7 +15554,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15617,7 +15616,7 @@
         <v>43731</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15679,7 +15678,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15736,7 +15735,7 @@
         <v>43737</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15793,7 +15792,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15850,7 +15849,7 @@
         <v>43740</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15912,7 +15911,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15974,7 +15973,7 @@
         <v>43742</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16036,7 +16035,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16093,7 +16092,7 @@
         <v>43760</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16155,7 +16154,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16217,7 +16216,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16279,7 +16278,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16336,7 +16335,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16393,7 +16392,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16450,7 +16449,7 @@
         <v>43780</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16507,7 +16506,7 @@
         <v>43783</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16569,7 +16568,7 @@
         <v>43783</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16631,7 +16630,7 @@
         <v>43783</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16693,7 +16692,7 @@
         <v>43783</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16755,7 +16754,7 @@
         <v>43789</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16812,7 +16811,7 @@
         <v>43789</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16869,7 +16868,7 @@
         <v>43791</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16926,7 +16925,7 @@
         <v>43792</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16983,7 +16982,7 @@
         <v>43794</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17040,7 +17039,7 @@
         <v>43794</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17097,7 +17096,7 @@
         <v>43795</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17159,7 +17158,7 @@
         <v>43805</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17216,7 +17215,7 @@
         <v>43820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17273,7 +17272,7 @@
         <v>43822</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17330,7 +17329,7 @@
         <v>43845</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17387,7 +17386,7 @@
         <v>43852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17444,7 +17443,7 @@
         <v>43854</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17501,7 +17500,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17558,7 +17557,7 @@
         <v>43866</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17615,7 +17614,7 @@
         <v>43878</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17672,7 +17671,7 @@
         <v>43878</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17729,7 +17728,7 @@
         <v>43882</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17786,7 +17785,7 @@
         <v>43897</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17843,7 +17842,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17905,7 +17904,7 @@
         <v>43917</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17967,7 +17966,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18024,7 +18023,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18086,7 +18085,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18148,7 +18147,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18210,7 +18209,7 @@
         <v>43922</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18272,7 +18271,7 @@
         <v>43923</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18329,7 +18328,7 @@
         <v>43928</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18391,7 +18390,7 @@
         <v>43937</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18453,7 +18452,7 @@
         <v>43944</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18510,7 +18509,7 @@
         <v>43944</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18567,7 +18566,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18624,7 +18623,7 @@
         <v>43951</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18681,7 +18680,7 @@
         <v>43955</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18738,7 +18737,7 @@
         <v>43955</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18795,7 +18794,7 @@
         <v>43969</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18857,7 +18856,7 @@
         <v>43985</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18914,7 +18913,7 @@
         <v>43990</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18971,7 +18970,7 @@
         <v>43990</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19028,7 +19027,7 @@
         <v>43991</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19090,7 +19089,7 @@
         <v>43991</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19152,7 +19151,7 @@
         <v>43991</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19214,7 +19213,7 @@
         <v>44005</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19276,7 +19275,7 @@
         <v>44005</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19338,7 +19337,7 @@
         <v>44015</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19400,7 +19399,7 @@
         <v>44015</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19462,7 +19461,7 @@
         <v>44015</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19524,7 +19523,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19581,7 +19580,7 @@
         <v>44047</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19638,7 +19637,7 @@
         <v>44053</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19695,7 +19694,7 @@
         <v>44056</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19757,7 +19756,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19814,7 +19813,7 @@
         <v>44074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19871,7 +19870,7 @@
         <v>44074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19928,7 +19927,7 @@
         <v>44078</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19985,7 +19984,7 @@
         <v>44096</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20047,7 +20046,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20109,7 +20108,7 @@
         <v>44106</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20166,7 +20165,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20223,7 +20222,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20285,7 +20284,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20347,7 +20346,7 @@
         <v>44113</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20404,7 +20403,7 @@
         <v>44125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20466,7 +20465,7 @@
         <v>44126</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20523,7 +20522,7 @@
         <v>44140</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20580,7 +20579,7 @@
         <v>44145</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20642,7 +20641,7 @@
         <v>44145</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20704,7 +20703,7 @@
         <v>44146</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20766,7 +20765,7 @@
         <v>44146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20828,7 +20827,7 @@
         <v>44153</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20890,7 +20889,7 @@
         <v>44165</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20952,7 +20951,7 @@
         <v>44179</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21009,7 +21008,7 @@
         <v>44198</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21071,7 +21070,7 @@
         <v>44200</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21133,7 +21132,7 @@
         <v>44200</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21195,7 +21194,7 @@
         <v>44201</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21257,7 +21256,7 @@
         <v>44201</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21319,7 +21318,7 @@
         <v>44201</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21381,7 +21380,7 @@
         <v>44201</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21443,7 +21442,7 @@
         <v>44201</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21505,7 +21504,7 @@
         <v>44201</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21567,7 +21566,7 @@
         <v>44210</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21629,7 +21628,7 @@
         <v>44210</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21691,7 +21690,7 @@
         <v>44210</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21753,7 +21752,7 @@
         <v>44214</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21815,7 +21814,7 @@
         <v>44215</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21877,7 +21876,7 @@
         <v>44222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21934,7 +21933,7 @@
         <v>44224</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21991,7 +21990,7 @@
         <v>44229</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22053,7 +22052,7 @@
         <v>44230</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22115,7 +22114,7 @@
         <v>44230</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22177,7 +22176,7 @@
         <v>44238</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22234,7 +22233,7 @@
         <v>44238</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22291,7 +22290,7 @@
         <v>44260</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22353,7 +22352,7 @@
         <v>44279</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22410,7 +22409,7 @@
         <v>44281</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22467,7 +22466,7 @@
         <v>44284</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22524,7 +22523,7 @@
         <v>44286</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22586,7 +22585,7 @@
         <v>44287</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22648,7 +22647,7 @@
         <v>44292</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22705,7 +22704,7 @@
         <v>44308</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22767,7 +22766,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22824,7 +22823,7 @@
         <v>44309</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22881,7 +22880,7 @@
         <v>44309</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22938,7 +22937,7 @@
         <v>44309</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22995,7 +22994,7 @@
         <v>44309</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23052,7 +23051,7 @@
         <v>44309</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23109,7 +23108,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23166,7 +23165,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23223,7 +23222,7 @@
         <v>44314</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23280,7 +23279,7 @@
         <v>44326</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23342,7 +23341,7 @@
         <v>44327</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23399,7 +23398,7 @@
         <v>44344</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23456,7 +23455,7 @@
         <v>44347</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23518,7 +23517,7 @@
         <v>44349</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23580,7 +23579,7 @@
         <v>44357</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23637,7 +23636,7 @@
         <v>44363</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23699,7 +23698,7 @@
         <v>44363</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23761,7 +23760,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23823,7 +23822,7 @@
         <v>44364</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23880,7 +23879,7 @@
         <v>44365</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23937,7 +23936,7 @@
         <v>44365</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23999,7 +23998,7 @@
         <v>44371</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24061,7 +24060,7 @@
         <v>44378</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24123,7 +24122,7 @@
         <v>44378</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24185,7 +24184,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24247,7 +24246,7 @@
         <v>44392</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24304,7 +24303,7 @@
         <v>44393</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24366,7 +24365,7 @@
         <v>44393</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24428,7 +24427,7 @@
         <v>44393</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24490,7 +24489,7 @@
         <v>44393</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24552,7 +24551,7 @@
         <v>44399</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24609,7 +24608,7 @@
         <v>44411</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24671,7 +24670,7 @@
         <v>44411</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24728,7 +24727,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24790,7 +24789,7 @@
         <v>44413</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24847,7 +24846,7 @@
         <v>44413</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24909,7 +24908,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24971,7 +24970,7 @@
         <v>44413</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25033,7 +25032,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25095,7 +25094,7 @@
         <v>44421</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25157,7 +25156,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25214,7 +25213,7 @@
         <v>44435</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25276,7 +25275,7 @@
         <v>44435</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25338,7 +25337,7 @@
         <v>44452</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25400,7 +25399,7 @@
         <v>44456</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25462,7 +25461,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25524,7 +25523,7 @@
         <v>44459</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25586,7 +25585,7 @@
         <v>44459</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25643,7 +25642,7 @@
         <v>44467</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25705,7 +25704,7 @@
         <v>44467</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25767,7 +25766,7 @@
         <v>44471</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25824,7 +25823,7 @@
         <v>44473</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25886,7 +25885,7 @@
         <v>44476</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25943,7 +25942,7 @@
         <v>44477</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26005,7 +26004,7 @@
         <v>44481</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26067,7 +26066,7 @@
         <v>44481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26129,7 +26128,7 @@
         <v>44484</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26186,7 +26185,7 @@
         <v>44495</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26243,7 +26242,7 @@
         <v>44498</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26305,7 +26304,7 @@
         <v>44501</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26362,7 +26361,7 @@
         <v>44505</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26424,7 +26423,7 @@
         <v>44508</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26486,7 +26485,7 @@
         <v>44519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26548,7 +26547,7 @@
         <v>44526</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26610,7 +26609,7 @@
         <v>44529</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26672,7 +26671,7 @@
         <v>44533</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26729,7 +26728,7 @@
         <v>44536</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26791,7 +26790,7 @@
         <v>44538</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26853,7 +26852,7 @@
         <v>44539</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26910,7 +26909,7 @@
         <v>44543</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26967,7 +26966,7 @@
         <v>44546</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27024,7 +27023,7 @@
         <v>44547</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27086,7 +27085,7 @@
         <v>44552</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27148,7 +27147,7 @@
         <v>44558</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27205,7 +27204,7 @@
         <v>44558</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27262,7 +27261,7 @@
         <v>44568</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27319,7 +27318,7 @@
         <v>44599</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27381,7 +27380,7 @@
         <v>44600</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27443,7 +27442,7 @@
         <v>44607</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27500,7 +27499,7 @@
         <v>44615</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27562,7 +27561,7 @@
         <v>44629</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27619,7 +27618,7 @@
         <v>44636</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27676,7 +27675,7 @@
         <v>44643</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27738,7 +27737,7 @@
         <v>44651</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27795,7 +27794,7 @@
         <v>44651</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27857,7 +27856,7 @@
         <v>44656</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27919,7 +27918,7 @@
         <v>44680</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27981,7 +27980,7 @@
         <v>44686</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28038,7 +28037,7 @@
         <v>44687</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28100,7 +28099,7 @@
         <v>44691</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28162,7 +28161,7 @@
         <v>44697</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28219,7 +28218,7 @@
         <v>44697</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28276,7 +28275,7 @@
         <v>44705</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28333,7 +28332,7 @@
         <v>44705</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28390,7 +28389,7 @@
         <v>44706</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28452,7 +28451,7 @@
         <v>44711</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28514,7 +28513,7 @@
         <v>44755</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28571,7 +28570,7 @@
         <v>44755</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28633,7 +28632,7 @@
         <v>44755</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28690,7 +28689,7 @@
         <v>44755</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28747,7 +28746,7 @@
         <v>44755</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28809,7 +28808,7 @@
         <v>44756</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28871,7 +28870,7 @@
         <v>44782</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28933,7 +28932,7 @@
         <v>44782</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28995,7 +28994,7 @@
         <v>44782</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29057,7 +29056,7 @@
         <v>44782</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29119,7 +29118,7 @@
         <v>44784</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29181,7 +29180,7 @@
         <v>44788</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29243,7 +29242,7 @@
         <v>44803</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29300,7 +29299,7 @@
         <v>44804</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29357,7 +29356,7 @@
         <v>44809</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29419,7 +29418,7 @@
         <v>44816</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29481,7 +29480,7 @@
         <v>44824</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29543,7 +29542,7 @@
         <v>44824</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29605,7 +29604,7 @@
         <v>44824</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29667,7 +29666,7 @@
         <v>44829</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29724,7 +29723,7 @@
         <v>44829</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29781,7 +29780,7 @@
         <v>44837</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29843,7 +29842,7 @@
         <v>44837</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29905,7 +29904,7 @@
         <v>44844</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29962,7 +29961,7 @@
         <v>44844</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30019,7 +30018,7 @@
         <v>44844</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30081,7 +30080,7 @@
         <v>44846</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30138,7 +30137,7 @@
         <v>44846</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30195,7 +30194,7 @@
         <v>44855</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30252,7 +30251,7 @@
         <v>44859</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30314,7 +30313,7 @@
         <v>44865</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30376,7 +30375,7 @@
         <v>44866</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30438,7 +30437,7 @@
         <v>44867</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30495,7 +30494,7 @@
         <v>44868</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30557,7 +30556,7 @@
         <v>44868</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30619,7 +30618,7 @@
         <v>44869</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30681,7 +30680,7 @@
         <v>44869</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30743,7 +30742,7 @@
         <v>44869</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30805,7 +30804,7 @@
         <v>44873</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30867,7 +30866,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30924,7 +30923,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30981,7 +30980,7 @@
         <v>44875</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31043,7 +31042,7 @@
         <v>44894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31100,7 +31099,7 @@
         <v>44896</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31162,7 +31161,7 @@
         <v>44902</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31224,7 +31223,7 @@
         <v>44904</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31281,7 +31280,7 @@
         <v>44904</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31338,7 +31337,7 @@
         <v>44904</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31395,7 +31394,7 @@
         <v>44910</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31452,7 +31451,7 @@
         <v>44910</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31509,7 +31508,7 @@
         <v>44911</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31571,7 +31570,7 @@
         <v>44911</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31628,7 +31627,7 @@
         <v>44915</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31690,7 +31689,7 @@
         <v>44916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31747,7 +31746,7 @@
         <v>44916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31804,7 +31803,7 @@
         <v>44917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31866,7 +31865,7 @@
         <v>44923</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31923,7 +31922,7 @@
         <v>44923</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31980,7 +31979,7 @@
         <v>44924</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32042,7 +32041,7 @@
         <v>44937</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32104,7 +32103,7 @@
         <v>44938</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32161,7 +32160,7 @@
         <v>44942</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32218,7 +32217,7 @@
         <v>44942</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32275,7 +32274,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32337,7 +32336,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32394,7 +32393,7 @@
         <v>44978</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32451,7 +32450,7 @@
         <v>44978</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32508,7 +32507,7 @@
         <v>45002</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32565,7 +32564,7 @@
         <v>45015</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32622,7 +32621,7 @@
         <v>45034</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32679,7 +32678,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32736,7 +32735,7 @@
         <v>45057</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32793,7 +32792,7 @@
         <v>45072</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32855,7 +32854,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32912,7 +32911,7 @@
         <v>45076</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32969,7 +32968,7 @@
         <v>45077</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33026,7 +33025,7 @@
         <v>45078</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33088,7 +33087,7 @@
         <v>45082</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33150,7 +33149,7 @@
         <v>45084</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33207,7 +33206,7 @@
         <v>45084</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33264,7 +33263,7 @@
         <v>45085</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33321,7 +33320,7 @@
         <v>45085</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33378,7 +33377,7 @@
         <v>45086</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33440,7 +33439,7 @@
         <v>45097</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33502,7 +33501,7 @@
         <v>45097</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33564,7 +33563,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33621,7 +33620,7 @@
         <v>45103</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33683,7 +33682,7 @@
         <v>45105</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33745,7 +33744,7 @@
         <v>45106</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33802,7 +33801,7 @@
         <v>45106</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33859,7 +33858,7 @@
         <v>45107</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33916,7 +33915,7 @@
         <v>45107</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33973,7 +33972,7 @@
         <v>45112</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34030,7 +34029,7 @@
         <v>45113</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34092,7 +34091,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34154,7 +34153,7 @@
         <v>45113</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34216,7 +34215,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34278,7 +34277,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34335,7 +34334,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34392,7 +34391,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34454,7 +34453,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34511,7 +34510,7 @@
         <v>45114</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34568,7 +34567,7 @@
         <v>45114</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34625,7 +34624,7 @@
         <v>45114</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34682,7 +34681,7 @@
         <v>45114</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34739,7 +34738,7 @@
         <v>45114</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34796,7 +34795,7 @@
         <v>45118</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34853,7 +34852,7 @@
         <v>45121</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34915,7 +34914,7 @@
         <v>45124</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34972,7 +34971,7 @@
         <v>45126</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35029,7 +35028,7 @@
         <v>45131</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35091,7 +35090,7 @@
         <v>45134</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35148,7 +35147,7 @@
         <v>45134</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35205,7 +35204,7 @@
         <v>45139</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35262,7 +35261,7 @@
         <v>45140</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35324,7 +35323,7 @@
         <v>45141</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35381,7 +35380,7 @@
         <v>45145</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35438,7 +35437,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35500,7 +35499,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35557,7 +35556,7 @@
         <v>45159</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35619,7 +35618,7 @@
         <v>45184</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44532</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1605,64 +1605,165 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
+          <t>A 28765-2019</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>43627</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÄLVDALEN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>12</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Smalfotad taggsvamp
+Blanksvart spiklav
+Blågrå svartspik
+Kolflarnlav
+Motaggsvamp
+Mörk kolflarnlav
+Vaddporing
+Varglav
+Vedflamlav
+Vedskivlav
+Skarp dropptaggsvamp
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 28765-2019.xlsx", "A 28765-2019")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 28765-2019.png", "A 28765-2019")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 28765-2019.docx", "A 28765-2019")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 28765-2019.docx", "A 28765-2019")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 28765-2019.docx", "A 28765-2019")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 28765-2019.docx", "A 28765-2019")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>A 32114-2023</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45119</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ÄLVDALEN</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÄLVDALEN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>10.1</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>3</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K13" t="n">
         <v>3</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>8</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P13" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q13" t="n">
         <v>11</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Gräddporing
@@ -1677,127 +1778,28 @@
 Skarp dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 32114-2023.xlsx", "A 32114-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 32114-2023.png", "A 32114-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 32114-2023.docx", "A 32114-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 32114-2023.docx", "A 32114-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 32114-2023.docx", "A 32114-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 32114-2023.docx", "A 32114-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 28765-2019</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>43627</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ÄLVDALEN</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>9</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>10</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Smalfotad taggsvamp
-Blanksvart spiklav
-Blågrå svartspik
-Kolflarnlav
-Mörk kolflarnlav
-Vaddporing
-Varglav
-Vedflamlav
-Vedskivlav
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/artfynd/A 28765-2019.xlsx", "A 28765-2019")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/kartor/A 28765-2019.png", "A 28765-2019")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomål/A 28765-2019.docx", "A 28765-2019")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/klagomålsmail/A 28765-2019.docx", "A 28765-2019")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsyn/A 28765-2019.docx", "A 28765-2019")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVDALEN/tillsynsmail/A 28765-2019.docx", "A 28765-2019")</f>
         <v/>
       </c>
     </row>
@@ -1811,7 +1813,7 @@
         <v>44113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1905,7 +1907,7 @@
         <v>44406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1999,7 +2001,7 @@
         <v>44848</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2098,7 +2100,7 @@
         <v>44939</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2192,7 +2194,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2291,7 +2293,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2389,7 +2391,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2487,7 +2489,7 @@
         <v>45104</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2589,7 +2591,7 @@
         <v>44673</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2686,7 +2688,7 @@
         <v>44879</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2778,7 +2780,7 @@
         <v>44853</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2874,7 +2876,7 @@
         <v>44378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2969,7 +2971,7 @@
         <v>44472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3059,7 +3061,7 @@
         <v>44473</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3149,7 +3151,7 @@
         <v>44817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3239,7 +3241,7 @@
         <v>44935</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3334,7 +3336,7 @@
         <v>43641</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3423,7 +3425,7 @@
         <v>44452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3517,7 +3519,7 @@
         <v>44943</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3606,7 +3608,7 @@
         <v>45105</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3700,7 +3702,7 @@
         <v>45119</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3794,7 +3796,7 @@
         <v>43713</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3882,7 +3884,7 @@
         <v>44413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3975,7 +3977,7 @@
         <v>44482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4068,7 +4070,7 @@
         <v>44824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4161,7 +4163,7 @@
         <v>44830</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4254,7 +4256,7 @@
         <v>45105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4347,7 +4349,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4435,7 +4437,7 @@
         <v>45182</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4528,7 +4530,7 @@
         <v>43703</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4615,7 +4617,7 @@
         <v>44377</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4707,7 +4709,7 @@
         <v>44461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4799,7 +4801,7 @@
         <v>44470</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4891,7 +4893,7 @@
         <v>44516</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4983,7 +4985,7 @@
         <v>44830</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5075,7 +5077,7 @@
         <v>44830</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5167,7 +5169,7 @@
         <v>44830</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5259,7 +5261,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5351,7 +5353,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5443,7 +5445,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5534,7 +5536,7 @@
         <v>43707</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5625,7 +5627,7 @@
         <v>44365</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5716,7 +5718,7 @@
         <v>44435</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5807,7 +5809,7 @@
         <v>44473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5893,7 +5895,7 @@
         <v>44525</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5984,7 +5986,7 @@
         <v>44706</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6075,7 +6077,7 @@
         <v>44865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6166,7 +6168,7 @@
         <v>44874</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6252,7 +6254,7 @@
         <v>45068</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6343,7 +6345,7 @@
         <v>45089</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6434,7 +6436,7 @@
         <v>45145</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6525,7 +6527,7 @@
         <v>45145</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6616,7 +6618,7 @@
         <v>45159</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6707,7 +6709,7 @@
         <v>43406</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6797,7 +6799,7 @@
         <v>43437</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6887,7 +6889,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6972,7 +6974,7 @@
         <v>43587</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7057,7 +7059,7 @@
         <v>43928</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7147,7 +7149,7 @@
         <v>43937</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7237,7 +7239,7 @@
         <v>44029</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7327,7 +7329,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7417,7 +7419,7 @@
         <v>44092</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7507,7 +7509,7 @@
         <v>44145</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7597,7 +7599,7 @@
         <v>44260</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7687,7 +7689,7 @@
         <v>44284</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7772,7 +7774,7 @@
         <v>44340</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7862,7 +7864,7 @@
         <v>44349</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7952,7 +7954,7 @@
         <v>44370</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8042,7 +8044,7 @@
         <v>44379</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8132,7 +8134,7 @@
         <v>44488</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8222,7 +8224,7 @@
         <v>44516</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8312,7 +8314,7 @@
         <v>44532</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8402,7 +8404,7 @@
         <v>44818</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8487,7 +8489,7 @@
         <v>44837</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8577,7 +8579,7 @@
         <v>44865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8667,7 +8669,7 @@
         <v>44865</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8757,7 +8759,7 @@
         <v>44869</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8847,7 +8849,7 @@
         <v>44881</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8937,7 +8939,7 @@
         <v>44889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9027,7 +9029,7 @@
         <v>44917</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9112,7 +9114,7 @@
         <v>45107</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9202,7 +9204,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9287,7 +9289,7 @@
         <v>45145</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9377,7 +9379,7 @@
         <v>43339</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9434,7 +9436,7 @@
         <v>43339</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9491,7 +9493,7 @@
         <v>43341</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9548,7 +9550,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9605,7 +9607,7 @@
         <v>43355</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9667,7 +9669,7 @@
         <v>43355</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9729,7 +9731,7 @@
         <v>43355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9786,7 +9788,7 @@
         <v>43355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9848,7 +9850,7 @@
         <v>43382</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9905,7 +9907,7 @@
         <v>43388</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9962,7 +9964,7 @@
         <v>43391</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10019,7 +10021,7 @@
         <v>43410</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10076,7 +10078,7 @@
         <v>43412</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10133,7 +10135,7 @@
         <v>43412</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10190,7 +10192,7 @@
         <v>43412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10247,7 +10249,7 @@
         <v>43412</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10304,7 +10306,7 @@
         <v>43413</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10366,7 +10368,7 @@
         <v>43413</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10423,7 +10425,7 @@
         <v>43417</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10485,7 +10487,7 @@
         <v>43419</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10542,7 +10544,7 @@
         <v>43419</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10604,7 +10606,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10661,7 +10663,7 @@
         <v>43425</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10718,7 +10720,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10775,7 +10777,7 @@
         <v>43425</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10832,7 +10834,7 @@
         <v>43426</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10889,7 +10891,7 @@
         <v>43427</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10951,7 +10953,7 @@
         <v>43427</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11013,7 +11015,7 @@
         <v>43432</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11075,7 +11077,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11137,7 +11139,7 @@
         <v>43436</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11199,7 +11201,7 @@
         <v>43436</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11261,7 +11263,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11323,7 +11325,7 @@
         <v>43437</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11380,7 +11382,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11437,7 +11439,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11494,7 +11496,7 @@
         <v>43448</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11551,7 +11553,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11608,7 +11610,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11665,7 +11667,7 @@
         <v>43461</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11722,7 +11724,7 @@
         <v>43461</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11779,7 +11781,7 @@
         <v>43461</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11836,7 +11838,7 @@
         <v>43462</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11893,7 +11895,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11950,7 +11952,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12007,7 +12009,7 @@
         <v>43483</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12069,7 +12071,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12126,7 +12128,7 @@
         <v>43490</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12183,7 +12185,7 @@
         <v>43490</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12240,7 +12242,7 @@
         <v>43497</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12297,7 +12299,7 @@
         <v>43497</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12354,7 +12356,7 @@
         <v>43497</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12411,7 +12413,7 @@
         <v>43504</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12468,7 +12470,7 @@
         <v>43522</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12525,7 +12527,7 @@
         <v>43545</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12582,7 +12584,7 @@
         <v>43546</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12639,7 +12641,7 @@
         <v>43546</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12696,7 +12698,7 @@
         <v>43549</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12753,7 +12755,7 @@
         <v>43550</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12810,7 +12812,7 @@
         <v>43552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12872,7 +12874,7 @@
         <v>43556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12929,7 +12931,7 @@
         <v>43556</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12986,7 +12988,7 @@
         <v>43570</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13043,7 +13045,7 @@
         <v>43570</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13105,7 +13107,7 @@
         <v>43578</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13162,7 +13164,7 @@
         <v>43578</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13219,7 +13221,7 @@
         <v>43581</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13276,7 +13278,7 @@
         <v>43584</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13333,7 +13335,7 @@
         <v>43593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13390,7 +13392,7 @@
         <v>43596</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13447,7 +13449,7 @@
         <v>43601</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13504,7 +13506,7 @@
         <v>43602</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13566,7 +13568,7 @@
         <v>43609</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13623,7 +13625,7 @@
         <v>43609</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13680,7 +13682,7 @@
         <v>43609</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13742,7 +13744,7 @@
         <v>43609</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13799,7 +13801,7 @@
         <v>43613</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13856,7 +13858,7 @@
         <v>43619</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13918,7 +13920,7 @@
         <v>43624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13975,7 +13977,7 @@
         <v>43626</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14032,7 +14034,7 @@
         <v>43626</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14089,7 +14091,7 @@
         <v>43626</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14146,7 +14148,7 @@
         <v>43628</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14203,7 +14205,7 @@
         <v>43635</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14260,7 +14262,7 @@
         <v>43644</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14317,7 +14319,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14374,7 +14376,7 @@
         <v>43654</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14431,7 +14433,7 @@
         <v>43657</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14488,7 +14490,7 @@
         <v>43657</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14545,7 +14547,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14602,7 +14604,7 @@
         <v>43663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14664,7 +14666,7 @@
         <v>43663</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14726,7 +14728,7 @@
         <v>43663</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14788,7 +14790,7 @@
         <v>43664</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14845,7 +14847,7 @@
         <v>43664</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14907,7 +14909,7 @@
         <v>43664</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14964,7 +14966,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15021,7 +15023,7 @@
         <v>43668</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15078,7 +15080,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15135,7 +15137,7 @@
         <v>43683</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15192,7 +15194,7 @@
         <v>43683</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15254,7 +15256,7 @@
         <v>43683</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15316,7 +15318,7 @@
         <v>43683</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15378,7 +15380,7 @@
         <v>43706</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15440,7 +15442,7 @@
         <v>43706</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15497,7 +15499,7 @@
         <v>43714</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15554,7 +15556,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15616,7 +15618,7 @@
         <v>43731</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15678,7 +15680,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15735,7 +15737,7 @@
         <v>43737</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15792,7 +15794,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15849,7 +15851,7 @@
         <v>43740</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15911,7 +15913,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15973,7 +15975,7 @@
         <v>43742</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16035,7 +16037,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16092,7 +16094,7 @@
         <v>43760</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16154,7 +16156,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16216,7 +16218,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16278,7 +16280,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16335,7 +16337,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16392,7 +16394,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16449,7 +16451,7 @@
         <v>43780</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16506,7 +16508,7 @@
         <v>43783</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16568,7 +16570,7 @@
         <v>43783</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16630,7 +16632,7 @@
         <v>43783</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16692,7 +16694,7 @@
         <v>43783</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16754,7 +16756,7 @@
         <v>43789</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16811,7 +16813,7 @@
         <v>43789</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16868,7 +16870,7 @@
         <v>43791</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16925,7 +16927,7 @@
         <v>43792</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16982,7 +16984,7 @@
         <v>43794</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17039,7 +17041,7 @@
         <v>43794</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17096,7 +17098,7 @@
         <v>43795</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17158,7 +17160,7 @@
         <v>43805</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17215,7 +17217,7 @@
         <v>43820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17272,7 +17274,7 @@
         <v>43822</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17329,7 +17331,7 @@
         <v>43845</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17386,7 +17388,7 @@
         <v>43852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17443,7 +17445,7 @@
         <v>43854</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17500,7 +17502,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17557,7 +17559,7 @@
         <v>43866</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17614,7 +17616,7 @@
         <v>43878</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17671,7 +17673,7 @@
         <v>43878</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17728,7 +17730,7 @@
         <v>43882</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17785,7 +17787,7 @@
         <v>43897</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17842,7 +17844,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17904,7 +17906,7 @@
         <v>43917</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17966,7 +17968,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18023,7 +18025,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18085,7 +18087,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18147,7 +18149,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18209,7 +18211,7 @@
         <v>43922</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18271,7 +18273,7 @@
         <v>43923</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18328,7 +18330,7 @@
         <v>43928</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18390,7 +18392,7 @@
         <v>43937</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18452,7 +18454,7 @@
         <v>43944</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18509,7 +18511,7 @@
         <v>43944</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18566,7 +18568,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18623,7 +18625,7 @@
         <v>43951</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18680,7 +18682,7 @@
         <v>43955</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18737,7 +18739,7 @@
         <v>43955</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18794,7 +18796,7 @@
         <v>43969</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18856,7 +18858,7 @@
         <v>43985</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18913,7 +18915,7 @@
         <v>43990</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18970,7 +18972,7 @@
         <v>43990</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19027,7 +19029,7 @@
         <v>43991</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19089,7 +19091,7 @@
         <v>43991</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19151,7 +19153,7 @@
         <v>43991</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19213,7 +19215,7 @@
         <v>44005</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19275,7 +19277,7 @@
         <v>44005</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19337,7 +19339,7 @@
         <v>44015</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19399,7 +19401,7 @@
         <v>44015</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19461,7 +19463,7 @@
         <v>44015</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19523,7 +19525,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19580,7 +19582,7 @@
         <v>44047</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19637,7 +19639,7 @@
         <v>44053</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19694,7 +19696,7 @@
         <v>44056</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19756,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19813,7 +19815,7 @@
         <v>44074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19870,7 +19872,7 @@
         <v>44074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19927,7 +19929,7 @@
         <v>44078</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19984,7 +19986,7 @@
         <v>44096</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20046,7 +20048,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20108,7 +20110,7 @@
         <v>44106</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20165,7 +20167,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20222,7 +20224,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20284,7 +20286,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20346,7 +20348,7 @@
         <v>44113</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20403,7 +20405,7 @@
         <v>44125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20465,7 +20467,7 @@
         <v>44126</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20522,7 +20524,7 @@
         <v>44140</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20579,7 +20581,7 @@
         <v>44145</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20641,7 +20643,7 @@
         <v>44145</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20703,7 +20705,7 @@
         <v>44146</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20765,7 +20767,7 @@
         <v>44146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20827,7 +20829,7 @@
         <v>44153</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20889,7 +20891,7 @@
         <v>44165</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20951,7 +20953,7 @@
         <v>44179</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21008,7 +21010,7 @@
         <v>44198</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21070,7 +21072,7 @@
         <v>44200</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21132,7 +21134,7 @@
         <v>44200</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21194,7 +21196,7 @@
         <v>44201</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21256,7 +21258,7 @@
         <v>44201</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21318,7 +21320,7 @@
         <v>44201</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21380,7 +21382,7 @@
         <v>44201</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21442,7 +21444,7 @@
         <v>44201</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21504,7 +21506,7 @@
         <v>44201</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21566,7 +21568,7 @@
         <v>44210</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21628,7 +21630,7 @@
         <v>44210</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21690,7 +21692,7 @@
         <v>44210</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21752,7 +21754,7 @@
         <v>44214</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21814,7 +21816,7 @@
         <v>44215</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21876,7 +21878,7 @@
         <v>44222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21933,7 +21935,7 @@
         <v>44224</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21990,7 +21992,7 @@
         <v>44229</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22052,7 +22054,7 @@
         <v>44230</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22114,7 +22116,7 @@
         <v>44230</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22176,7 +22178,7 @@
         <v>44238</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22233,7 +22235,7 @@
         <v>44238</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22290,7 +22292,7 @@
         <v>44260</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22352,7 +22354,7 @@
         <v>44279</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22409,7 +22411,7 @@
         <v>44281</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22466,7 +22468,7 @@
         <v>44284</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22523,7 +22525,7 @@
         <v>44286</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22585,7 +22587,7 @@
         <v>44287</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22647,7 +22649,7 @@
         <v>44292</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22704,7 +22706,7 @@
         <v>44308</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22766,7 +22768,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22823,7 +22825,7 @@
         <v>44309</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22880,7 +22882,7 @@
         <v>44309</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22937,7 +22939,7 @@
         <v>44309</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22994,7 +22996,7 @@
         <v>44309</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23051,7 +23053,7 @@
         <v>44309</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23108,7 +23110,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23165,7 +23167,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23222,7 +23224,7 @@
         <v>44314</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23279,7 +23281,7 @@
         <v>44326</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23341,7 +23343,7 @@
         <v>44327</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23398,7 +23400,7 @@
         <v>44344</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23455,7 +23457,7 @@
         <v>44347</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23517,7 +23519,7 @@
         <v>44349</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23579,7 +23581,7 @@
         <v>44357</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23636,7 +23638,7 @@
         <v>44363</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23698,7 +23700,7 @@
         <v>44363</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23760,7 +23762,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23822,7 +23824,7 @@
         <v>44364</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23879,7 +23881,7 @@
         <v>44365</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23936,7 +23938,7 @@
         <v>44365</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23998,7 +24000,7 @@
         <v>44371</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24060,7 +24062,7 @@
         <v>44378</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24122,7 +24124,7 @@
         <v>44378</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24184,7 +24186,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24246,7 +24248,7 @@
         <v>44392</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24303,7 +24305,7 @@
         <v>44393</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24365,7 +24367,7 @@
         <v>44393</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24427,7 +24429,7 @@
         <v>44393</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24489,7 +24491,7 @@
         <v>44393</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24551,7 +24553,7 @@
         <v>44399</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24608,7 +24610,7 @@
         <v>44411</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24670,7 +24672,7 @@
         <v>44411</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24727,7 +24729,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24789,7 +24791,7 @@
         <v>44413</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24846,7 +24848,7 @@
         <v>44413</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24908,7 +24910,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24970,7 +24972,7 @@
         <v>44413</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25032,7 +25034,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25094,7 +25096,7 @@
         <v>44421</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25156,7 +25158,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25213,7 +25215,7 @@
         <v>44435</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25275,7 +25277,7 @@
         <v>44435</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25337,7 +25339,7 @@
         <v>44452</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25399,7 +25401,7 @@
         <v>44456</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25461,7 +25463,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25523,7 +25525,7 @@
         <v>44459</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25585,7 +25587,7 @@
         <v>44459</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25642,7 +25644,7 @@
         <v>44467</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25704,7 +25706,7 @@
         <v>44467</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25766,7 +25768,7 @@
         <v>44471</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25823,7 +25825,7 @@
         <v>44473</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25885,7 +25887,7 @@
         <v>44476</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25942,7 +25944,7 @@
         <v>44477</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26004,7 +26006,7 @@
         <v>44481</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26066,7 +26068,7 @@
         <v>44481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26128,7 +26130,7 @@
         <v>44484</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26185,7 +26187,7 @@
         <v>44495</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26242,7 +26244,7 @@
         <v>44498</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26304,7 +26306,7 @@
         <v>44501</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26361,7 +26363,7 @@
         <v>44505</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26423,7 +26425,7 @@
         <v>44508</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26485,7 +26487,7 @@
         <v>44519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26547,7 +26549,7 @@
         <v>44526</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26609,7 +26611,7 @@
         <v>44529</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26671,7 +26673,7 @@
         <v>44533</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26728,7 +26730,7 @@
         <v>44536</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26790,7 +26792,7 @@
         <v>44538</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26852,7 +26854,7 @@
         <v>44539</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26909,7 +26911,7 @@
         <v>44543</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26966,7 +26968,7 @@
         <v>44546</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27023,7 +27025,7 @@
         <v>44547</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27085,7 +27087,7 @@
         <v>44552</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27147,7 +27149,7 @@
         <v>44558</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27204,7 +27206,7 @@
         <v>44558</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27261,7 +27263,7 @@
         <v>44568</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27318,7 +27320,7 @@
         <v>44599</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27380,7 +27382,7 @@
         <v>44600</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27442,7 +27444,7 @@
         <v>44607</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27499,7 +27501,7 @@
         <v>44615</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27561,7 +27563,7 @@
         <v>44629</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27618,7 +27620,7 @@
         <v>44636</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27675,7 +27677,7 @@
         <v>44643</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27737,7 +27739,7 @@
         <v>44651</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27794,7 +27796,7 @@
         <v>44651</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27856,7 +27858,7 @@
         <v>44656</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27918,7 +27920,7 @@
         <v>44680</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27980,7 +27982,7 @@
         <v>44686</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28037,7 +28039,7 @@
         <v>44687</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28099,7 +28101,7 @@
         <v>44691</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28161,7 +28163,7 @@
         <v>44697</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28218,7 +28220,7 @@
         <v>44697</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28275,7 +28277,7 @@
         <v>44705</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28332,7 +28334,7 @@
         <v>44705</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28389,7 +28391,7 @@
         <v>44706</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28451,7 +28453,7 @@
         <v>44711</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28513,7 +28515,7 @@
         <v>44755</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28570,7 +28572,7 @@
         <v>44755</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28632,7 +28634,7 @@
         <v>44755</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28689,7 +28691,7 @@
         <v>44755</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28746,7 +28748,7 @@
         <v>44755</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28808,7 +28810,7 @@
         <v>44756</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28870,7 +28872,7 @@
         <v>44782</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28932,7 +28934,7 @@
         <v>44782</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28994,7 +28996,7 @@
         <v>44782</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29056,7 +29058,7 @@
         <v>44782</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29118,7 +29120,7 @@
         <v>44784</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29180,7 +29182,7 @@
         <v>44788</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29242,7 +29244,7 @@
         <v>44803</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29299,7 +29301,7 @@
         <v>44804</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29356,7 +29358,7 @@
         <v>44809</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29418,7 +29420,7 @@
         <v>44816</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29480,7 +29482,7 @@
         <v>44824</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29542,7 +29544,7 @@
         <v>44824</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29604,7 +29606,7 @@
         <v>44824</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29666,7 +29668,7 @@
         <v>44829</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29723,7 +29725,7 @@
         <v>44829</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29780,7 +29782,7 @@
         <v>44837</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29842,7 +29844,7 @@
         <v>44837</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29904,7 +29906,7 @@
         <v>44844</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29961,7 +29963,7 @@
         <v>44844</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30018,7 +30020,7 @@
         <v>44844</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30080,7 +30082,7 @@
         <v>44846</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30137,7 +30139,7 @@
         <v>44846</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30194,7 +30196,7 @@
         <v>44855</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30251,7 +30253,7 @@
         <v>44859</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30313,7 +30315,7 @@
         <v>44865</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30375,7 +30377,7 @@
         <v>44866</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30437,7 +30439,7 @@
         <v>44867</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30494,7 +30496,7 @@
         <v>44868</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30556,7 +30558,7 @@
         <v>44868</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30618,7 +30620,7 @@
         <v>44869</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30680,7 +30682,7 @@
         <v>44869</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30742,7 +30744,7 @@
         <v>44869</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30804,7 +30806,7 @@
         <v>44873</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30866,7 +30868,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30923,7 +30925,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30980,7 +30982,7 @@
         <v>44875</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31042,7 +31044,7 @@
         <v>44894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31099,7 +31101,7 @@
         <v>44896</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31161,7 +31163,7 @@
         <v>44902</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31223,7 +31225,7 @@
         <v>44904</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31280,7 +31282,7 @@
         <v>44904</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31337,7 +31339,7 @@
         <v>44904</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31394,7 +31396,7 @@
         <v>44910</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31451,7 +31453,7 @@
         <v>44910</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31508,7 +31510,7 @@
         <v>44911</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31570,7 +31572,7 @@
         <v>44911</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31627,7 +31629,7 @@
         <v>44915</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31689,7 +31691,7 @@
         <v>44916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31746,7 +31748,7 @@
         <v>44916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31803,7 +31805,7 @@
         <v>44917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31865,7 +31867,7 @@
         <v>44923</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31922,7 +31924,7 @@
         <v>44923</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31979,7 +31981,7 @@
         <v>44924</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32041,7 +32043,7 @@
         <v>44937</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32103,7 +32105,7 @@
         <v>44938</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32160,7 +32162,7 @@
         <v>44942</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32217,7 +32219,7 @@
         <v>44942</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32274,7 +32276,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32336,7 +32338,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32393,7 +32395,7 @@
         <v>44978</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32450,7 +32452,7 @@
         <v>44978</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32507,7 +32509,7 @@
         <v>45002</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32564,7 +32566,7 @@
         <v>45015</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32621,7 +32623,7 @@
         <v>45034</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32678,7 +32680,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32735,7 +32737,7 @@
         <v>45057</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32792,7 +32794,7 @@
         <v>45072</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32854,7 +32856,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32911,7 +32913,7 @@
         <v>45076</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32968,7 +32970,7 @@
         <v>45077</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33025,7 +33027,7 @@
         <v>45078</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33087,7 +33089,7 @@
         <v>45082</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33149,7 +33151,7 @@
         <v>45084</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33206,7 +33208,7 @@
         <v>45084</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33263,7 +33265,7 @@
         <v>45085</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33320,7 +33322,7 @@
         <v>45085</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33377,7 +33379,7 @@
         <v>45086</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33439,7 +33441,7 @@
         <v>45097</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33501,7 +33503,7 @@
         <v>45097</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33563,7 +33565,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33620,7 +33622,7 @@
         <v>45103</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33682,7 +33684,7 @@
         <v>45105</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33744,7 +33746,7 @@
         <v>45106</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33801,7 +33803,7 @@
         <v>45106</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33858,7 +33860,7 @@
         <v>45107</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33915,7 +33917,7 @@
         <v>45107</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33972,7 +33974,7 @@
         <v>45112</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34029,7 +34031,7 @@
         <v>45113</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34091,7 +34093,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34153,7 +34155,7 @@
         <v>45113</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34215,7 +34217,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34277,7 +34279,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34334,7 +34336,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34391,7 +34393,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34453,7 +34455,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34510,7 +34512,7 @@
         <v>45114</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34567,7 +34569,7 @@
         <v>45114</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34624,7 +34626,7 @@
         <v>45114</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34681,7 +34683,7 @@
         <v>45114</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34738,7 +34740,7 @@
         <v>45114</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34795,7 +34797,7 @@
         <v>45118</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34852,7 +34854,7 @@
         <v>45121</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34914,7 +34916,7 @@
         <v>45124</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34971,7 +34973,7 @@
         <v>45126</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35028,7 +35030,7 @@
         <v>45131</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35090,7 +35092,7 @@
         <v>45134</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35147,7 +35149,7 @@
         <v>45134</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35204,7 +35206,7 @@
         <v>45139</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35261,7 +35263,7 @@
         <v>45140</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35323,7 +35325,7 @@
         <v>45141</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35380,7 +35382,7 @@
         <v>45145</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35437,7 +35439,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35499,7 +35501,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35556,7 +35558,7 @@
         <v>45159</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35618,7 +35620,7 @@
         <v>45184</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44532</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>43627</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>44113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44848</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44939</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45104</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44673</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44879</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44853</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44473</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>44935</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43641</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44943</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45105</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>45119</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43713</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44830</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45182</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43703</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>44377</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>44470</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44516</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>44830</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44830</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44830</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43707</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44365</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44435</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>44525</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44706</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44874</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45068</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>45089</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>45145</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>45145</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45159</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43406</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>43437</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43587</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43928</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43937</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>44029</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44092</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44145</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44260</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>44284</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>44340</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44349</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44370</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44379</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44488</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>44516</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>44532</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44818</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44837</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>44865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44865</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44869</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44881</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44917</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>45107</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>45145</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43339</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43339</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43341</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43355</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43355</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>43382</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>43388</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43391</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43410</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43412</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43412</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43412</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43413</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43413</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43417</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>43419</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43419</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43425</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43425</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43426</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43427</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>43427</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43432</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>43436</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43436</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>43437</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>43448</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>43461</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43461</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43461</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43462</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43483</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43490</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43490</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43497</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43497</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43497</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43504</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43522</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43545</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43546</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>43546</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43549</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43550</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43556</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43570</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43570</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>43578</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>43578</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>43581</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43584</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43596</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43601</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43602</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43609</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>43609</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>43609</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43609</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43613</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43619</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>43624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>43626</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43626</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43626</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43628</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43635</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>43644</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43654</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>43657</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>43657</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43663</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43663</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43664</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43664</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>43664</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>43668</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43683</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>43683</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>43683</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>43683</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43706</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43706</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43714</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43731</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43737</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43740</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43742</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>43760</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>43780</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43783</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43783</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43783</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43783</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43789</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43789</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43791</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43792</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43794</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43794</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43795</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43805</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43822</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43845</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43854</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43866</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43878</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43878</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43882</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43897</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43917</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>43922</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>43923</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>43928</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43937</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>43944</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>43944</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43951</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>43955</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>43955</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>43969</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>43985</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>43990</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43990</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43991</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>43991</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>43991</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>44005</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44005</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44015</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44015</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44015</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44047</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44053</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44056</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44078</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44096</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>44106</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44113</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44126</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44140</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44145</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44145</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44146</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>44146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44153</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>44165</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>44179</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>44198</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44200</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44200</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44201</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>44201</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44201</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44201</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>44201</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>44201</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44210</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44210</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44210</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44214</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44215</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>44222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44224</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44229</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44230</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44230</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>44238</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>44238</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44260</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44279</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44281</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44284</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>44286</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>44287</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44292</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44308</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44309</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44309</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44309</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44309</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>44309</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44314</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>44326</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44327</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>44344</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>44347</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44349</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>44357</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44363</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44363</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44364</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44365</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44365</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44371</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44378</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44378</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24186,7 +24186,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>44392</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>44393</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24367,7 +24367,7 @@
         <v>44393</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44393</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>44393</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44399</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>44411</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>44411</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24729,7 +24729,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44413</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44413</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>44413</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>44421</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44435</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44435</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44452</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44456</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25463,7 +25463,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44459</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44459</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44467</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44467</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44471</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>44473</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25887,7 +25887,7 @@
         <v>44476</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25944,7 +25944,7 @@
         <v>44477</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>44481</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>44481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44484</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44495</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44498</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44501</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44505</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>44508</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>44519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26549,7 +26549,7 @@
         <v>44526</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44529</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26673,7 +26673,7 @@
         <v>44533</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26730,7 +26730,7 @@
         <v>44536</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44538</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44539</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>44543</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>44546</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44547</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44552</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44558</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44558</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44568</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44599</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>44600</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>44607</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44615</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44629</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44636</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44643</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44651</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44651</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44656</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44680</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44686</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44687</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44691</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44697</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44697</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44705</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>44705</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28391,7 +28391,7 @@
         <v>44706</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>44711</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>44755</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44755</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44755</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44755</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44755</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44756</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>44782</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>44782</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44782</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44782</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44784</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44788</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44803</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>44804</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>44809</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29420,7 +29420,7 @@
         <v>44816</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44824</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44824</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44824</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44829</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44829</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44837</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44837</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44844</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>44844</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>44844</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44846</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44846</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44855</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44859</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44865</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>44866</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>44867</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44868</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44868</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>44869</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>44869</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44869</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>44873</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>44875</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>44894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31101,7 +31101,7 @@
         <v>44896</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31163,7 +31163,7 @@
         <v>44902</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31225,7 +31225,7 @@
         <v>44904</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31282,7 +31282,7 @@
         <v>44904</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         <v>44904</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>44910</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31453,7 +31453,7 @@
         <v>44910</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44911</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44911</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44915</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44923</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44923</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44924</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>44937</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44938</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32162,7 +32162,7 @@
         <v>44942</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32219,7 +32219,7 @@
         <v>44942</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32276,7 +32276,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32338,7 +32338,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32395,7 +32395,7 @@
         <v>44978</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32452,7 +32452,7 @@
         <v>44978</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45002</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32566,7 +32566,7 @@
         <v>45015</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32623,7 +32623,7 @@
         <v>45034</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32680,7 +32680,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45057</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32794,7 +32794,7 @@
         <v>45072</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32856,7 +32856,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32913,7 +32913,7 @@
         <v>45076</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>45077</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33027,7 +33027,7 @@
         <v>45078</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33089,7 +33089,7 @@
         <v>45082</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>45084</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>45084</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33265,7 +33265,7 @@
         <v>45085</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33322,7 +33322,7 @@
         <v>45085</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33379,7 +33379,7 @@
         <v>45086</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45097</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33503,7 +33503,7 @@
         <v>45097</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33622,7 +33622,7 @@
         <v>45103</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45105</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>45106</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>45106</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>45107</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>45107</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>45112</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>45113</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45113</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34217,7 +34217,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34512,7 +34512,7 @@
         <v>45114</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34569,7 +34569,7 @@
         <v>45114</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         <v>45114</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45114</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45114</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45118</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45121</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34916,7 +34916,7 @@
         <v>45124</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34973,7 +34973,7 @@
         <v>45126</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45131</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>45134</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>45134</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>45139</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>45140</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         <v>45141</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35382,7 +35382,7 @@
         <v>45145</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35439,7 +35439,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45159</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
         <v>45184</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44532</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>43627</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>44113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44848</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44939</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45104</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44673</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44879</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44853</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44473</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>44935</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43641</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44943</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45105</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>45119</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43713</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44830</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45182</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43703</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>44377</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>44470</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44516</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>44830</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44830</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44830</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43707</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44365</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44435</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>44525</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44706</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44874</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45068</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>45089</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>45145</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>45145</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45159</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43406</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>43437</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43587</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43928</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43937</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>44029</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44092</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44145</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44260</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>44284</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>44340</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44349</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44370</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44379</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44488</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>44516</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>44532</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44818</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44837</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>44865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44865</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44869</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44881</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44917</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>45107</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>45145</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43339</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43339</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43341</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43355</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43355</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>43382</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>43388</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43391</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43410</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43412</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43412</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43412</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43413</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43413</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43417</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>43419</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43419</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43425</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43425</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43426</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43427</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>43427</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43432</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>43436</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43436</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>43437</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>43448</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>43461</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43461</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43461</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43462</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43483</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43490</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43490</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43497</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43497</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43497</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43504</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43522</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43545</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43546</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>43546</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43549</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43550</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43556</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43570</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43570</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>43578</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>43578</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>43581</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43584</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43596</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43601</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43602</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43609</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>43609</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>43609</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43609</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43613</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43619</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>43624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>43626</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43626</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43626</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43628</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43635</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>43644</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43654</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>43657</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>43657</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43663</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43663</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43664</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43664</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>43664</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>43668</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43683</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>43683</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>43683</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>43683</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43706</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43706</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43714</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43731</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43737</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43740</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43742</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>43760</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>43780</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43783</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43783</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43783</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43783</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43789</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43789</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43791</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43792</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43794</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43794</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43795</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43805</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43822</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43845</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43854</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43866</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43878</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43878</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43882</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43897</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43917</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>43922</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>43923</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>43928</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43937</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>43944</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>43944</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43951</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>43955</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>43955</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>43969</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>43985</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>43990</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43990</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43991</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>43991</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>43991</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>44005</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44005</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44015</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44015</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44015</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44047</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44053</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44056</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44078</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44096</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>44106</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44113</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44126</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44140</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44145</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44145</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44146</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>44146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44153</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>44165</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>44179</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>44198</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44200</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44200</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44201</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>44201</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44201</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44201</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>44201</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>44201</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44210</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44210</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44210</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44214</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44215</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>44222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44224</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44229</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44230</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44230</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>44238</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>44238</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44260</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44279</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44281</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44284</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>44286</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>44287</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44292</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44308</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44309</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44309</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44309</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44309</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>44309</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44314</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>44326</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44327</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>44344</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>44347</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44349</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>44357</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44363</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44363</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44364</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44365</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44365</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44371</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44378</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44378</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24186,7 +24186,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>44392</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>44393</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24367,7 +24367,7 @@
         <v>44393</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44393</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>44393</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44399</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>44411</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>44411</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24729,7 +24729,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44413</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44413</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>44413</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>44421</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44435</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44435</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44452</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44456</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25463,7 +25463,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44459</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44459</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44467</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44467</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44471</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>44473</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25887,7 +25887,7 @@
         <v>44476</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25944,7 +25944,7 @@
         <v>44477</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>44481</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>44481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44484</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44495</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44498</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44501</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44505</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>44508</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>44519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26549,7 +26549,7 @@
         <v>44526</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44529</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26673,7 +26673,7 @@
         <v>44533</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26730,7 +26730,7 @@
         <v>44536</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44538</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44539</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>44543</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>44546</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44547</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44552</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44558</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44558</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44568</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44599</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>44600</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>44607</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44615</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44629</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44636</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44643</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44651</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44651</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44656</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44680</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44686</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44687</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44691</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44697</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44697</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44705</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>44705</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28391,7 +28391,7 @@
         <v>44706</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>44711</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>44755</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44755</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44755</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44755</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44755</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44756</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>44782</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>44782</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44782</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44782</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44784</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44788</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44803</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>44804</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>44809</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29420,7 +29420,7 @@
         <v>44816</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44824</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44824</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44824</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44829</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44829</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44837</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44837</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44844</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>44844</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>44844</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44846</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44846</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44855</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44859</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44865</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>44866</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>44867</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44868</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44868</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>44869</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>44869</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44869</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>44873</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>44875</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>44894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31101,7 +31101,7 @@
         <v>44896</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31163,7 +31163,7 @@
         <v>44902</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31225,7 +31225,7 @@
         <v>44904</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31282,7 +31282,7 @@
         <v>44904</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         <v>44904</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>44910</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31453,7 +31453,7 @@
         <v>44910</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44911</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44911</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44915</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44923</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44923</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44924</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>44937</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44938</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32162,7 +32162,7 @@
         <v>44942</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32219,7 +32219,7 @@
         <v>44942</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32276,7 +32276,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32338,7 +32338,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32395,7 +32395,7 @@
         <v>44978</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32452,7 +32452,7 @@
         <v>44978</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45002</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32566,7 +32566,7 @@
         <v>45015</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32623,7 +32623,7 @@
         <v>45034</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32680,7 +32680,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45057</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32794,7 +32794,7 @@
         <v>45072</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32856,7 +32856,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32913,7 +32913,7 @@
         <v>45076</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>45077</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33027,7 +33027,7 @@
         <v>45078</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33089,7 +33089,7 @@
         <v>45082</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>45084</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>45084</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33265,7 +33265,7 @@
         <v>45085</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33322,7 +33322,7 @@
         <v>45085</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33379,7 +33379,7 @@
         <v>45086</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45097</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33503,7 +33503,7 @@
         <v>45097</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33622,7 +33622,7 @@
         <v>45103</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45105</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>45106</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>45106</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>45107</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>45107</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>45112</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>45113</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45113</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34217,7 +34217,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34512,7 +34512,7 @@
         <v>45114</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34569,7 +34569,7 @@
         <v>45114</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         <v>45114</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45114</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45114</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45118</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45121</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34916,7 +34916,7 @@
         <v>45124</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34973,7 +34973,7 @@
         <v>45126</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45131</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>45134</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>45134</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>45139</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>45140</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         <v>45141</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35382,7 +35382,7 @@
         <v>45145</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35439,7 +35439,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45159</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
         <v>45184</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44532</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>43627</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>44113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44848</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44939</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45104</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44673</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44879</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44853</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44473</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>44935</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43641</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44943</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45105</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>45119</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43713</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44830</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45182</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43703</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>44377</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>44470</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44516</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>44830</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44830</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44830</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43707</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44365</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44435</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>44525</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44706</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44874</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45068</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>45089</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>45145</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>45145</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45159</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43406</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>43437</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43587</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43928</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43937</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>44029</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44092</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44145</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44260</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>44284</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>44340</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44349</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44370</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44379</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44488</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>44516</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>44532</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44818</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44837</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>44865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44865</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44869</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44881</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44917</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>45107</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>45145</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43339</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43339</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43341</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43355</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43355</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>43382</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>43388</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43391</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43410</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43412</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43412</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43412</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43413</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43413</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43417</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>43419</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43419</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43425</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43425</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43426</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43427</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>43427</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43432</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>43436</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43436</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>43437</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>43448</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>43461</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43461</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43461</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43462</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43483</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43490</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43490</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43497</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43497</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43497</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43504</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43522</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43545</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43546</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>43546</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43549</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43550</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43556</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43570</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43570</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>43578</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>43578</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>43581</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43584</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43596</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43601</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43602</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43609</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>43609</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>43609</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43609</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43613</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43619</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>43624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>43626</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43626</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43626</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43628</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43635</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>43644</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43654</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>43657</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>43657</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43663</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43663</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43664</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43664</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>43664</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>43668</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43683</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>43683</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>43683</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>43683</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43706</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43706</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43714</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43731</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43737</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43740</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43742</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>43760</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>43780</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43783</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43783</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43783</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43783</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43789</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43789</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43791</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43792</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43794</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43794</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43795</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43805</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43822</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43845</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43854</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43866</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43878</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43878</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43882</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43897</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43917</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>43922</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>43923</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>43928</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43937</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>43944</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>43944</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43951</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>43955</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>43955</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>43969</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>43985</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>43990</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43990</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43991</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>43991</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>43991</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>44005</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44005</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44015</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44015</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44015</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44047</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44053</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44056</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44078</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44096</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>44106</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44113</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44126</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44140</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44145</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44145</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44146</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>44146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44153</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>44165</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>44179</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>44198</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44200</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44200</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44201</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>44201</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44201</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44201</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>44201</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>44201</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44210</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44210</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44210</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44214</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44215</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>44222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44224</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44229</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44230</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44230</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>44238</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>44238</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44260</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44279</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44281</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44284</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>44286</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>44287</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44292</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44308</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44309</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44309</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44309</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44309</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>44309</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44314</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>44326</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44327</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>44344</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>44347</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44349</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>44357</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44363</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44363</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44364</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44365</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44365</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44371</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44378</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44378</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24186,7 +24186,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>44392</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>44393</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24367,7 +24367,7 @@
         <v>44393</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44393</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>44393</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44399</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>44411</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>44411</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24729,7 +24729,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44413</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44413</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>44413</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>44421</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44435</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44435</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44452</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44456</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25463,7 +25463,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44459</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44459</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44467</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44467</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44471</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>44473</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25887,7 +25887,7 @@
         <v>44476</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25944,7 +25944,7 @@
         <v>44477</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>44481</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>44481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44484</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44495</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44498</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44501</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44505</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>44508</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>44519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26549,7 +26549,7 @@
         <v>44526</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44529</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26673,7 +26673,7 @@
         <v>44533</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26730,7 +26730,7 @@
         <v>44536</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44538</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44539</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>44543</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>44546</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44547</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44552</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44558</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44558</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44568</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44599</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>44600</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>44607</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44615</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44629</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44636</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44643</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44651</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44651</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44656</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44680</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44686</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44687</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44691</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44697</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44697</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44705</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>44705</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28391,7 +28391,7 @@
         <v>44706</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>44711</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>44755</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44755</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44755</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44755</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44755</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44756</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>44782</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>44782</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44782</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44782</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44784</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44788</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44803</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>44804</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>44809</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29420,7 +29420,7 @@
         <v>44816</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44824</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44824</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44824</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44829</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44829</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44837</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44837</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44844</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>44844</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>44844</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44846</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44846</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44855</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44859</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44865</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>44866</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>44867</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44868</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44868</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>44869</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>44869</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44869</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>44873</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>44875</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>44894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31101,7 +31101,7 @@
         <v>44896</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31163,7 +31163,7 @@
         <v>44902</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31225,7 +31225,7 @@
         <v>44904</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31282,7 +31282,7 @@
         <v>44904</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         <v>44904</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>44910</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31453,7 +31453,7 @@
         <v>44910</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44911</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44911</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44915</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44923</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44923</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44924</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>44937</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44938</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32162,7 +32162,7 @@
         <v>44942</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32219,7 +32219,7 @@
         <v>44942</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32276,7 +32276,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32338,7 +32338,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32395,7 +32395,7 @@
         <v>44978</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32452,7 +32452,7 @@
         <v>44978</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45002</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32566,7 +32566,7 @@
         <v>45015</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32623,7 +32623,7 @@
         <v>45034</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32680,7 +32680,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45057</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32794,7 +32794,7 @@
         <v>45072</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32856,7 +32856,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32913,7 +32913,7 @@
         <v>45076</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>45077</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33027,7 +33027,7 @@
         <v>45078</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33089,7 +33089,7 @@
         <v>45082</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>45084</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>45084</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33265,7 +33265,7 @@
         <v>45085</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33322,7 +33322,7 @@
         <v>45085</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33379,7 +33379,7 @@
         <v>45086</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45097</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33503,7 +33503,7 @@
         <v>45097</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33622,7 +33622,7 @@
         <v>45103</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45105</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>45106</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>45106</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>45107</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>45107</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>45112</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>45113</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45113</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34217,7 +34217,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34512,7 +34512,7 @@
         <v>45114</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34569,7 +34569,7 @@
         <v>45114</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         <v>45114</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45114</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45114</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45118</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45121</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34916,7 +34916,7 @@
         <v>45124</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34973,7 +34973,7 @@
         <v>45126</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45131</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>45134</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>45134</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>45139</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>45140</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         <v>45141</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35382,7 +35382,7 @@
         <v>45145</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35439,7 +35439,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45159</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
         <v>45184</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>

--- a/Översikt ÄLVDALEN.xlsx
+++ b/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>44829</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>43999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>43490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>45044</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>43999</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44532</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45118</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>43627</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>45119</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>44113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>44848</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44939</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45104</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44673</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44879</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>44853</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>44378</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44472</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44473</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>44817</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>44935</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>43641</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
         <v>44943</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>45105</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>45119</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43713</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>44413</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>44824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44830</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45105</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45182</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43703</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>44377</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>44461</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>44470</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44516</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>44830</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44830</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44830</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>45120</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43707</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44365</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44435</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>44525</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44706</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44874</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45068</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>45089</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>45145</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>45145</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>45159</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>43406</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>43437</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>43587</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         <v>43928</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43937</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>44029</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>44061</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44092</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>44145</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44260</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>44284</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>44340</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>44349</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         <v>44370</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8044,7 +8044,7 @@
         <v>44379</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>44488</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>44516</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>44532</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44818</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44837</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>44865</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44865</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44869</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44881</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
         <v>44889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44917</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>45107</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45118</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>45145</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43339</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43339</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43341</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>43355</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43355</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43355</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43355</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>43382</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>43388</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43391</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43410</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43412</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43412</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43412</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43413</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43413</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43417</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         <v>43419</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         <v>43419</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>43425</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43425</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43426</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43427</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10953,7 +10953,7 @@
         <v>43427</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>43432</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>43434</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>43436</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43436</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>43437</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>43444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>43444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>43448</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>43454</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>43455</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>43461</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43461</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43461</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43462</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>43475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43483</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>43486</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43490</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43490</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43497</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43497</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43497</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43504</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43522</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43545</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43546</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>43546</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>43549</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>43550</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43552</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43556</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43570</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43570</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>43578</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>43578</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>43581</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43584</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43596</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43601</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43602</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43609</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>43609</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>43609</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>43609</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>43613</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>43619</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>43624</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>43626</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>43626</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>43626</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>43628</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>43635</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>43644</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43644</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>43654</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>43657</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>43657</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>43663</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>43663</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>43663</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>43664</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>43664</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>43664</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>43668</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>43683</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>43683</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>43683</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>43683</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43706</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>43706</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>43714</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>43731</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>43731</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>43735</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>43737</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>43738</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>43740</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>43741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>43742</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>43745</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>43760</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>43776</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>43777</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>43777</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>43777</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>43777</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>43780</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>43783</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>43783</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>43783</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>43783</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43789</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43789</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43791</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43792</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43794</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43794</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43795</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43805</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43820</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43822</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43845</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43854</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43866</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43866</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43878</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43878</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43882</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43897</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43914</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43917</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43921</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43922</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>43922</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>43922</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>43922</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>43923</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18330,7 +18330,7 @@
         <v>43928</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>43937</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>43944</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>43944</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>43951</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>43951</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>43955</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>43955</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>43969</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>43985</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>43990</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>43990</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>43991</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>43991</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19153,7 +19153,7 @@
         <v>43991</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>44005</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44005</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44015</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44015</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44015</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19525,7 +19525,7 @@
         <v>44027</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19582,7 +19582,7 @@
         <v>44047</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19639,7 +19639,7 @@
         <v>44053</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         <v>44056</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44078</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44096</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>44096</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20110,7 +20110,7 @@
         <v>44106</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20167,7 +20167,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44113</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44126</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44140</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44145</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44145</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44146</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>44146</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44153</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>44165</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>44179</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>44198</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21072,7 +21072,7 @@
         <v>44200</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>44200</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>44201</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>44201</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
         <v>44201</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>44201</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>44201</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         <v>44201</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
         <v>44210</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44210</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44210</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>44214</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>44215</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>44222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>44224</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>44229</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44230</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44230</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>44238</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>44238</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44260</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44279</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44281</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44284</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>44286</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>44287</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44292</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44308</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44309</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44309</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44309</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44309</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44309</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>44309</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44314</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
         <v>44326</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44327</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>44344</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>44347</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44349</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>44357</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44363</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>44363</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>44364</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44365</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44365</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24000,7 +24000,7 @@
         <v>44371</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44378</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>44378</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24186,7 +24186,7 @@
         <v>44391</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>44392</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>44393</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24367,7 +24367,7 @@
         <v>44393</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44393</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>44393</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>44399</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>44411</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>44411</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24729,7 +24729,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44413</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44413</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44413</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>44413</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>44421</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44435</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44435</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44452</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>44456</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25463,7 +25463,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>44459</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44459</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44467</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44467</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>44471</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>44473</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25887,7 +25887,7 @@
         <v>44476</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25944,7 +25944,7 @@
         <v>44477</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>44481</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>44481</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>44484</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>44495</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>44498</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44501</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44505</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>44508</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>44519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26549,7 +26549,7 @@
         <v>44526</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>44529</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26673,7 +26673,7 @@
         <v>44533</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26730,7 +26730,7 @@
         <v>44536</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44538</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44539</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>44543</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>44546</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>44547</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44552</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>44558</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44558</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44568</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>44599</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>44600</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>44607</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44615</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44629</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44636</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44643</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44651</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44651</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44656</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>44680</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27982,7 +27982,7 @@
         <v>44686</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28039,7 +28039,7 @@
         <v>44687</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>44691</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44697</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44697</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44705</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>44705</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28391,7 +28391,7 @@
         <v>44706</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28453,7 +28453,7 @@
         <v>44711</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28515,7 +28515,7 @@
         <v>44755</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44755</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44755</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>44755</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44755</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44756</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>44782</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>44782</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44782</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>44782</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29120,7 +29120,7 @@
         <v>44784</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>44788</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>44803</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>44804</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>44809</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29420,7 +29420,7 @@
         <v>44816</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44824</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29544,7 +29544,7 @@
         <v>44824</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>44824</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44829</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44829</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>44837</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>44837</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>44844</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>44844</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>44844</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44846</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44846</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44855</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44859</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>44865</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>44866</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>44867</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44868</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44868</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>44869</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>44869</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44869</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>44873</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>44874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>44874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>44875</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>44894</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31101,7 +31101,7 @@
         <v>44896</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31163,7 +31163,7 @@
         <v>44902</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31225,7 +31225,7 @@
         <v>44904</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31282,7 +31282,7 @@
         <v>44904</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         <v>44904</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>44910</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31453,7 +31453,7 @@
         <v>44910</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
         <v>44911</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31572,7 +31572,7 @@
         <v>44911</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31629,7 +31629,7 @@
         <v>44915</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44916</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44916</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44917</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44923</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44923</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44924</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>44937</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>44938</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32162,7 +32162,7 @@
         <v>44942</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32219,7 +32219,7 @@
         <v>44942</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32276,7 +32276,7 @@
         <v>44960</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32338,7 +32338,7 @@
         <v>44964</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32395,7 +32395,7 @@
         <v>44978</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32452,7 +32452,7 @@
         <v>44978</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45002</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32566,7 +32566,7 @@
         <v>45015</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32623,7 +32623,7 @@
         <v>45034</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32680,7 +32680,7 @@
         <v>45048</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45057</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32794,7 +32794,7 @@
         <v>45072</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32856,7 +32856,7 @@
         <v>45075</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32913,7 +32913,7 @@
         <v>45076</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>45077</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33027,7 +33027,7 @@
         <v>45078</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33089,7 +33089,7 @@
         <v>45082</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>45084</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>45084</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33265,7 +33265,7 @@
         <v>45085</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33322,7 +33322,7 @@
         <v>45085</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33379,7 +33379,7 @@
         <v>45086</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45097</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33503,7 +33503,7 @@
         <v>45097</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>45099</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33622,7 +33622,7 @@
         <v>45103</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45105</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>45106</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>45106</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>45107</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>45107</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>45112</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>45113</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>45113</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45113</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34217,7 +34217,7 @@
         <v>45114</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34279,7 +34279,7 @@
         <v>45114</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34336,7 +34336,7 @@
         <v>45114</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>45114</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>45114</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34512,7 +34512,7 @@
         <v>45114</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34569,7 +34569,7 @@
         <v>45114</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         <v>45114</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34683,7 +34683,7 @@
         <v>45114</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34740,7 +34740,7 @@
         <v>45114</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34797,7 +34797,7 @@
         <v>45118</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34854,7 +34854,7 @@
         <v>45121</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34916,7 +34916,7 @@
         <v>45124</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34973,7 +34973,7 @@
         <v>45126</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35030,7 +35030,7 @@
         <v>45131</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>45134</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>45134</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35206,7 +35206,7 @@
         <v>45139</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35263,7 +35263,7 @@
         <v>45140</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         <v>45141</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35382,7 +35382,7 @@
         <v>45145</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35439,7 +35439,7 @@
         <v>45159</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45159</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45159</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
         <v>45184</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
